--- a/format_encodings/documents/Fixed Length Encodings.xlsx
+++ b/format_encodings/documents/Fixed Length Encodings.xlsx
@@ -3,7 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Tables" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Tables (Before)" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Tables" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="390">
   <si>
     <t>Glyph:</t>
   </si>
@@ -1362,6 +1363,10 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
 
@@ -7378,4 +7383,5607 @@
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1.0" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection activeCell="C2" sqref="C2" pane="topRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="11.71"/>
+    <col customWidth="1" min="2" max="2" width="2.14"/>
+    <col customWidth="1" min="3" max="3" width="10.57"/>
+    <col customWidth="1" min="5" max="5" width="4.86"/>
+    <col customWidth="1" min="6" max="6" width="10.57"/>
+    <col customWidth="1" min="8" max="8" width="5.43"/>
+    <col customWidth="1" min="9" max="9" width="11.43"/>
+    <col customWidth="1" min="11" max="11" width="5.57"/>
+    <col customWidth="1" min="12" max="12" width="10.43"/>
+    <col customWidth="1" hidden="1" min="15" max="15" width="5.29"/>
+    <col hidden="1" min="16" max="17" width="14.43"/>
+    <col customWidth="1" hidden="1" min="18" max="18" width="16.43"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="60.75" customHeight="1">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
+      <c r="P1" s="1"/>
+      <c r="Q1" s="1"/>
+      <c r="R1" s="1"/>
+      <c r="S1" s="1"/>
+      <c r="T1" s="1"/>
+      <c r="U1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="W1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Y1" s="1"/>
+      <c r="Z1" s="1"/>
+      <c r="AA1" s="1"/>
+      <c r="AB1" s="1"/>
+      <c r="AC1" s="1"/>
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+      <c r="T2" s="4"/>
+      <c r="U2" s="4"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+      <c r="X2" s="4"/>
+      <c r="Y2" s="4"/>
+      <c r="Z2" s="4"/>
+      <c r="AA2" s="4"/>
+      <c r="AB2" s="4"/>
+      <c r="AC2" s="4"/>
+      <c r="AD2" s="4"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H3" s="4"/>
+      <c r="I3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="4"/>
+      <c r="L3" s="5"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="5"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="O4" s="4"/>
+      <c r="P4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="S4" s="4"/>
+      <c r="T4" s="4"/>
+      <c r="U4" s="4"/>
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+      <c r="X4" s="4"/>
+      <c r="Y4" s="4"/>
+      <c r="Z4" s="4"/>
+      <c r="AA4" s="4"/>
+      <c r="AB4" s="4"/>
+      <c r="AC4" s="4"/>
+      <c r="AD4" s="4"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="5"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="4"/>
+      <c r="Q5" s="4"/>
+      <c r="R5" s="4"/>
+      <c r="S5" s="4"/>
+      <c r="T5" s="4"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="4"/>
+      <c r="Z5" s="4"/>
+      <c r="AA5" s="4"/>
+      <c r="AB5" s="4"/>
+      <c r="AC5" s="4"/>
+      <c r="AD5" s="4"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="O6" s="4"/>
+      <c r="P6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q6" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="R6" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="S6" s="4"/>
+      <c r="T6" s="4"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="4"/>
+      <c r="Z6" s="4"/>
+      <c r="AA6" s="4"/>
+      <c r="AB6" s="4"/>
+      <c r="AC6" s="4"/>
+      <c r="AD6" s="4"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="5">
+        <v>0.0</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="J7" s="8"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" s="8">
+        <v>0.0</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="S7" s="4"/>
+      <c r="T7" s="4"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="4"/>
+      <c r="Z7" s="4"/>
+      <c r="AA7" s="4"/>
+      <c r="AB7" s="4"/>
+      <c r="AC7" s="4"/>
+      <c r="AD7" s="4"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="5">
+        <v>1.0</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="G8" s="8"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="J8" s="8"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="11"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q8" s="8">
+        <v>1.0</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="S8" s="4"/>
+      <c r="T8" s="4"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="4"/>
+      <c r="Z8" s="4"/>
+      <c r="AA8" s="4"/>
+      <c r="AB8" s="4"/>
+      <c r="AC8" s="4"/>
+      <c r="AD8" s="4"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="5">
+        <v>2.0</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="D9" s="8"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="G9" s="8"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="J9" s="8"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q9" s="8">
+        <v>2.0</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="S9" s="4"/>
+      <c r="T9" s="4"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="4"/>
+      <c r="Z9" s="4"/>
+      <c r="AA9" s="4"/>
+      <c r="AB9" s="4"/>
+      <c r="AC9" s="4"/>
+      <c r="AD9" s="4"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="5">
+        <v>3.0</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="J10" s="8"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="M10" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="N10" s="11"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q10" s="8">
+        <v>3.0</v>
+      </c>
+      <c r="R10" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="S10" s="4"/>
+      <c r="T10" s="4"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="4"/>
+      <c r="Z10" s="4"/>
+      <c r="AA10" s="4"/>
+      <c r="AB10" s="4"/>
+      <c r="AC10" s="4"/>
+      <c r="AD10" s="4"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="5">
+        <v>4.0</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="D11" s="8"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="G11" s="8"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="J11" s="8"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11" s="11"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="8">
+        <v>4.0</v>
+      </c>
+      <c r="R11" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S11" s="4"/>
+      <c r="T11" s="4"/>
+      <c r="U11" s="4"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="4"/>
+      <c r="Z11" s="4"/>
+      <c r="AA11" s="4"/>
+      <c r="AB11" s="4"/>
+      <c r="AC11" s="4"/>
+      <c r="AD11" s="4"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="5">
+        <v>5.0</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="D12" s="8"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="G12" s="8"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="J12" s="8"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="11"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q12" s="8">
+        <v>5.0</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="S12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="U12" s="4"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="4"/>
+      <c r="Y12" s="4"/>
+      <c r="Z12" s="4"/>
+      <c r="AA12" s="4"/>
+      <c r="AB12" s="4"/>
+      <c r="AC12" s="4"/>
+      <c r="AD12" s="4"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="5">
+        <v>6.0</v>
+      </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="G13" s="8"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="J13" s="8"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="M13" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="N13" s="11"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="Q13" s="8">
+        <v>6.0</v>
+      </c>
+      <c r="R13" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="5">
+        <v>7.0</v>
+      </c>
+      <c r="B14" s="4"/>
+      <c r="C14" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="G14" s="8"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="J14" s="8"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="M14" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="N14" s="11"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q14" s="8">
+        <v>7.0</v>
+      </c>
+      <c r="R14" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="S14" s="4"/>
+      <c r="T14" s="4"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="4"/>
+      <c r="Z14" s="4"/>
+      <c r="AA14" s="4"/>
+      <c r="AB14" s="4"/>
+      <c r="AC14" s="4"/>
+      <c r="AD14" s="4"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="5">
+        <v>8.0</v>
+      </c>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="G15" s="8"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="J15" s="8"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="M15" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="N15" s="11"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q15" s="8">
+        <v>8.0</v>
+      </c>
+      <c r="R15" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="5">
+        <v>9.0</v>
+      </c>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="G16" s="8"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="J16" s="8"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="11"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q16" s="8">
+        <v>9.0</v>
+      </c>
+      <c r="R16" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="S16" s="4"/>
+      <c r="T16" s="4"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="4"/>
+      <c r="Z16" s="4"/>
+      <c r="AA16" s="4"/>
+      <c r="AB16" s="4"/>
+      <c r="AC16" s="4"/>
+      <c r="AD16" s="4"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="5">
+        <v>10.0</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="J17" s="8"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="M17" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="N17" s="11"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="12" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q17" s="8">
+        <v>10.0</v>
+      </c>
+      <c r="R17" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="5">
+        <v>11.0</v>
+      </c>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J18" s="8"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="M18" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="N18" s="11"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="R18" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="S18" s="4"/>
+      <c r="T18" s="4"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="4"/>
+      <c r="Z18" s="4"/>
+      <c r="AA18" s="4"/>
+      <c r="AB18" s="4"/>
+      <c r="AC18" s="4"/>
+      <c r="AD18" s="4"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="5">
+        <v>12.0</v>
+      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="J19" s="8"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="N19" s="11"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="14"/>
+      <c r="Q19" s="8">
+        <v>12.0</v>
+      </c>
+      <c r="R19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="S19" s="4"/>
+      <c r="T19" s="4"/>
+      <c r="U19" s="4"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="4"/>
+      <c r="Z19" s="4"/>
+      <c r="AA19" s="4"/>
+      <c r="AB19" s="4"/>
+      <c r="AC19" s="4"/>
+      <c r="AD19" s="4"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="5">
+        <v>13.0</v>
+      </c>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="13"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="J20" s="8"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="M20" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="N20" s="11"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="14"/>
+      <c r="Q20" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="R20" s="11" t="s">
+        <v>107</v>
+      </c>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="5">
+        <v>14.0</v>
+      </c>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="13"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="8"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="N21" s="11"/>
+      <c r="O21" s="4"/>
+      <c r="P21" s="14"/>
+      <c r="Q21" s="8">
+        <v>14.0</v>
+      </c>
+      <c r="R21" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="S21" s="4"/>
+      <c r="T21" s="4"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="4"/>
+      <c r="Z21" s="4"/>
+      <c r="AA21" s="4"/>
+      <c r="AB21" s="4"/>
+      <c r="AC21" s="4"/>
+      <c r="AD21" s="4"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="5">
+        <v>15.0</v>
+      </c>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="5"/>
+      <c r="I22" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J22" s="8"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M22" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N22" s="11"/>
+      <c r="O22" s="4"/>
+      <c r="P22" s="14"/>
+      <c r="Q22" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="R22" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="S22" s="4"/>
+      <c r="T22" s="4"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="4"/>
+      <c r="Z22" s="4"/>
+      <c r="AA22" s="4"/>
+      <c r="AB22" s="4"/>
+      <c r="AC22" s="4"/>
+      <c r="AD22" s="4"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="5">
+        <v>16.0</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M23" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="N23" s="11"/>
+      <c r="O23" s="4"/>
+      <c r="P23" s="14"/>
+      <c r="Q23" s="8">
+        <v>16.0</v>
+      </c>
+      <c r="R23" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="S23" s="4"/>
+      <c r="T23" s="4"/>
+      <c r="U23" s="4"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="4"/>
+      <c r="Y23" s="4"/>
+      <c r="Z23" s="4"/>
+      <c r="AA23" s="4"/>
+      <c r="AB23" s="4"/>
+      <c r="AC23" s="4"/>
+      <c r="AD23" s="4"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="5">
+        <v>17.0</v>
+      </c>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="M24" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="N24" s="11"/>
+      <c r="O24" s="4"/>
+      <c r="P24" s="14"/>
+      <c r="Q24" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="R24" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="S24" s="4"/>
+      <c r="T24" s="4"/>
+      <c r="U24" s="4"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="4"/>
+      <c r="Z24" s="4"/>
+      <c r="AA24" s="4"/>
+      <c r="AB24" s="4"/>
+      <c r="AC24" s="4"/>
+      <c r="AD24" s="4"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="5">
+        <v>18.0</v>
+      </c>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="4"/>
+      <c r="J25" s="4"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="M25" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N25" s="11"/>
+      <c r="O25" s="4"/>
+      <c r="P25" s="14"/>
+      <c r="Q25" s="8">
+        <v>18.0</v>
+      </c>
+      <c r="R25" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="S25" s="4"/>
+      <c r="T25" s="4"/>
+      <c r="U25" s="4"/>
+      <c r="V25" s="4"/>
+      <c r="W25" s="4"/>
+      <c r="X25" s="4"/>
+      <c r="Y25" s="4"/>
+      <c r="Z25" s="4"/>
+      <c r="AA25" s="4"/>
+      <c r="AB25" s="4"/>
+      <c r="AC25" s="4"/>
+      <c r="AD25" s="4"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="5">
+        <v>19.0</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="5"/>
+      <c r="L26" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="N26" s="11"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="14"/>
+      <c r="Q26" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="R26" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5">
+        <v>20.0</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="5"/>
+      <c r="L27" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="M27" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="N27" s="11"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="14"/>
+      <c r="Q27" s="8">
+        <v>20.0</v>
+      </c>
+      <c r="R27" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="S27" s="4"/>
+      <c r="T27" s="4"/>
+      <c r="U27" s="4"/>
+      <c r="V27" s="4"/>
+      <c r="W27" s="4"/>
+      <c r="X27" s="4"/>
+      <c r="Y27" s="4"/>
+      <c r="Z27" s="4"/>
+      <c r="AA27" s="4"/>
+      <c r="AB27" s="4"/>
+      <c r="AC27" s="4"/>
+      <c r="AD27" s="4"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5">
+        <v>21.0</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="M28" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="N28" s="11"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="14"/>
+      <c r="Q28" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="R28" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="5">
+        <v>22.0</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="N29" s="11"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="14"/>
+      <c r="Q29" s="8">
+        <v>22.0</v>
+      </c>
+      <c r="R29" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="S29" s="4"/>
+      <c r="T29" s="4"/>
+      <c r="U29" s="4"/>
+      <c r="V29" s="4"/>
+      <c r="W29" s="4"/>
+      <c r="X29" s="4"/>
+      <c r="Y29" s="4"/>
+      <c r="Z29" s="4"/>
+      <c r="AA29" s="4"/>
+      <c r="AB29" s="4"/>
+      <c r="AC29" s="4"/>
+      <c r="AD29" s="4"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5">
+        <v>23.0</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M30" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="N30" s="11"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="14"/>
+      <c r="Q30" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="R30" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="S30" s="4"/>
+      <c r="T30" s="4"/>
+      <c r="U30" s="4"/>
+      <c r="V30" s="4"/>
+      <c r="W30" s="4"/>
+      <c r="X30" s="4"/>
+      <c r="Y30" s="4"/>
+      <c r="Z30" s="4"/>
+      <c r="AA30" s="4"/>
+      <c r="AB30" s="4"/>
+      <c r="AC30" s="4"/>
+      <c r="AD30" s="4"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="5">
+        <v>24.0</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="5"/>
+      <c r="L31" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="N31" s="11"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="14"/>
+      <c r="Q31" s="8">
+        <v>24.0</v>
+      </c>
+      <c r="R31" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="S31" s="4"/>
+      <c r="T31" s="4"/>
+      <c r="U31" s="4"/>
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+      <c r="X31" s="4"/>
+      <c r="Y31" s="4"/>
+      <c r="Z31" s="4"/>
+      <c r="AA31" s="4"/>
+      <c r="AB31" s="4"/>
+      <c r="AC31" s="4"/>
+      <c r="AD31" s="4"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5">
+        <v>25.0</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="5"/>
+      <c r="L32" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="M32" s="11" t="s">
+        <v>157</v>
+      </c>
+      <c r="N32" s="11"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="14"/>
+      <c r="Q32" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="R32" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="S32" s="4"/>
+      <c r="T32" s="4"/>
+      <c r="U32" s="4"/>
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+      <c r="X32" s="4"/>
+      <c r="Y32" s="4"/>
+      <c r="Z32" s="4"/>
+      <c r="AA32" s="4"/>
+      <c r="AB32" s="4"/>
+      <c r="AC32" s="4"/>
+      <c r="AD32" s="4"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5">
+        <v>26.0</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="5"/>
+      <c r="L33" s="15" t="s">
+        <v>84</v>
+      </c>
+      <c r="M33" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="N33" s="11"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="8">
+        <v>26.0</v>
+      </c>
+      <c r="R33" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="S33" s="4"/>
+      <c r="T33" s="4"/>
+      <c r="U33" s="4"/>
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+      <c r="X33" s="4"/>
+      <c r="Y33" s="4"/>
+      <c r="Z33" s="4"/>
+      <c r="AA33" s="4"/>
+      <c r="AB33" s="4"/>
+      <c r="AC33" s="4"/>
+      <c r="AD33" s="4"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5">
+        <v>27.0</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="5"/>
+      <c r="L34" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="M34" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="N34" s="11"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q34" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="R34" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="S34" s="4"/>
+      <c r="T34" s="4"/>
+      <c r="U34" s="4"/>
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+      <c r="X34" s="4"/>
+      <c r="Y34" s="4"/>
+      <c r="Z34" s="4"/>
+      <c r="AA34" s="4"/>
+      <c r="AB34" s="4"/>
+      <c r="AC34" s="4"/>
+      <c r="AD34" s="4"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5">
+        <v>28.0</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="5"/>
+      <c r="L35" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="M35" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="N35" s="11"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="8">
+        <v>28.0</v>
+      </c>
+      <c r="R35" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="S35" s="4"/>
+      <c r="T35" s="4"/>
+      <c r="U35" s="4"/>
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+      <c r="X35" s="4"/>
+      <c r="Y35" s="4"/>
+      <c r="Z35" s="4"/>
+      <c r="AA35" s="4"/>
+      <c r="AB35" s="4"/>
+      <c r="AC35" s="4"/>
+      <c r="AD35" s="4"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5">
+        <v>29.0</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="5"/>
+      <c r="L36" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>170</v>
+      </c>
+      <c r="N36" s="11"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="R36" s="11" t="s">
+        <v>172</v>
+      </c>
+      <c r="S36" s="4"/>
+      <c r="T36" s="4"/>
+      <c r="U36" s="4"/>
+      <c r="V36" s="4"/>
+      <c r="W36" s="4"/>
+      <c r="X36" s="4"/>
+      <c r="Y36" s="4"/>
+      <c r="Z36" s="4"/>
+      <c r="AA36" s="4"/>
+      <c r="AB36" s="4"/>
+      <c r="AC36" s="4"/>
+      <c r="AD36" s="4"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5">
+        <v>30.0</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="5"/>
+      <c r="L37" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="M37" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="N37" s="11"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="8">
+        <v>30.0</v>
+      </c>
+      <c r="R37" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5">
+        <v>31.0</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="5"/>
+      <c r="L38" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="M38" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="N38" s="18"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="R38" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="S38" s="4"/>
+      <c r="T38" s="4"/>
+      <c r="U38" s="4"/>
+      <c r="V38" s="4"/>
+      <c r="W38" s="4"/>
+      <c r="X38" s="4"/>
+      <c r="Y38" s="4"/>
+      <c r="Z38" s="4"/>
+      <c r="AA38" s="4"/>
+      <c r="AB38" s="4"/>
+      <c r="AC38" s="4"/>
+      <c r="AD38" s="4"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="5">
+        <v>32.0</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="5"/>
+      <c r="L39" s="15" t="s">
+        <v>179</v>
+      </c>
+      <c r="M39" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="N39" s="18"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q39" s="8">
+        <v>32.0</v>
+      </c>
+      <c r="R39" s="11" t="s">
+        <v>183</v>
+      </c>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="5">
+        <v>33.0</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="5"/>
+      <c r="L40" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="M40" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="N40" s="18"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="Q40" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="R40" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="5">
+        <v>34.0</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="5"/>
+      <c r="L41" s="15" t="s">
+        <v>189</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="N41" s="18"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="Q41" s="8">
+        <v>34.0</v>
+      </c>
+      <c r="R41" s="11" t="s">
+        <v>193</v>
+      </c>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+    </row>
+    <row r="42">
+      <c r="A42" s="5">
+        <v>35.0</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="5"/>
+      <c r="L42" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="M42" s="11" t="s">
+        <v>195</v>
+      </c>
+      <c r="N42" s="18"/>
+      <c r="O42" s="4"/>
+      <c r="P42" s="20" t="s">
+        <v>197</v>
+      </c>
+      <c r="Q42" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="R42" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="S42" s="4"/>
+      <c r="T42" s="4"/>
+      <c r="U42" s="4"/>
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+      <c r="X42" s="4"/>
+      <c r="Y42" s="4"/>
+      <c r="Z42" s="4"/>
+      <c r="AA42" s="4"/>
+      <c r="AB42" s="4"/>
+      <c r="AC42" s="4"/>
+      <c r="AD42" s="4"/>
+    </row>
+    <row r="43">
+      <c r="A43" s="5">
+        <v>36.0</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="5"/>
+      <c r="L43" s="15" t="s">
+        <v>199</v>
+      </c>
+      <c r="M43" s="11" t="s">
+        <v>200</v>
+      </c>
+      <c r="N43" s="18"/>
+      <c r="O43" s="4"/>
+      <c r="P43" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q43" s="8">
+        <v>36.0</v>
+      </c>
+      <c r="R43" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="S43" s="4"/>
+      <c r="T43" s="4"/>
+      <c r="U43" s="4"/>
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+      <c r="X43" s="4"/>
+      <c r="Y43" s="4"/>
+      <c r="Z43" s="4"/>
+      <c r="AA43" s="4"/>
+      <c r="AB43" s="4"/>
+      <c r="AC43" s="4"/>
+      <c r="AD43" s="4"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="5">
+        <v>37.0</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="4"/>
+      <c r="K44" s="5"/>
+      <c r="L44" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="N44" s="18"/>
+      <c r="O44" s="4"/>
+      <c r="P44" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="Q44" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="R44" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="S44" s="4"/>
+      <c r="T44" s="4"/>
+      <c r="U44" s="4"/>
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+      <c r="X44" s="4"/>
+      <c r="Y44" s="4"/>
+      <c r="Z44" s="4"/>
+      <c r="AA44" s="4"/>
+      <c r="AB44" s="4"/>
+      <c r="AC44" s="4"/>
+      <c r="AD44" s="4"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="5">
+        <v>38.0</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="5"/>
+      <c r="L45" s="15" t="s">
+        <v>209</v>
+      </c>
+      <c r="M45" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="N45" s="18"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q45" s="8">
+        <v>38.0</v>
+      </c>
+      <c r="R45" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="S45" s="4"/>
+      <c r="T45" s="4"/>
+      <c r="U45" s="4"/>
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+      <c r="X45" s="4"/>
+      <c r="Y45" s="4"/>
+      <c r="Z45" s="4"/>
+      <c r="AA45" s="4"/>
+      <c r="AB45" s="4"/>
+      <c r="AC45" s="4"/>
+      <c r="AD45" s="4"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="5">
+        <v>39.0</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="5"/>
+      <c r="L46" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="M46" s="11" t="s">
+        <v>215</v>
+      </c>
+      <c r="N46" s="18"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="21" t="s">
+        <v>217</v>
+      </c>
+      <c r="Q46" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="R46" s="11" t="s">
+        <v>218</v>
+      </c>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="5">
+        <v>40.0</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="4"/>
+      <c r="G47" s="4"/>
+      <c r="H47" s="4"/>
+      <c r="I47" s="4"/>
+      <c r="J47" s="4"/>
+      <c r="K47" s="5"/>
+      <c r="L47" s="15" t="s">
+        <v>219</v>
+      </c>
+      <c r="M47" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="N47" s="18"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q47" s="8">
+        <v>40.0</v>
+      </c>
+      <c r="R47" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
+      <c r="AD47" s="4"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="5">
+        <v>41.0</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="4"/>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
+      <c r="K48" s="5"/>
+      <c r="L48" s="15" t="s">
+        <v>224</v>
+      </c>
+      <c r="M48" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="N48" s="18"/>
+      <c r="O48" s="4"/>
+      <c r="P48" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="Q48" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="R48" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="S48" s="4"/>
+      <c r="T48" s="4"/>
+      <c r="U48" s="4"/>
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+      <c r="X48" s="4"/>
+      <c r="Y48" s="4"/>
+      <c r="Z48" s="4"/>
+      <c r="AA48" s="4"/>
+      <c r="AB48" s="4"/>
+      <c r="AC48" s="4"/>
+      <c r="AD48" s="4"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="5">
+        <v>42.0</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="4"/>
+      <c r="E49" s="4"/>
+      <c r="F49" s="4"/>
+      <c r="G49" s="4"/>
+      <c r="H49" s="4"/>
+      <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="15" t="s">
+        <v>229</v>
+      </c>
+      <c r="M49" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="N49" s="18"/>
+      <c r="O49" s="4"/>
+      <c r="P49" s="20" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q49" s="8">
+        <v>42.0</v>
+      </c>
+      <c r="R49" s="11" t="s">
+        <v>233</v>
+      </c>
+      <c r="S49" s="4"/>
+      <c r="T49" s="4"/>
+      <c r="U49" s="4"/>
+      <c r="V49" s="4"/>
+      <c r="W49" s="4"/>
+      <c r="X49" s="4"/>
+      <c r="Y49" s="4"/>
+      <c r="Z49" s="4"/>
+      <c r="AA49" s="4"/>
+      <c r="AB49" s="4"/>
+      <c r="AC49" s="4"/>
+      <c r="AD49" s="4"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="5">
+        <v>43.0</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="4"/>
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>235</v>
+      </c>
+      <c r="N50" s="18"/>
+      <c r="O50" s="4"/>
+      <c r="P50" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q50" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="R50" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="S50" s="4"/>
+      <c r="T50" s="4"/>
+      <c r="U50" s="4"/>
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+      <c r="X50" s="4"/>
+      <c r="Y50" s="4"/>
+      <c r="Z50" s="4"/>
+      <c r="AA50" s="4"/>
+      <c r="AB50" s="4"/>
+      <c r="AC50" s="4"/>
+      <c r="AD50" s="4"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="5">
+        <v>44.0</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="4"/>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="5"/>
+      <c r="L51" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="N51" s="18"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="20" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q51" s="8">
+        <v>44.0</v>
+      </c>
+      <c r="R51" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="5">
+        <v>45.0</v>
+      </c>
+      <c r="B52" s="4"/>
+      <c r="C52" s="4"/>
+      <c r="D52" s="4"/>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="5"/>
+      <c r="L52" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="M52" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="N52" s="18"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="20" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q52" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="R52" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+      <c r="X52" s="4"/>
+      <c r="Y52" s="4"/>
+      <c r="Z52" s="4"/>
+      <c r="AA52" s="4"/>
+      <c r="AB52" s="4"/>
+      <c r="AC52" s="4"/>
+      <c r="AD52" s="4"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="5">
+        <v>46.0</v>
+      </c>
+      <c r="B53" s="4"/>
+      <c r="C53" s="4"/>
+      <c r="D53" s="4"/>
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="4"/>
+      <c r="K53" s="5"/>
+      <c r="L53" s="15" t="s">
+        <v>249</v>
+      </c>
+      <c r="M53" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="N53" s="18"/>
+      <c r="O53" s="4"/>
+      <c r="P53" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q53" s="8">
+        <v>46.0</v>
+      </c>
+      <c r="R53" s="11" t="s">
+        <v>253</v>
+      </c>
+      <c r="S53" s="4"/>
+      <c r="T53" s="4"/>
+      <c r="U53" s="4"/>
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+      <c r="X53" s="4"/>
+      <c r="Y53" s="4"/>
+      <c r="Z53" s="4"/>
+      <c r="AA53" s="4"/>
+      <c r="AB53" s="4"/>
+      <c r="AC53" s="4"/>
+      <c r="AD53" s="4"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="5">
+        <v>47.0</v>
+      </c>
+      <c r="B54" s="4"/>
+      <c r="C54" s="4"/>
+      <c r="D54" s="4"/>
+      <c r="E54" s="4"/>
+      <c r="F54" s="4"/>
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="4"/>
+      <c r="J54" s="4"/>
+      <c r="K54" s="5"/>
+      <c r="L54" s="15" t="s">
+        <v>254</v>
+      </c>
+      <c r="M54" s="11" t="s">
+        <v>255</v>
+      </c>
+      <c r="N54" s="18"/>
+      <c r="O54" s="4"/>
+      <c r="P54" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q54" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="R54" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="S54" s="4"/>
+      <c r="T54" s="4"/>
+      <c r="U54" s="4"/>
+      <c r="V54" s="4"/>
+      <c r="W54" s="4"/>
+      <c r="X54" s="4"/>
+      <c r="Y54" s="4"/>
+      <c r="Z54" s="4"/>
+      <c r="AA54" s="4"/>
+      <c r="AB54" s="4"/>
+      <c r="AC54" s="4"/>
+      <c r="AD54" s="4"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="5">
+        <v>48.0</v>
+      </c>
+      <c r="B55" s="4"/>
+      <c r="C55" s="4"/>
+      <c r="D55" s="4"/>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="4"/>
+      <c r="K55" s="5"/>
+      <c r="L55" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="M55" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="N55" s="18"/>
+      <c r="O55" s="4"/>
+      <c r="P55" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q55" s="8">
+        <v>48.0</v>
+      </c>
+      <c r="R55" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="S55" s="4"/>
+      <c r="T55" s="4"/>
+      <c r="U55" s="4"/>
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+      <c r="X55" s="4"/>
+      <c r="Y55" s="4"/>
+      <c r="Z55" s="4"/>
+      <c r="AA55" s="4"/>
+      <c r="AB55" s="4"/>
+      <c r="AC55" s="4"/>
+      <c r="AD55" s="4"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="5">
+        <v>49.0</v>
+      </c>
+      <c r="B56" s="4"/>
+      <c r="C56" s="4"/>
+      <c r="D56" s="4"/>
+      <c r="E56" s="4"/>
+      <c r="F56" s="4"/>
+      <c r="G56" s="4"/>
+      <c r="H56" s="4"/>
+      <c r="I56" s="4"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="5"/>
+      <c r="L56" s="15" t="s">
+        <v>261</v>
+      </c>
+      <c r="M56" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="N56" s="18"/>
+      <c r="O56" s="4"/>
+      <c r="P56" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q56" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="R56" s="11" t="s">
+        <v>264</v>
+      </c>
+      <c r="S56" s="4"/>
+      <c r="T56" s="4"/>
+      <c r="U56" s="4"/>
+      <c r="V56" s="4"/>
+      <c r="W56" s="4"/>
+      <c r="X56" s="4"/>
+      <c r="Y56" s="4"/>
+      <c r="Z56" s="4"/>
+      <c r="AA56" s="4"/>
+      <c r="AB56" s="4"/>
+      <c r="AC56" s="4"/>
+      <c r="AD56" s="4"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="5">
+        <v>50.0</v>
+      </c>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="5"/>
+      <c r="L57" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="M57" s="11" t="s">
+        <v>266</v>
+      </c>
+      <c r="N57" s="18"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q57" s="8">
+        <v>50.0</v>
+      </c>
+      <c r="R57" s="11" t="s">
+        <v>268</v>
+      </c>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="5">
+        <v>51.0</v>
+      </c>
+      <c r="B58" s="4"/>
+      <c r="C58" s="4"/>
+      <c r="D58" s="4"/>
+      <c r="E58" s="4"/>
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="4"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="5"/>
+      <c r="L58" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="M58" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="N58" s="18"/>
+      <c r="O58" s="4"/>
+      <c r="P58" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q58" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="R58" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="S58" s="4"/>
+      <c r="T58" s="4"/>
+      <c r="U58" s="4"/>
+      <c r="V58" s="4"/>
+      <c r="W58" s="4"/>
+      <c r="X58" s="4"/>
+      <c r="Y58" s="4"/>
+      <c r="Z58" s="4"/>
+      <c r="AA58" s="4"/>
+      <c r="AB58" s="4"/>
+      <c r="AC58" s="4"/>
+      <c r="AD58" s="4"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="5">
+        <v>52.0</v>
+      </c>
+      <c r="B59" s="4"/>
+      <c r="C59" s="4"/>
+      <c r="D59" s="4"/>
+      <c r="E59" s="4"/>
+      <c r="F59" s="4"/>
+      <c r="G59" s="4"/>
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="5"/>
+      <c r="L59" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="M59" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="N59" s="18"/>
+      <c r="O59" s="4"/>
+      <c r="P59" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q59" s="8">
+        <v>52.0</v>
+      </c>
+      <c r="R59" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="S59" s="4"/>
+      <c r="T59" s="4"/>
+      <c r="U59" s="4"/>
+      <c r="V59" s="4"/>
+      <c r="W59" s="4"/>
+      <c r="X59" s="4"/>
+      <c r="Y59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AA59" s="4"/>
+      <c r="AB59" s="4"/>
+      <c r="AC59" s="4"/>
+      <c r="AD59" s="4"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="5">
+        <v>53.0</v>
+      </c>
+      <c r="B60" s="4"/>
+      <c r="C60" s="4"/>
+      <c r="D60" s="4"/>
+      <c r="E60" s="4"/>
+      <c r="F60" s="4"/>
+      <c r="G60" s="4"/>
+      <c r="H60" s="4"/>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="5"/>
+      <c r="L60" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="M60" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="N60" s="18"/>
+      <c r="O60" s="4"/>
+      <c r="P60" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q60" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="R60" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="S60" s="4"/>
+      <c r="T60" s="4"/>
+      <c r="U60" s="4"/>
+      <c r="V60" s="4"/>
+      <c r="W60" s="4"/>
+      <c r="X60" s="4"/>
+      <c r="Y60" s="4"/>
+      <c r="Z60" s="4"/>
+      <c r="AA60" s="4"/>
+      <c r="AB60" s="4"/>
+      <c r="AC60" s="4"/>
+      <c r="AD60" s="4"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="5">
+        <v>54.0</v>
+      </c>
+      <c r="B61" s="4"/>
+      <c r="C61" s="4"/>
+      <c r="D61" s="4"/>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="4"/>
+      <c r="K61" s="5"/>
+      <c r="L61" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="M61" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="N61" s="18"/>
+      <c r="O61" s="4"/>
+      <c r="P61" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q61" s="8">
+        <v>54.0</v>
+      </c>
+      <c r="R61" s="11" t="s">
+        <v>281</v>
+      </c>
+      <c r="S61" s="4"/>
+      <c r="T61" s="4"/>
+      <c r="U61" s="4"/>
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+      <c r="X61" s="4"/>
+      <c r="Y61" s="4"/>
+      <c r="Z61" s="4"/>
+      <c r="AA61" s="4"/>
+      <c r="AB61" s="4"/>
+      <c r="AC61" s="4"/>
+      <c r="AD61" s="4"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="5">
+        <v>55.0</v>
+      </c>
+      <c r="B62" s="4"/>
+      <c r="C62" s="4"/>
+      <c r="D62" s="4"/>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="5"/>
+      <c r="L62" s="15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M62" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="N62" s="18"/>
+      <c r="O62" s="4"/>
+      <c r="P62" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q62" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="R62" s="11" t="s">
+        <v>284</v>
+      </c>
+      <c r="S62" s="4"/>
+      <c r="T62" s="4"/>
+      <c r="U62" s="4"/>
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+      <c r="X62" s="4"/>
+      <c r="Y62" s="4"/>
+      <c r="Z62" s="4"/>
+      <c r="AA62" s="4"/>
+      <c r="AB62" s="4"/>
+      <c r="AC62" s="4"/>
+      <c r="AD62" s="4"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="5">
+        <v>56.0</v>
+      </c>
+      <c r="B63" s="4"/>
+      <c r="C63" s="4"/>
+      <c r="D63" s="4"/>
+      <c r="E63" s="4"/>
+      <c r="F63" s="4"/>
+      <c r="G63" s="4"/>
+      <c r="H63" s="4"/>
+      <c r="I63" s="4"/>
+      <c r="J63" s="4"/>
+      <c r="K63" s="5"/>
+      <c r="L63" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="M63" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="N63" s="18"/>
+      <c r="O63" s="4"/>
+      <c r="P63" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q63" s="8">
+        <v>56.0</v>
+      </c>
+      <c r="R63" s="11" t="s">
+        <v>287</v>
+      </c>
+      <c r="S63" s="4"/>
+      <c r="T63" s="4"/>
+      <c r="U63" s="4"/>
+      <c r="V63" s="4"/>
+      <c r="W63" s="4"/>
+      <c r="X63" s="4"/>
+      <c r="Y63" s="4"/>
+      <c r="Z63" s="4"/>
+      <c r="AA63" s="4"/>
+      <c r="AB63" s="4"/>
+      <c r="AC63" s="4"/>
+      <c r="AD63" s="4"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="5">
+        <v>57.0</v>
+      </c>
+      <c r="B64" s="4"/>
+      <c r="C64" s="4"/>
+      <c r="D64" s="4"/>
+      <c r="E64" s="4"/>
+      <c r="F64" s="4"/>
+      <c r="G64" s="4"/>
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="4"/>
+      <c r="K64" s="5"/>
+      <c r="L64" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="M64" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="N64" s="18"/>
+      <c r="O64" s="4"/>
+      <c r="P64" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q64" s="8">
+        <v>57.0</v>
+      </c>
+      <c r="R64" s="11" t="s">
+        <v>290</v>
+      </c>
+      <c r="S64" s="4"/>
+      <c r="T64" s="4"/>
+      <c r="U64" s="4"/>
+      <c r="V64" s="4"/>
+      <c r="W64" s="4"/>
+      <c r="X64" s="4"/>
+      <c r="Y64" s="4"/>
+      <c r="Z64" s="4"/>
+      <c r="AA64" s="4"/>
+      <c r="AB64" s="4"/>
+      <c r="AC64" s="4"/>
+      <c r="AD64" s="4"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="5">
+        <v>58.0</v>
+      </c>
+      <c r="B65" s="4"/>
+      <c r="C65" s="4"/>
+      <c r="D65" s="4"/>
+      <c r="E65" s="4"/>
+      <c r="F65" s="4"/>
+      <c r="G65" s="4"/>
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="4"/>
+      <c r="K65" s="5"/>
+      <c r="L65" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="M65" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="N65" s="18"/>
+      <c r="O65" s="4"/>
+      <c r="P65" s="8" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q65" s="8">
+        <v>58.0</v>
+      </c>
+      <c r="R65" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="S65" s="4"/>
+      <c r="T65" s="4"/>
+      <c r="U65" s="4"/>
+      <c r="V65" s="4"/>
+      <c r="W65" s="4"/>
+      <c r="X65" s="4"/>
+      <c r="Y65" s="4"/>
+      <c r="Z65" s="4"/>
+      <c r="AA65" s="4"/>
+      <c r="AB65" s="4"/>
+      <c r="AC65" s="4"/>
+      <c r="AD65" s="4"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="5">
+        <v>59.0</v>
+      </c>
+      <c r="B66" s="4"/>
+      <c r="C66" s="4"/>
+      <c r="D66" s="4"/>
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="4"/>
+      <c r="K66" s="5"/>
+      <c r="L66" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="M66" s="11" t="s">
+        <v>295</v>
+      </c>
+      <c r="N66" s="18"/>
+      <c r="O66" s="4"/>
+      <c r="P66" s="8" t="s">
+        <v>297</v>
+      </c>
+      <c r="Q66" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="R66" s="11" t="s">
+        <v>298</v>
+      </c>
+      <c r="S66" s="4"/>
+      <c r="T66" s="4"/>
+      <c r="U66" s="4"/>
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+      <c r="X66" s="4"/>
+      <c r="Y66" s="4"/>
+      <c r="Z66" s="4"/>
+      <c r="AA66" s="4"/>
+      <c r="AB66" s="4"/>
+      <c r="AC66" s="4"/>
+      <c r="AD66" s="4"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="5">
+        <v>60.0</v>
+      </c>
+      <c r="B67" s="4"/>
+      <c r="C67" s="4"/>
+      <c r="D67" s="4"/>
+      <c r="E67" s="4"/>
+      <c r="F67" s="4"/>
+      <c r="G67" s="4"/>
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="4"/>
+      <c r="K67" s="5"/>
+      <c r="L67" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="M67" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="N67" s="18"/>
+      <c r="O67" s="4"/>
+      <c r="P67" s="8" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q67" s="8">
+        <v>60.0</v>
+      </c>
+      <c r="R67" s="11" t="s">
+        <v>302</v>
+      </c>
+      <c r="S67" s="4"/>
+      <c r="T67" s="4"/>
+      <c r="U67" s="4"/>
+      <c r="V67" s="4"/>
+      <c r="W67" s="4"/>
+      <c r="X67" s="4"/>
+      <c r="Y67" s="4"/>
+      <c r="Z67" s="4"/>
+      <c r="AA67" s="4"/>
+      <c r="AB67" s="4"/>
+      <c r="AC67" s="4"/>
+      <c r="AD67" s="4"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="5">
+        <v>61.0</v>
+      </c>
+      <c r="B68" s="4"/>
+      <c r="C68" s="4"/>
+      <c r="D68" s="4"/>
+      <c r="E68" s="4"/>
+      <c r="F68" s="4"/>
+      <c r="G68" s="4"/>
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="4"/>
+      <c r="K68" s="5"/>
+      <c r="L68" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="M68" s="11" t="s">
+        <v>303</v>
+      </c>
+      <c r="N68" s="18"/>
+      <c r="O68" s="4"/>
+      <c r="P68" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="Q68" s="8">
+        <v>61.0</v>
+      </c>
+      <c r="R68" s="11" t="s">
+        <v>306</v>
+      </c>
+      <c r="S68" s="4"/>
+      <c r="T68" s="4"/>
+      <c r="U68" s="4"/>
+      <c r="V68" s="4"/>
+      <c r="W68" s="4"/>
+      <c r="X68" s="4"/>
+      <c r="Y68" s="4"/>
+      <c r="Z68" s="4"/>
+      <c r="AA68" s="4"/>
+      <c r="AB68" s="4"/>
+      <c r="AC68" s="4"/>
+      <c r="AD68" s="4"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="5">
+        <v>62.0</v>
+      </c>
+      <c r="B69" s="4"/>
+      <c r="C69" s="4"/>
+      <c r="D69" s="4"/>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="4"/>
+      <c r="K69" s="5"/>
+      <c r="L69" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="M69" s="11" t="s">
+        <v>307</v>
+      </c>
+      <c r="N69" s="11"/>
+      <c r="O69" s="4"/>
+      <c r="P69" s="8" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q69" s="8">
+        <v>62.0</v>
+      </c>
+      <c r="R69" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="S69" s="4"/>
+      <c r="T69" s="4"/>
+      <c r="U69" s="4"/>
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+      <c r="X69" s="4"/>
+      <c r="Y69" s="4"/>
+      <c r="Z69" s="4"/>
+      <c r="AA69" s="4"/>
+      <c r="AB69" s="4"/>
+      <c r="AC69" s="4"/>
+      <c r="AD69" s="4"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="5">
+        <v>63.0</v>
+      </c>
+      <c r="B70" s="4"/>
+      <c r="C70" s="4"/>
+      <c r="D70" s="4"/>
+      <c r="E70" s="4"/>
+      <c r="F70" s="4"/>
+      <c r="G70" s="4"/>
+      <c r="H70" s="4"/>
+      <c r="I70" s="4"/>
+      <c r="J70" s="4"/>
+      <c r="K70" s="5"/>
+      <c r="L70" s="15" t="s">
+        <v>256</v>
+      </c>
+      <c r="M70" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="N70" s="11"/>
+      <c r="O70" s="4"/>
+      <c r="P70" s="8" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q70" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="R70" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="S70" s="4"/>
+      <c r="T70" s="4"/>
+      <c r="U70" s="4"/>
+      <c r="V70" s="4"/>
+      <c r="W70" s="4"/>
+      <c r="X70" s="4"/>
+      <c r="Y70" s="4"/>
+      <c r="Z70" s="4"/>
+      <c r="AA70" s="4"/>
+      <c r="AB70" s="4"/>
+      <c r="AC70" s="4"/>
+      <c r="AD70" s="4"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="4"/>
+      <c r="B71" s="4"/>
+      <c r="C71" s="4"/>
+      <c r="D71" s="4"/>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="4"/>
+      <c r="K71" s="4"/>
+      <c r="L71" s="4"/>
+      <c r="M71" s="4"/>
+      <c r="N71" s="4"/>
+      <c r="O71" s="4"/>
+      <c r="P71" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="Q71" s="8">
+        <v>64.0</v>
+      </c>
+      <c r="R71" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="S71" s="4"/>
+      <c r="T71" s="4"/>
+      <c r="U71" s="4"/>
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+      <c r="X71" s="4"/>
+      <c r="Y71" s="4"/>
+      <c r="Z71" s="4"/>
+      <c r="AA71" s="4"/>
+      <c r="AB71" s="4"/>
+      <c r="AC71" s="4"/>
+      <c r="AD71" s="4"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="4"/>
+      <c r="B72" s="4"/>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="4"/>
+      <c r="K72" s="4"/>
+      <c r="L72" s="4"/>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="R72" s="11" t="s">
+        <v>317</v>
+      </c>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
+      <c r="AD72" s="4"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="4"/>
+      <c r="B73" s="4"/>
+      <c r="C73" s="4"/>
+      <c r="D73" s="4"/>
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="4"/>
+      <c r="K73" s="4"/>
+      <c r="L73" s="4"/>
+      <c r="M73" s="4"/>
+      <c r="N73" s="4"/>
+      <c r="O73" s="4"/>
+      <c r="P73" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q73" s="8">
+        <v>66.0</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="S73" s="4"/>
+      <c r="T73" s="4"/>
+      <c r="U73" s="4"/>
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+      <c r="X73" s="4"/>
+      <c r="Y73" s="4"/>
+      <c r="Z73" s="4"/>
+      <c r="AA73" s="4"/>
+      <c r="AB73" s="4"/>
+      <c r="AC73" s="4"/>
+      <c r="AD73" s="4"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="4"/>
+      <c r="B74" s="4"/>
+      <c r="C74" s="4"/>
+      <c r="D74" s="4"/>
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="4"/>
+      <c r="K74" s="4"/>
+      <c r="L74" s="4"/>
+      <c r="M74" s="4"/>
+      <c r="N74" s="4"/>
+      <c r="O74" s="4"/>
+      <c r="P74" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q74" s="8">
+        <v>67.0</v>
+      </c>
+      <c r="R74" s="11" t="s">
+        <v>319</v>
+      </c>
+      <c r="S74" s="4"/>
+      <c r="T74" s="4"/>
+      <c r="U74" s="4"/>
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+      <c r="X74" s="4"/>
+      <c r="Y74" s="4"/>
+      <c r="Z74" s="4"/>
+      <c r="AA74" s="4"/>
+      <c r="AB74" s="4"/>
+      <c r="AC74" s="4"/>
+      <c r="AD74" s="4"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="4"/>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
+      <c r="F75" s="4"/>
+      <c r="G75" s="4"/>
+      <c r="H75" s="4"/>
+      <c r="I75" s="4"/>
+      <c r="J75" s="4"/>
+      <c r="K75" s="4"/>
+      <c r="L75" s="4"/>
+      <c r="M75" s="4"/>
+      <c r="N75" s="4"/>
+      <c r="O75" s="4"/>
+      <c r="P75" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q75" s="8">
+        <v>68.0</v>
+      </c>
+      <c r="R75" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="S75" s="4"/>
+      <c r="T75" s="4"/>
+      <c r="U75" s="4"/>
+      <c r="V75" s="4"/>
+      <c r="W75" s="4"/>
+      <c r="X75" s="4"/>
+      <c r="Y75" s="4"/>
+      <c r="Z75" s="4"/>
+      <c r="AA75" s="4"/>
+      <c r="AB75" s="4"/>
+      <c r="AC75" s="4"/>
+      <c r="AD75" s="4"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="4"/>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
+      <c r="F76" s="4"/>
+      <c r="G76" s="4"/>
+      <c r="H76" s="4"/>
+      <c r="I76" s="4"/>
+      <c r="J76" s="4"/>
+      <c r="K76" s="4"/>
+      <c r="L76" s="4"/>
+      <c r="M76" s="4"/>
+      <c r="N76" s="4"/>
+      <c r="O76" s="4"/>
+      <c r="P76" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q76" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="R76" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="S76" s="4"/>
+      <c r="T76" s="4"/>
+      <c r="U76" s="4"/>
+      <c r="V76" s="4"/>
+      <c r="W76" s="4"/>
+      <c r="X76" s="4"/>
+      <c r="Y76" s="4"/>
+      <c r="Z76" s="4"/>
+      <c r="AA76" s="4"/>
+      <c r="AB76" s="4"/>
+      <c r="AC76" s="4"/>
+      <c r="AD76" s="4"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="4"/>
+      <c r="B77" s="4"/>
+      <c r="C77" s="4"/>
+      <c r="D77" s="4"/>
+      <c r="E77" s="4"/>
+      <c r="F77" s="4"/>
+      <c r="G77" s="4"/>
+      <c r="H77" s="4"/>
+      <c r="I77" s="4"/>
+      <c r="J77" s="4"/>
+      <c r="K77" s="4"/>
+      <c r="L77" s="4"/>
+      <c r="M77" s="4"/>
+      <c r="N77" s="4"/>
+      <c r="O77" s="4"/>
+      <c r="P77" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q77" s="8">
+        <v>70.0</v>
+      </c>
+      <c r="R77" s="11" t="s">
+        <v>322</v>
+      </c>
+      <c r="S77" s="4"/>
+      <c r="T77" s="4"/>
+      <c r="U77" s="4"/>
+      <c r="V77" s="4"/>
+      <c r="W77" s="4"/>
+      <c r="X77" s="4"/>
+      <c r="Y77" s="4"/>
+      <c r="Z77" s="4"/>
+      <c r="AA77" s="4"/>
+      <c r="AB77" s="4"/>
+      <c r="AC77" s="4"/>
+      <c r="AD77" s="4"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="4"/>
+      <c r="B78" s="4"/>
+      <c r="C78" s="4"/>
+      <c r="D78" s="4"/>
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="4"/>
+      <c r="K78" s="4"/>
+      <c r="L78" s="4"/>
+      <c r="M78" s="4"/>
+      <c r="N78" s="4"/>
+      <c r="O78" s="4"/>
+      <c r="P78" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q78" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="R78" s="11" t="s">
+        <v>323</v>
+      </c>
+      <c r="S78" s="4"/>
+      <c r="T78" s="4"/>
+      <c r="U78" s="4"/>
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+      <c r="X78" s="4"/>
+      <c r="Y78" s="4"/>
+      <c r="Z78" s="4"/>
+      <c r="AA78" s="4"/>
+      <c r="AB78" s="4"/>
+      <c r="AC78" s="4"/>
+      <c r="AD78" s="4"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="4"/>
+      <c r="B79" s="4"/>
+      <c r="C79" s="4"/>
+      <c r="D79" s="4"/>
+      <c r="E79" s="4"/>
+      <c r="F79" s="4"/>
+      <c r="G79" s="4"/>
+      <c r="H79" s="4"/>
+      <c r="I79" s="4"/>
+      <c r="J79" s="4"/>
+      <c r="K79" s="4"/>
+      <c r="L79" s="4"/>
+      <c r="M79" s="4"/>
+      <c r="N79" s="4"/>
+      <c r="O79" s="4"/>
+      <c r="P79" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q79" s="8">
+        <v>72.0</v>
+      </c>
+      <c r="R79" s="11" t="s">
+        <v>324</v>
+      </c>
+      <c r="S79" s="4"/>
+      <c r="T79" s="4"/>
+      <c r="U79" s="4"/>
+      <c r="V79" s="4"/>
+      <c r="W79" s="4"/>
+      <c r="X79" s="4"/>
+      <c r="Y79" s="4"/>
+      <c r="Z79" s="4"/>
+      <c r="AA79" s="4"/>
+      <c r="AB79" s="4"/>
+      <c r="AC79" s="4"/>
+      <c r="AD79" s="4"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="4"/>
+      <c r="B80" s="4"/>
+      <c r="C80" s="4"/>
+      <c r="D80" s="4"/>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="4"/>
+      <c r="K80" s="4"/>
+      <c r="L80" s="4"/>
+      <c r="M80" s="4"/>
+      <c r="N80" s="4"/>
+      <c r="O80" s="4"/>
+      <c r="P80" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q80" s="8">
+        <v>73.0</v>
+      </c>
+      <c r="R80" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="S80" s="4"/>
+      <c r="T80" s="4"/>
+      <c r="U80" s="4"/>
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+      <c r="X80" s="4"/>
+      <c r="Y80" s="4"/>
+      <c r="Z80" s="4"/>
+      <c r="AA80" s="4"/>
+      <c r="AB80" s="4"/>
+      <c r="AC80" s="4"/>
+      <c r="AD80" s="4"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="4"/>
+      <c r="B81" s="4"/>
+      <c r="C81" s="4"/>
+      <c r="D81" s="4"/>
+      <c r="E81" s="4"/>
+      <c r="F81" s="4"/>
+      <c r="G81" s="4"/>
+      <c r="H81" s="4"/>
+      <c r="I81" s="4"/>
+      <c r="J81" s="4"/>
+      <c r="K81" s="4"/>
+      <c r="L81" s="4"/>
+      <c r="M81" s="4"/>
+      <c r="N81" s="4"/>
+      <c r="O81" s="4"/>
+      <c r="P81" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q81" s="8">
+        <v>74.0</v>
+      </c>
+      <c r="R81" s="11" t="s">
+        <v>326</v>
+      </c>
+      <c r="S81" s="4"/>
+      <c r="T81" s="4"/>
+      <c r="U81" s="4"/>
+      <c r="V81" s="4"/>
+      <c r="W81" s="4"/>
+      <c r="X81" s="4"/>
+      <c r="Y81" s="4"/>
+      <c r="Z81" s="4"/>
+      <c r="AA81" s="4"/>
+      <c r="AB81" s="4"/>
+      <c r="AC81" s="4"/>
+      <c r="AD81" s="4"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="4"/>
+      <c r="B82" s="4"/>
+      <c r="C82" s="4"/>
+      <c r="D82" s="4"/>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="4"/>
+      <c r="K82" s="4"/>
+      <c r="L82" s="4"/>
+      <c r="M82" s="4"/>
+      <c r="N82" s="4"/>
+      <c r="O82" s="4"/>
+      <c r="P82" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q82" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="R82" s="11" t="s">
+        <v>327</v>
+      </c>
+      <c r="S82" s="4"/>
+      <c r="T82" s="4"/>
+      <c r="U82" s="4"/>
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+      <c r="X82" s="4"/>
+      <c r="Y82" s="4"/>
+      <c r="Z82" s="4"/>
+      <c r="AA82" s="4"/>
+      <c r="AB82" s="4"/>
+      <c r="AC82" s="4"/>
+      <c r="AD82" s="4"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="4"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="4"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="4"/>
+      <c r="K83" s="4"/>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q83" s="8">
+        <v>76.0</v>
+      </c>
+      <c r="R83" s="11" t="s">
+        <v>328</v>
+      </c>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
+      <c r="AD83" s="4"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="4"/>
+      <c r="B84" s="4"/>
+      <c r="C84" s="4"/>
+      <c r="D84" s="4"/>
+      <c r="E84" s="4"/>
+      <c r="F84" s="4"/>
+      <c r="G84" s="4"/>
+      <c r="H84" s="4"/>
+      <c r="I84" s="4"/>
+      <c r="J84" s="4"/>
+      <c r="K84" s="4"/>
+      <c r="L84" s="4"/>
+      <c r="M84" s="4"/>
+      <c r="N84" s="4"/>
+      <c r="O84" s="4"/>
+      <c r="P84" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q84" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="R84" s="11" t="s">
+        <v>329</v>
+      </c>
+      <c r="S84" s="4"/>
+      <c r="T84" s="4"/>
+      <c r="U84" s="4"/>
+      <c r="V84" s="4"/>
+      <c r="W84" s="4"/>
+      <c r="X84" s="4"/>
+      <c r="Y84" s="4"/>
+      <c r="Z84" s="4"/>
+      <c r="AA84" s="4"/>
+      <c r="AB84" s="4"/>
+      <c r="AC84" s="4"/>
+      <c r="AD84" s="4"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="4"/>
+      <c r="B85" s="4"/>
+      <c r="C85" s="4"/>
+      <c r="D85" s="4"/>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="4"/>
+      <c r="K85" s="4"/>
+      <c r="L85" s="4"/>
+      <c r="M85" s="4"/>
+      <c r="N85" s="4"/>
+      <c r="O85" s="4"/>
+      <c r="P85" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q85" s="8">
+        <v>78.0</v>
+      </c>
+      <c r="R85" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="S85" s="4"/>
+      <c r="T85" s="4"/>
+      <c r="U85" s="4"/>
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+      <c r="X85" s="4"/>
+      <c r="Y85" s="4"/>
+      <c r="Z85" s="4"/>
+      <c r="AA85" s="4"/>
+      <c r="AB85" s="4"/>
+      <c r="AC85" s="4"/>
+      <c r="AD85" s="4"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="4"/>
+      <c r="B86" s="4"/>
+      <c r="C86" s="4"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="4"/>
+      <c r="F86" s="4"/>
+      <c r="G86" s="4"/>
+      <c r="H86" s="4"/>
+      <c r="I86" s="4"/>
+      <c r="J86" s="4"/>
+      <c r="K86" s="4"/>
+      <c r="L86" s="4"/>
+      <c r="M86" s="4"/>
+      <c r="N86" s="4"/>
+      <c r="O86" s="4"/>
+      <c r="P86" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q86" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="R86" s="11" t="s">
+        <v>331</v>
+      </c>
+      <c r="S86" s="4"/>
+      <c r="T86" s="4"/>
+      <c r="U86" s="4"/>
+      <c r="V86" s="4"/>
+      <c r="W86" s="4"/>
+      <c r="X86" s="4"/>
+      <c r="Y86" s="4"/>
+      <c r="Z86" s="4"/>
+      <c r="AA86" s="4"/>
+      <c r="AB86" s="4"/>
+      <c r="AC86" s="4"/>
+      <c r="AD86" s="4"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="4"/>
+      <c r="B87" s="4"/>
+      <c r="C87" s="4"/>
+      <c r="D87" s="4"/>
+      <c r="E87" s="4"/>
+      <c r="F87" s="4"/>
+      <c r="G87" s="4"/>
+      <c r="H87" s="4"/>
+      <c r="I87" s="4"/>
+      <c r="J87" s="4"/>
+      <c r="K87" s="4"/>
+      <c r="L87" s="4"/>
+      <c r="M87" s="4"/>
+      <c r="N87" s="4"/>
+      <c r="O87" s="4"/>
+      <c r="P87" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q87" s="8">
+        <v>80.0</v>
+      </c>
+      <c r="R87" s="11" t="s">
+        <v>332</v>
+      </c>
+      <c r="S87" s="4"/>
+      <c r="T87" s="4"/>
+      <c r="U87" s="4"/>
+      <c r="V87" s="4"/>
+      <c r="W87" s="4"/>
+      <c r="X87" s="4"/>
+      <c r="Y87" s="4"/>
+      <c r="Z87" s="4"/>
+      <c r="AA87" s="4"/>
+      <c r="AB87" s="4"/>
+      <c r="AC87" s="4"/>
+      <c r="AD87" s="4"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="4"/>
+      <c r="B88" s="4"/>
+      <c r="C88" s="4"/>
+      <c r="D88" s="4"/>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="4"/>
+      <c r="K88" s="4"/>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
+      <c r="O88" s="4"/>
+      <c r="P88" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q88" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="R88" s="11" t="s">
+        <v>333</v>
+      </c>
+      <c r="S88" s="4"/>
+      <c r="T88" s="4"/>
+      <c r="U88" s="4"/>
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+      <c r="X88" s="4"/>
+      <c r="Y88" s="4"/>
+      <c r="Z88" s="4"/>
+      <c r="AA88" s="4"/>
+      <c r="AB88" s="4"/>
+      <c r="AC88" s="4"/>
+      <c r="AD88" s="4"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="4"/>
+      <c r="B89" s="4"/>
+      <c r="C89" s="4"/>
+      <c r="D89" s="4"/>
+      <c r="E89" s="4"/>
+      <c r="F89" s="4"/>
+      <c r="G89" s="4"/>
+      <c r="H89" s="4"/>
+      <c r="I89" s="4"/>
+      <c r="J89" s="4"/>
+      <c r="K89" s="4"/>
+      <c r="L89" s="4"/>
+      <c r="M89" s="4"/>
+      <c r="N89" s="4"/>
+      <c r="O89" s="4"/>
+      <c r="P89" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q89" s="8">
+        <v>82.0</v>
+      </c>
+      <c r="R89" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="S89" s="4"/>
+      <c r="T89" s="4"/>
+      <c r="U89" s="4"/>
+      <c r="V89" s="4"/>
+      <c r="W89" s="4"/>
+      <c r="X89" s="4"/>
+      <c r="Y89" s="4"/>
+      <c r="Z89" s="4"/>
+      <c r="AA89" s="4"/>
+      <c r="AB89" s="4"/>
+      <c r="AC89" s="4"/>
+      <c r="AD89" s="4"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="4"/>
+      <c r="B90" s="4"/>
+      <c r="C90" s="4"/>
+      <c r="D90" s="4"/>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="4"/>
+      <c r="K90" s="4"/>
+      <c r="L90" s="4"/>
+      <c r="M90" s="4"/>
+      <c r="N90" s="4"/>
+      <c r="O90" s="4"/>
+      <c r="P90" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q90" s="8">
+        <v>83.0</v>
+      </c>
+      <c r="R90" s="11" t="s">
+        <v>335</v>
+      </c>
+      <c r="S90" s="4"/>
+      <c r="T90" s="4"/>
+      <c r="U90" s="4"/>
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+      <c r="X90" s="4"/>
+      <c r="Y90" s="4"/>
+      <c r="Z90" s="4"/>
+      <c r="AA90" s="4"/>
+      <c r="AB90" s="4"/>
+      <c r="AC90" s="4"/>
+      <c r="AD90" s="4"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="4"/>
+      <c r="B91" s="4"/>
+      <c r="C91" s="4"/>
+      <c r="D91" s="4"/>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="4"/>
+      <c r="K91" s="4"/>
+      <c r="L91" s="4"/>
+      <c r="M91" s="4"/>
+      <c r="N91" s="4"/>
+      <c r="O91" s="4"/>
+      <c r="P91" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q91" s="8">
+        <v>84.0</v>
+      </c>
+      <c r="R91" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="S91" s="4"/>
+      <c r="T91" s="4"/>
+      <c r="U91" s="4"/>
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+      <c r="X91" s="4"/>
+      <c r="Y91" s="4"/>
+      <c r="Z91" s="4"/>
+      <c r="AA91" s="4"/>
+      <c r="AB91" s="4"/>
+      <c r="AC91" s="4"/>
+      <c r="AD91" s="4"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="4"/>
+      <c r="B92" s="4"/>
+      <c r="C92" s="4"/>
+      <c r="D92" s="4"/>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="4"/>
+      <c r="K92" s="4"/>
+      <c r="L92" s="4"/>
+      <c r="M92" s="4"/>
+      <c r="N92" s="4"/>
+      <c r="O92" s="4"/>
+      <c r="P92" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q92" s="8">
+        <v>85.0</v>
+      </c>
+      <c r="R92" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="S92" s="4"/>
+      <c r="T92" s="4"/>
+      <c r="U92" s="4"/>
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+      <c r="X92" s="4"/>
+      <c r="Y92" s="4"/>
+      <c r="Z92" s="4"/>
+      <c r="AA92" s="4"/>
+      <c r="AB92" s="4"/>
+      <c r="AC92" s="4"/>
+      <c r="AD92" s="4"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="4"/>
+      <c r="B93" s="4"/>
+      <c r="C93" s="4"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="4"/>
+      <c r="K93" s="4"/>
+      <c r="L93" s="4"/>
+      <c r="M93" s="4"/>
+      <c r="N93" s="4"/>
+      <c r="O93" s="4"/>
+      <c r="P93" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q93" s="8">
+        <v>86.0</v>
+      </c>
+      <c r="R93" s="11" t="s">
+        <v>338</v>
+      </c>
+      <c r="S93" s="4"/>
+      <c r="T93" s="4"/>
+      <c r="U93" s="4"/>
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+      <c r="X93" s="4"/>
+      <c r="Y93" s="4"/>
+      <c r="Z93" s="4"/>
+      <c r="AA93" s="4"/>
+      <c r="AB93" s="4"/>
+      <c r="AC93" s="4"/>
+      <c r="AD93" s="4"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="4"/>
+      <c r="B94" s="4"/>
+      <c r="C94" s="4"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="4"/>
+      <c r="K94" s="4"/>
+      <c r="L94" s="4"/>
+      <c r="M94" s="4"/>
+      <c r="N94" s="4"/>
+      <c r="O94" s="4"/>
+      <c r="P94" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q94" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="R94" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="S94" s="4"/>
+      <c r="T94" s="4"/>
+      <c r="U94" s="4"/>
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+      <c r="X94" s="4"/>
+      <c r="Y94" s="4"/>
+      <c r="Z94" s="4"/>
+      <c r="AA94" s="4"/>
+      <c r="AB94" s="4"/>
+      <c r="AC94" s="4"/>
+      <c r="AD94" s="4"/>
+    </row>
+    <row r="95">
+      <c r="A95" s="4"/>
+      <c r="B95" s="4"/>
+      <c r="C95" s="4"/>
+      <c r="D95" s="4"/>
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="4"/>
+      <c r="K95" s="4"/>
+      <c r="L95" s="4"/>
+      <c r="M95" s="4"/>
+      <c r="N95" s="4"/>
+      <c r="O95" s="4"/>
+      <c r="P95" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q95" s="8">
+        <v>88.0</v>
+      </c>
+      <c r="R95" s="11" t="s">
+        <v>340</v>
+      </c>
+      <c r="S95" s="4"/>
+      <c r="T95" s="4"/>
+      <c r="U95" s="4"/>
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+      <c r="X95" s="4"/>
+      <c r="Y95" s="4"/>
+      <c r="Z95" s="4"/>
+      <c r="AA95" s="4"/>
+      <c r="AB95" s="4"/>
+      <c r="AC95" s="4"/>
+      <c r="AD95" s="4"/>
+    </row>
+    <row r="96">
+      <c r="A96" s="4"/>
+      <c r="B96" s="4"/>
+      <c r="C96" s="4"/>
+      <c r="D96" s="4"/>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="4"/>
+      <c r="K96" s="4"/>
+      <c r="L96" s="4"/>
+      <c r="M96" s="4"/>
+      <c r="N96" s="4"/>
+      <c r="O96" s="4"/>
+      <c r="P96" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q96" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="R96" s="11" t="s">
+        <v>341</v>
+      </c>
+      <c r="S96" s="4"/>
+      <c r="T96" s="4"/>
+      <c r="U96" s="4"/>
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+      <c r="X96" s="4"/>
+      <c r="Y96" s="4"/>
+      <c r="Z96" s="4"/>
+      <c r="AA96" s="4"/>
+      <c r="AB96" s="4"/>
+      <c r="AC96" s="4"/>
+      <c r="AD96" s="4"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="4"/>
+      <c r="B97" s="4"/>
+      <c r="C97" s="4"/>
+      <c r="D97" s="4"/>
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="4"/>
+      <c r="K97" s="4"/>
+      <c r="L97" s="4"/>
+      <c r="M97" s="4"/>
+      <c r="N97" s="4"/>
+      <c r="O97" s="4"/>
+      <c r="P97" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q97" s="8">
+        <v>90.0</v>
+      </c>
+      <c r="R97" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="S97" s="4"/>
+      <c r="T97" s="4"/>
+      <c r="U97" s="4"/>
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+      <c r="X97" s="4"/>
+      <c r="Y97" s="4"/>
+      <c r="Z97" s="4"/>
+      <c r="AA97" s="4"/>
+      <c r="AB97" s="4"/>
+      <c r="AC97" s="4"/>
+      <c r="AD97" s="4"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="4"/>
+      <c r="B98" s="4"/>
+      <c r="C98" s="4"/>
+      <c r="D98" s="4"/>
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="4"/>
+      <c r="K98" s="4"/>
+      <c r="L98" s="4"/>
+      <c r="M98" s="4"/>
+      <c r="N98" s="4"/>
+      <c r="O98" s="4"/>
+      <c r="P98" s="8" t="s">
+        <v>343</v>
+      </c>
+      <c r="Q98" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="R98" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="S98" s="4"/>
+      <c r="T98" s="4"/>
+      <c r="U98" s="4"/>
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+      <c r="X98" s="4"/>
+      <c r="Y98" s="4"/>
+      <c r="Z98" s="4"/>
+      <c r="AA98" s="4"/>
+      <c r="AB98" s="4"/>
+      <c r="AC98" s="4"/>
+      <c r="AD98" s="4"/>
+    </row>
+    <row r="99">
+      <c r="A99" s="4"/>
+      <c r="B99" s="4"/>
+      <c r="C99" s="4"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="4"/>
+      <c r="F99" s="4"/>
+      <c r="G99" s="4"/>
+      <c r="H99" s="4"/>
+      <c r="I99" s="4"/>
+      <c r="J99" s="4"/>
+      <c r="K99" s="4"/>
+      <c r="L99" s="4"/>
+      <c r="M99" s="4"/>
+      <c r="N99" s="4"/>
+      <c r="O99" s="4"/>
+      <c r="P99" s="8" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q99" s="8">
+        <v>92.0</v>
+      </c>
+      <c r="R99" s="11" t="s">
+        <v>346</v>
+      </c>
+      <c r="S99" s="4"/>
+      <c r="T99" s="4"/>
+      <c r="U99" s="4"/>
+      <c r="V99" s="4"/>
+      <c r="W99" s="4"/>
+      <c r="X99" s="4"/>
+      <c r="Y99" s="4"/>
+      <c r="Z99" s="4"/>
+      <c r="AA99" s="4"/>
+      <c r="AB99" s="4"/>
+      <c r="AC99" s="4"/>
+      <c r="AD99" s="4"/>
+    </row>
+    <row r="100">
+      <c r="A100" s="4"/>
+      <c r="B100" s="4"/>
+      <c r="C100" s="4"/>
+      <c r="D100" s="4"/>
+      <c r="E100" s="4"/>
+      <c r="F100" s="4"/>
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+      <c r="I100" s="4"/>
+      <c r="J100" s="4"/>
+      <c r="K100" s="4"/>
+      <c r="L100" s="4"/>
+      <c r="M100" s="4"/>
+      <c r="N100" s="4"/>
+      <c r="O100" s="4"/>
+      <c r="P100" s="8" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q100" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="R100" s="11" t="s">
+        <v>348</v>
+      </c>
+      <c r="S100" s="4"/>
+      <c r="T100" s="4"/>
+      <c r="U100" s="4"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
+      <c r="AB100" s="4"/>
+      <c r="AC100" s="4"/>
+      <c r="AD100" s="4"/>
+    </row>
+    <row r="101">
+      <c r="A101" s="4"/>
+      <c r="B101" s="4"/>
+      <c r="C101" s="4"/>
+      <c r="D101" s="4"/>
+      <c r="E101" s="4"/>
+      <c r="F101" s="4"/>
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+      <c r="I101" s="4"/>
+      <c r="J101" s="4"/>
+      <c r="K101" s="4"/>
+      <c r="L101" s="4"/>
+      <c r="M101" s="4"/>
+      <c r="N101" s="4"/>
+      <c r="O101" s="4"/>
+      <c r="P101" s="8" t="s">
+        <v>349</v>
+      </c>
+      <c r="Q101" s="8">
+        <v>94.0</v>
+      </c>
+      <c r="R101" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="S101" s="4"/>
+      <c r="T101" s="4"/>
+      <c r="U101" s="4"/>
+      <c r="V101" s="4"/>
+      <c r="W101" s="4"/>
+      <c r="X101" s="4"/>
+      <c r="Y101" s="4"/>
+      <c r="Z101" s="4"/>
+      <c r="AA101" s="4"/>
+      <c r="AB101" s="4"/>
+      <c r="AC101" s="4"/>
+      <c r="AD101" s="4"/>
+    </row>
+    <row r="102">
+      <c r="A102" s="4"/>
+      <c r="B102" s="4"/>
+      <c r="C102" s="4"/>
+      <c r="D102" s="4"/>
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="4"/>
+      <c r="K102" s="4"/>
+      <c r="L102" s="4"/>
+      <c r="M102" s="4"/>
+      <c r="N102" s="4"/>
+      <c r="O102" s="4"/>
+      <c r="P102" s="8" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q102" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="R102" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="S102" s="4"/>
+      <c r="T102" s="4"/>
+      <c r="U102" s="4"/>
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+      <c r="X102" s="4"/>
+      <c r="Y102" s="4"/>
+      <c r="Z102" s="4"/>
+      <c r="AA102" s="4"/>
+      <c r="AB102" s="4"/>
+      <c r="AC102" s="4"/>
+      <c r="AD102" s="4"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="4"/>
+      <c r="B103" s="4"/>
+      <c r="C103" s="4"/>
+      <c r="D103" s="4"/>
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="4"/>
+      <c r="K103" s="4"/>
+      <c r="L103" s="4"/>
+      <c r="M103" s="4"/>
+      <c r="N103" s="4"/>
+      <c r="O103" s="4"/>
+      <c r="P103" s="8" t="s">
+        <v>353</v>
+      </c>
+      <c r="Q103" s="8">
+        <v>96.0</v>
+      </c>
+      <c r="R103" s="11" t="s">
+        <v>354</v>
+      </c>
+      <c r="S103" s="4"/>
+      <c r="T103" s="4"/>
+      <c r="U103" s="4"/>
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+      <c r="X103" s="4"/>
+      <c r="Y103" s="4"/>
+      <c r="Z103" s="4"/>
+      <c r="AA103" s="4"/>
+      <c r="AB103" s="4"/>
+      <c r="AC103" s="4"/>
+      <c r="AD103" s="4"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="4"/>
+      <c r="B104" s="4"/>
+      <c r="C104" s="4"/>
+      <c r="D104" s="4"/>
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="4"/>
+      <c r="K104" s="4"/>
+      <c r="L104" s="4"/>
+      <c r="M104" s="4"/>
+      <c r="N104" s="4"/>
+      <c r="O104" s="4"/>
+      <c r="P104" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q104" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="R104" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="S104" s="4"/>
+      <c r="T104" s="4"/>
+      <c r="U104" s="4"/>
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+      <c r="X104" s="4"/>
+      <c r="Y104" s="4"/>
+      <c r="Z104" s="4"/>
+      <c r="AA104" s="4"/>
+      <c r="AB104" s="4"/>
+      <c r="AC104" s="4"/>
+      <c r="AD104" s="4"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="4"/>
+      <c r="B105" s="4"/>
+      <c r="C105" s="4"/>
+      <c r="D105" s="4"/>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q105" s="8">
+        <v>98.0</v>
+      </c>
+      <c r="R105" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="S105" s="4"/>
+      <c r="T105" s="4"/>
+      <c r="U105" s="4"/>
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+      <c r="X105" s="4"/>
+      <c r="Y105" s="4"/>
+      <c r="Z105" s="4"/>
+      <c r="AA105" s="4"/>
+      <c r="AB105" s="4"/>
+      <c r="AC105" s="4"/>
+      <c r="AD105" s="4"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="4"/>
+      <c r="B106" s="4"/>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="4"/>
+      <c r="K106" s="4"/>
+      <c r="L106" s="4"/>
+      <c r="M106" s="4"/>
+      <c r="N106" s="4"/>
+      <c r="O106" s="4"/>
+      <c r="P106" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="Q106" s="8">
+        <v>99.0</v>
+      </c>
+      <c r="R106" s="11" t="s">
+        <v>357</v>
+      </c>
+      <c r="S106" s="4"/>
+      <c r="T106" s="4"/>
+      <c r="U106" s="4"/>
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+      <c r="X106" s="4"/>
+      <c r="Y106" s="4"/>
+      <c r="Z106" s="4"/>
+      <c r="AA106" s="4"/>
+      <c r="AB106" s="4"/>
+      <c r="AC106" s="4"/>
+      <c r="AD106" s="4"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="4"/>
+      <c r="B107" s="4"/>
+      <c r="C107" s="4"/>
+      <c r="D107" s="4"/>
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="4"/>
+      <c r="K107" s="4"/>
+      <c r="L107" s="4"/>
+      <c r="M107" s="4"/>
+      <c r="N107" s="4"/>
+      <c r="O107" s="4"/>
+      <c r="P107" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q107" s="8">
+        <v>100.0</v>
+      </c>
+      <c r="R107" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="S107" s="4"/>
+      <c r="T107" s="4"/>
+      <c r="U107" s="4"/>
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+      <c r="X107" s="4"/>
+      <c r="Y107" s="4"/>
+      <c r="Z107" s="4"/>
+      <c r="AA107" s="4"/>
+      <c r="AB107" s="4"/>
+      <c r="AC107" s="4"/>
+      <c r="AD107" s="4"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="4"/>
+      <c r="B108" s="4"/>
+      <c r="C108" s="4"/>
+      <c r="D108" s="4"/>
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="4"/>
+      <c r="K108" s="4"/>
+      <c r="L108" s="4"/>
+      <c r="M108" s="4"/>
+      <c r="N108" s="4"/>
+      <c r="O108" s="4"/>
+      <c r="P108" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q108" s="8">
+        <v>101.0</v>
+      </c>
+      <c r="R108" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="S108" s="4"/>
+      <c r="T108" s="4"/>
+      <c r="U108" s="4"/>
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
+      <c r="AA108" s="4"/>
+      <c r="AB108" s="4"/>
+      <c r="AC108" s="4"/>
+      <c r="AD108" s="4"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="4"/>
+      <c r="B109" s="4"/>
+      <c r="C109" s="4"/>
+      <c r="D109" s="4"/>
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="4"/>
+      <c r="K109" s="4"/>
+      <c r="L109" s="4"/>
+      <c r="M109" s="4"/>
+      <c r="N109" s="4"/>
+      <c r="O109" s="4"/>
+      <c r="P109" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q109" s="8">
+        <v>102.0</v>
+      </c>
+      <c r="R109" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="S109" s="4"/>
+      <c r="T109" s="4"/>
+      <c r="U109" s="4"/>
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+      <c r="X109" s="4"/>
+      <c r="Y109" s="4"/>
+      <c r="Z109" s="4"/>
+      <c r="AA109" s="4"/>
+      <c r="AB109" s="4"/>
+      <c r="AC109" s="4"/>
+      <c r="AD109" s="4"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="4"/>
+      <c r="B110" s="4"/>
+      <c r="C110" s="4"/>
+      <c r="D110" s="4"/>
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="4"/>
+      <c r="K110" s="4"/>
+      <c r="L110" s="4"/>
+      <c r="M110" s="4"/>
+      <c r="N110" s="4"/>
+      <c r="O110" s="4"/>
+      <c r="P110" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q110" s="8">
+        <v>103.0</v>
+      </c>
+      <c r="R110" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="S110" s="4"/>
+      <c r="T110" s="4"/>
+      <c r="U110" s="4"/>
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+      <c r="X110" s="4"/>
+      <c r="Y110" s="4"/>
+      <c r="Z110" s="4"/>
+      <c r="AA110" s="4"/>
+      <c r="AB110" s="4"/>
+      <c r="AC110" s="4"/>
+      <c r="AD110" s="4"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="4"/>
+      <c r="B111" s="4"/>
+      <c r="C111" s="4"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="4"/>
+      <c r="K111" s="4"/>
+      <c r="L111" s="4"/>
+      <c r="M111" s="4"/>
+      <c r="N111" s="4"/>
+      <c r="O111" s="4"/>
+      <c r="P111" s="12" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q111" s="8">
+        <v>104.0</v>
+      </c>
+      <c r="R111" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="S111" s="4"/>
+      <c r="T111" s="4"/>
+      <c r="U111" s="4"/>
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+      <c r="X111" s="4"/>
+      <c r="Y111" s="4"/>
+      <c r="Z111" s="4"/>
+      <c r="AA111" s="4"/>
+      <c r="AB111" s="4"/>
+      <c r="AC111" s="4"/>
+      <c r="AD111" s="4"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="4"/>
+      <c r="B112" s="4"/>
+      <c r="C112" s="4"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="4"/>
+      <c r="F112" s="4"/>
+      <c r="G112" s="4"/>
+      <c r="H112" s="4"/>
+      <c r="I112" s="4"/>
+      <c r="J112" s="4"/>
+      <c r="K112" s="4"/>
+      <c r="L112" s="4"/>
+      <c r="M112" s="4"/>
+      <c r="N112" s="4"/>
+      <c r="O112" s="4"/>
+      <c r="P112" s="12" t="s">
+        <v>189</v>
+      </c>
+      <c r="Q112" s="8">
+        <v>105.0</v>
+      </c>
+      <c r="R112" s="11" t="s">
+        <v>363</v>
+      </c>
+      <c r="S112" s="4"/>
+      <c r="T112" s="4"/>
+      <c r="U112" s="4"/>
+      <c r="V112" s="4"/>
+      <c r="W112" s="4"/>
+      <c r="X112" s="4"/>
+      <c r="Y112" s="4"/>
+      <c r="Z112" s="4"/>
+      <c r="AA112" s="4"/>
+      <c r="AB112" s="4"/>
+      <c r="AC112" s="4"/>
+      <c r="AD112" s="4"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="4"/>
+      <c r="B113" s="4"/>
+      <c r="C113" s="4"/>
+      <c r="D113" s="4"/>
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="4"/>
+      <c r="K113" s="4"/>
+      <c r="L113" s="4"/>
+      <c r="M113" s="4"/>
+      <c r="N113" s="4"/>
+      <c r="O113" s="4"/>
+      <c r="P113" s="12" t="s">
+        <v>194</v>
+      </c>
+      <c r="Q113" s="8">
+        <v>106.0</v>
+      </c>
+      <c r="R113" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="S113" s="4"/>
+      <c r="T113" s="4"/>
+      <c r="U113" s="4"/>
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+      <c r="X113" s="4"/>
+      <c r="Y113" s="4"/>
+      <c r="Z113" s="4"/>
+      <c r="AA113" s="4"/>
+      <c r="AB113" s="4"/>
+      <c r="AC113" s="4"/>
+      <c r="AD113" s="4"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="4"/>
+      <c r="B114" s="4"/>
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+      <c r="K114" s="4"/>
+      <c r="L114" s="4"/>
+      <c r="M114" s="4"/>
+      <c r="N114" s="4"/>
+      <c r="O114" s="4"/>
+      <c r="P114" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="Q114" s="8">
+        <v>107.0</v>
+      </c>
+      <c r="R114" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="S114" s="4"/>
+      <c r="T114" s="4"/>
+      <c r="U114" s="4"/>
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+      <c r="X114" s="4"/>
+      <c r="Y114" s="4"/>
+      <c r="Z114" s="4"/>
+      <c r="AA114" s="4"/>
+      <c r="AB114" s="4"/>
+      <c r="AC114" s="4"/>
+      <c r="AD114" s="4"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="4"/>
+      <c r="B115" s="4"/>
+      <c r="C115" s="4"/>
+      <c r="D115" s="4"/>
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="4"/>
+      <c r="K115" s="4"/>
+      <c r="L115" s="4"/>
+      <c r="M115" s="4"/>
+      <c r="N115" s="4"/>
+      <c r="O115" s="4"/>
+      <c r="P115" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q115" s="8">
+        <v>108.0</v>
+      </c>
+      <c r="R115" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="S115" s="4"/>
+      <c r="T115" s="4"/>
+      <c r="U115" s="4"/>
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+      <c r="X115" s="4"/>
+      <c r="Y115" s="4"/>
+      <c r="Z115" s="4"/>
+      <c r="AA115" s="4"/>
+      <c r="AB115" s="4"/>
+      <c r="AC115" s="4"/>
+      <c r="AD115" s="4"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="4"/>
+      <c r="B116" s="4"/>
+      <c r="C116" s="4"/>
+      <c r="D116" s="4"/>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="4"/>
+      <c r="K116" s="4"/>
+      <c r="L116" s="4"/>
+      <c r="M116" s="4"/>
+      <c r="N116" s="4"/>
+      <c r="O116" s="4"/>
+      <c r="P116" s="12" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q116" s="8">
+        <v>109.0</v>
+      </c>
+      <c r="R116" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="S116" s="4"/>
+      <c r="T116" s="4"/>
+      <c r="U116" s="4"/>
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+      <c r="X116" s="4"/>
+      <c r="Y116" s="4"/>
+      <c r="Z116" s="4"/>
+      <c r="AA116" s="4"/>
+      <c r="AB116" s="4"/>
+      <c r="AC116" s="4"/>
+      <c r="AD116" s="4"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="4"/>
+      <c r="B117" s="4"/>
+      <c r="C117" s="4"/>
+      <c r="D117" s="4"/>
+      <c r="E117" s="4"/>
+      <c r="F117" s="4"/>
+      <c r="G117" s="4"/>
+      <c r="H117" s="4"/>
+      <c r="I117" s="4"/>
+      <c r="J117" s="4"/>
+      <c r="K117" s="4"/>
+      <c r="L117" s="4"/>
+      <c r="M117" s="4"/>
+      <c r="N117" s="4"/>
+      <c r="O117" s="4"/>
+      <c r="P117" s="12" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q117" s="8">
+        <v>110.0</v>
+      </c>
+      <c r="R117" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="S117" s="4"/>
+      <c r="T117" s="4"/>
+      <c r="U117" s="4"/>
+      <c r="V117" s="4"/>
+      <c r="W117" s="4"/>
+      <c r="X117" s="4"/>
+      <c r="Y117" s="4"/>
+      <c r="Z117" s="4"/>
+      <c r="AA117" s="4"/>
+      <c r="AB117" s="4"/>
+      <c r="AC117" s="4"/>
+      <c r="AD117" s="4"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="4"/>
+      <c r="B118" s="4"/>
+      <c r="C118" s="4"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="4"/>
+      <c r="K118" s="4"/>
+      <c r="L118" s="4"/>
+      <c r="M118" s="4"/>
+      <c r="N118" s="4"/>
+      <c r="O118" s="4"/>
+      <c r="P118" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q118" s="8">
+        <v>111.0</v>
+      </c>
+      <c r="R118" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="S118" s="4"/>
+      <c r="T118" s="4"/>
+      <c r="U118" s="4"/>
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+      <c r="X118" s="4"/>
+      <c r="Y118" s="4"/>
+      <c r="Z118" s="4"/>
+      <c r="AA118" s="4"/>
+      <c r="AB118" s="4"/>
+      <c r="AC118" s="4"/>
+      <c r="AD118" s="4"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="4"/>
+      <c r="B119" s="4"/>
+      <c r="C119" s="4"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="4"/>
+      <c r="F119" s="4"/>
+      <c r="G119" s="4"/>
+      <c r="H119" s="4"/>
+      <c r="I119" s="4"/>
+      <c r="J119" s="4"/>
+      <c r="K119" s="4"/>
+      <c r="L119" s="4"/>
+      <c r="M119" s="4"/>
+      <c r="N119" s="4"/>
+      <c r="O119" s="4"/>
+      <c r="P119" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="Q119" s="8">
+        <v>112.0</v>
+      </c>
+      <c r="R119" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="S119" s="4"/>
+      <c r="T119" s="4"/>
+      <c r="U119" s="4"/>
+      <c r="V119" s="4"/>
+      <c r="W119" s="4"/>
+      <c r="X119" s="4"/>
+      <c r="Y119" s="4"/>
+      <c r="Z119" s="4"/>
+      <c r="AA119" s="4"/>
+      <c r="AB119" s="4"/>
+      <c r="AC119" s="4"/>
+      <c r="AD119" s="4"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="4"/>
+      <c r="B120" s="4"/>
+      <c r="C120" s="4"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="4"/>
+      <c r="K120" s="4"/>
+      <c r="L120" s="4"/>
+      <c r="M120" s="4"/>
+      <c r="N120" s="4"/>
+      <c r="O120" s="4"/>
+      <c r="P120" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="Q120" s="8">
+        <v>113.0</v>
+      </c>
+      <c r="R120" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="S120" s="4"/>
+      <c r="T120" s="4"/>
+      <c r="U120" s="4"/>
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+      <c r="X120" s="4"/>
+      <c r="Y120" s="4"/>
+      <c r="Z120" s="4"/>
+      <c r="AA120" s="4"/>
+      <c r="AB120" s="4"/>
+      <c r="AC120" s="4"/>
+      <c r="AD120" s="4"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="4"/>
+      <c r="B121" s="4"/>
+      <c r="C121" s="4"/>
+      <c r="D121" s="4"/>
+      <c r="E121" s="4"/>
+      <c r="F121" s="4"/>
+      <c r="G121" s="4"/>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="4"/>
+      <c r="K121" s="4"/>
+      <c r="L121" s="4"/>
+      <c r="M121" s="4"/>
+      <c r="N121" s="4"/>
+      <c r="O121" s="4"/>
+      <c r="P121" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="Q121" s="8">
+        <v>114.0</v>
+      </c>
+      <c r="R121" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="S121" s="4"/>
+      <c r="T121" s="4"/>
+      <c r="U121" s="4"/>
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+      <c r="X121" s="4"/>
+      <c r="Y121" s="4"/>
+      <c r="Z121" s="4"/>
+      <c r="AA121" s="4"/>
+      <c r="AB121" s="4"/>
+      <c r="AC121" s="4"/>
+      <c r="AD121" s="4"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="4"/>
+      <c r="B122" s="4"/>
+      <c r="C122" s="4"/>
+      <c r="D122" s="4"/>
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="4"/>
+      <c r="K122" s="4"/>
+      <c r="L122" s="4"/>
+      <c r="M122" s="4"/>
+      <c r="N122" s="4"/>
+      <c r="O122" s="4"/>
+      <c r="P122" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q122" s="8">
+        <v>115.0</v>
+      </c>
+      <c r="R122" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="S122" s="4"/>
+      <c r="T122" s="4"/>
+      <c r="U122" s="4"/>
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+      <c r="X122" s="4"/>
+      <c r="Y122" s="4"/>
+      <c r="Z122" s="4"/>
+      <c r="AA122" s="4"/>
+      <c r="AB122" s="4"/>
+      <c r="AC122" s="4"/>
+      <c r="AD122" s="4"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="4"/>
+      <c r="B123" s="4"/>
+      <c r="C123" s="4"/>
+      <c r="D123" s="4"/>
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="4"/>
+      <c r="K123" s="4"/>
+      <c r="L123" s="4"/>
+      <c r="M123" s="4"/>
+      <c r="N123" s="4"/>
+      <c r="O123" s="4"/>
+      <c r="P123" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q123" s="8">
+        <v>116.0</v>
+      </c>
+      <c r="R123" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="S123" s="4"/>
+      <c r="T123" s="4"/>
+      <c r="U123" s="4"/>
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+      <c r="X123" s="4"/>
+      <c r="Y123" s="4"/>
+      <c r="Z123" s="4"/>
+      <c r="AA123" s="4"/>
+      <c r="AB123" s="4"/>
+      <c r="AC123" s="4"/>
+      <c r="AD123" s="4"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="4"/>
+      <c r="B124" s="4"/>
+      <c r="C124" s="4"/>
+      <c r="D124" s="4"/>
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="4"/>
+      <c r="K124" s="4"/>
+      <c r="L124" s="4"/>
+      <c r="M124" s="4"/>
+      <c r="N124" s="4"/>
+      <c r="O124" s="4"/>
+      <c r="P124" s="12" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q124" s="8">
+        <v>117.0</v>
+      </c>
+      <c r="R124" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="S124" s="4"/>
+      <c r="T124" s="4"/>
+      <c r="U124" s="4"/>
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+      <c r="X124" s="4"/>
+      <c r="Y124" s="4"/>
+      <c r="Z124" s="4"/>
+      <c r="AA124" s="4"/>
+      <c r="AB124" s="4"/>
+      <c r="AC124" s="4"/>
+      <c r="AD124" s="4"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="4"/>
+      <c r="B125" s="4"/>
+      <c r="C125" s="4"/>
+      <c r="D125" s="4"/>
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="4"/>
+      <c r="K125" s="4"/>
+      <c r="L125" s="4"/>
+      <c r="M125" s="4"/>
+      <c r="N125" s="4"/>
+      <c r="O125" s="4"/>
+      <c r="P125" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q125" s="8">
+        <v>118.0</v>
+      </c>
+      <c r="R125" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="S125" s="4"/>
+      <c r="T125" s="4"/>
+      <c r="U125" s="4"/>
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+      <c r="X125" s="4"/>
+      <c r="Y125" s="4"/>
+      <c r="Z125" s="4"/>
+      <c r="AA125" s="4"/>
+      <c r="AB125" s="4"/>
+      <c r="AC125" s="4"/>
+      <c r="AD125" s="4"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="4"/>
+      <c r="B126" s="4"/>
+      <c r="C126" s="4"/>
+      <c r="D126" s="4"/>
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="4"/>
+      <c r="K126" s="4"/>
+      <c r="L126" s="4"/>
+      <c r="M126" s="4"/>
+      <c r="N126" s="4"/>
+      <c r="O126" s="4"/>
+      <c r="P126" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="Q126" s="8">
+        <v>119.0</v>
+      </c>
+      <c r="R126" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="S126" s="4"/>
+      <c r="T126" s="4"/>
+      <c r="U126" s="4"/>
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+      <c r="X126" s="4"/>
+      <c r="Y126" s="4"/>
+      <c r="Z126" s="4"/>
+      <c r="AA126" s="4"/>
+      <c r="AB126" s="4"/>
+      <c r="AC126" s="4"/>
+      <c r="AD126" s="4"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="4"/>
+      <c r="B127" s="4"/>
+      <c r="C127" s="4"/>
+      <c r="D127" s="4"/>
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="4"/>
+      <c r="K127" s="4"/>
+      <c r="L127" s="4"/>
+      <c r="M127" s="4"/>
+      <c r="N127" s="4"/>
+      <c r="O127" s="4"/>
+      <c r="P127" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q127" s="8">
+        <v>120.0</v>
+      </c>
+      <c r="R127" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="S127" s="4"/>
+      <c r="T127" s="4"/>
+      <c r="U127" s="4"/>
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+      <c r="X127" s="4"/>
+      <c r="Y127" s="4"/>
+      <c r="Z127" s="4"/>
+      <c r="AA127" s="4"/>
+      <c r="AB127" s="4"/>
+      <c r="AC127" s="4"/>
+      <c r="AD127" s="4"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="4"/>
+      <c r="B128" s="4"/>
+      <c r="C128" s="4"/>
+      <c r="D128" s="4"/>
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="4"/>
+      <c r="K128" s="4"/>
+      <c r="L128" s="4"/>
+      <c r="M128" s="4"/>
+      <c r="N128" s="4"/>
+      <c r="O128" s="4"/>
+      <c r="P128" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q128" s="8">
+        <v>121.0</v>
+      </c>
+      <c r="R128" s="11" t="s">
+        <v>378</v>
+      </c>
+      <c r="S128" s="4"/>
+      <c r="T128" s="4"/>
+      <c r="U128" s="4"/>
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+      <c r="X128" s="4"/>
+      <c r="Y128" s="4"/>
+      <c r="Z128" s="4"/>
+      <c r="AA128" s="4"/>
+      <c r="AB128" s="4"/>
+      <c r="AC128" s="4"/>
+      <c r="AD128" s="4"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4"/>
+      <c r="B129" s="4"/>
+      <c r="C129" s="4"/>
+      <c r="D129" s="4"/>
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="4"/>
+      <c r="K129" s="4"/>
+      <c r="L129" s="4"/>
+      <c r="M129" s="4"/>
+      <c r="N129" s="4"/>
+      <c r="O129" s="4"/>
+      <c r="P129" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q129" s="8">
+        <v>122.0</v>
+      </c>
+      <c r="R129" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="S129" s="4"/>
+      <c r="T129" s="4"/>
+      <c r="U129" s="4"/>
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+      <c r="X129" s="4"/>
+      <c r="Y129" s="4"/>
+      <c r="Z129" s="4"/>
+      <c r="AA129" s="4"/>
+      <c r="AB129" s="4"/>
+      <c r="AC129" s="4"/>
+      <c r="AD129" s="4"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4"/>
+      <c r="D130" s="4"/>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="12" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q130" s="8">
+        <v>123.0</v>
+      </c>
+      <c r="R130" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
+      <c r="AA130" s="4"/>
+      <c r="AB130" s="4"/>
+      <c r="AC130" s="4"/>
+      <c r="AD130" s="4"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="4"/>
+      <c r="B131" s="4"/>
+      <c r="C131" s="4"/>
+      <c r="D131" s="4"/>
+      <c r="E131" s="4"/>
+      <c r="F131" s="4"/>
+      <c r="G131" s="4"/>
+      <c r="H131" s="4"/>
+      <c r="I131" s="4"/>
+      <c r="J131" s="4"/>
+      <c r="K131" s="4"/>
+      <c r="L131" s="4"/>
+      <c r="M131" s="4"/>
+      <c r="N131" s="4"/>
+      <c r="O131" s="4"/>
+      <c r="P131" s="12" t="s">
+        <v>382</v>
+      </c>
+      <c r="Q131" s="8">
+        <v>124.0</v>
+      </c>
+      <c r="R131" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="S131" s="4"/>
+      <c r="T131" s="4"/>
+      <c r="U131" s="4"/>
+      <c r="V131" s="4"/>
+      <c r="W131" s="4"/>
+      <c r="X131" s="4"/>
+      <c r="Y131" s="4"/>
+      <c r="Z131" s="4"/>
+      <c r="AA131" s="4"/>
+      <c r="AB131" s="4"/>
+      <c r="AC131" s="4"/>
+      <c r="AD131" s="4"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="4"/>
+      <c r="B132" s="4"/>
+      <c r="C132" s="4"/>
+      <c r="D132" s="4"/>
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="4"/>
+      <c r="K132" s="4"/>
+      <c r="L132" s="4"/>
+      <c r="M132" s="4"/>
+      <c r="N132" s="4"/>
+      <c r="O132" s="4"/>
+      <c r="P132" s="12" t="s">
+        <v>384</v>
+      </c>
+      <c r="Q132" s="8">
+        <v>125.0</v>
+      </c>
+      <c r="R132" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="S132" s="4"/>
+      <c r="T132" s="4"/>
+      <c r="U132" s="4"/>
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+      <c r="X132" s="4"/>
+      <c r="Y132" s="4"/>
+      <c r="Z132" s="4"/>
+      <c r="AA132" s="4"/>
+      <c r="AB132" s="4"/>
+      <c r="AC132" s="4"/>
+      <c r="AD132" s="4"/>
+    </row>
+    <row r="133">
+      <c r="A133" s="4"/>
+      <c r="B133" s="4"/>
+      <c r="C133" s="4"/>
+      <c r="D133" s="4"/>
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="4"/>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="4"/>
+      <c r="K133" s="4"/>
+      <c r="L133" s="4"/>
+      <c r="M133" s="4"/>
+      <c r="N133" s="4"/>
+      <c r="O133" s="4"/>
+      <c r="P133" s="12" t="s">
+        <v>386</v>
+      </c>
+      <c r="Q133" s="8">
+        <v>126.0</v>
+      </c>
+      <c r="R133" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="S133" s="4"/>
+      <c r="T133" s="4"/>
+      <c r="U133" s="4"/>
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+      <c r="X133" s="4"/>
+      <c r="Y133" s="4"/>
+      <c r="Z133" s="4"/>
+      <c r="AA133" s="4"/>
+      <c r="AB133" s="4"/>
+      <c r="AC133" s="4"/>
+      <c r="AD133" s="4"/>
+    </row>
+    <row r="134">
+      <c r="A134" s="4"/>
+      <c r="B134" s="4"/>
+      <c r="C134" s="4"/>
+      <c r="D134" s="4"/>
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="4"/>
+      <c r="K134" s="4"/>
+      <c r="L134" s="4"/>
+      <c r="M134" s="4"/>
+      <c r="N134" s="4"/>
+      <c r="O134" s="4"/>
+      <c r="P134" s="23" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q134" s="8">
+        <v>127.0</v>
+      </c>
+      <c r="R134" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="S134" s="4"/>
+      <c r="T134" s="4"/>
+      <c r="U134" s="4"/>
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+      <c r="X134" s="4"/>
+      <c r="Y134" s="4"/>
+      <c r="Z134" s="4"/>
+      <c r="AA134" s="4"/>
+      <c r="AB134" s="4"/>
+      <c r="AC134" s="4"/>
+      <c r="AD134" s="4"/>
+    </row>
+    <row r="135">
+      <c r="A135" s="4"/>
+      <c r="B135" s="4"/>
+      <c r="C135" s="4"/>
+      <c r="D135" s="4"/>
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="4"/>
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="4"/>
+      <c r="K135" s="4"/>
+      <c r="L135" s="4"/>
+      <c r="M135" s="4"/>
+      <c r="N135" s="4"/>
+      <c r="O135" s="4"/>
+      <c r="P135" s="4"/>
+      <c r="Q135" s="5"/>
+      <c r="R135" s="4"/>
+      <c r="S135" s="4"/>
+      <c r="T135" s="4"/>
+      <c r="U135" s="4"/>
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+      <c r="X135" s="4"/>
+      <c r="Y135" s="4"/>
+      <c r="Z135" s="4"/>
+      <c r="AA135" s="4"/>
+      <c r="AB135" s="4"/>
+      <c r="AC135" s="4"/>
+      <c r="AD135" s="4"/>
+    </row>
+    <row r="136">
+      <c r="A136" s="4"/>
+      <c r="B136" s="4"/>
+      <c r="C136" s="4"/>
+      <c r="D136" s="4"/>
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="4"/>
+      <c r="K136" s="4"/>
+      <c r="L136" s="4"/>
+      <c r="M136" s="4"/>
+      <c r="N136" s="4"/>
+      <c r="O136" s="4"/>
+      <c r="P136" s="4"/>
+      <c r="Q136" s="5"/>
+      <c r="R136" s="4"/>
+      <c r="S136" s="4"/>
+      <c r="T136" s="4"/>
+      <c r="U136" s="4"/>
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+      <c r="X136" s="4"/>
+      <c r="Y136" s="4"/>
+      <c r="Z136" s="4"/>
+      <c r="AA136" s="4"/>
+      <c r="AB136" s="4"/>
+      <c r="AC136" s="4"/>
+      <c r="AD136" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="P4:R4"/>
+    <mergeCell ref="D1:M1"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/format_encodings/documents/Fixed Length Encodings.xlsx
+++ b/format_encodings/documents/Fixed Length Encodings.xlsx
@@ -1188,7 +1188,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1213,6 +1213,11 @@
       <sz val="14.0"/>
       <color rgb="FF000000"/>
       <name val="Source Code Pro"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
     </font>
     <font>
       <sz val="14.0"/>
@@ -1281,7 +1286,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1306,40 +1311,43 @@
     <xf borderId="0" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf quotePrefix="1" borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="1" fillId="3" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="4" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="7" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="4" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="3" fontId="8" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="3" fontId="9" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
@@ -1819,37 +1827,37 @@
         <v>14</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="8">
+      <c r="F7" s="10">
         <v>0.0</v>
       </c>
       <c r="G7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="8">
+      <c r="I7" s="10">
         <v>0.0</v>
       </c>
       <c r="J7" s="9" t="s">
         <v>15</v>
       </c>
       <c r="K7" s="5"/>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="10">
         <v>0.0</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="12" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="4"/>
@@ -1870,44 +1878,44 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>1.0</v>
       </c>
       <c r="D8" s="9" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="8">
+      <c r="F8" s="10">
         <v>1.0</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="8">
+      <c r="I8" s="10">
         <v>1.0</v>
       </c>
       <c r="J8" s="9" t="s">
         <v>22</v>
       </c>
       <c r="K8" s="5"/>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="11" t="s">
+      <c r="N8" s="12" t="s">
         <v>25</v>
       </c>
       <c r="O8" s="4"/>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="10">
         <v>1.0</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="S8" s="4"/>
@@ -1928,44 +1936,44 @@
         <v>2.0</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>2.0</v>
       </c>
       <c r="D9" s="9" t="s">
         <v>28</v>
       </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="8">
+      <c r="F9" s="10">
         <v>2.0</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="8">
+      <c r="I9" s="10">
         <v>2.0</v>
       </c>
       <c r="J9" s="9" t="s">
         <v>29</v>
       </c>
       <c r="K9" s="5"/>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="11" t="s">
+      <c r="N9" s="12" t="s">
         <v>32</v>
       </c>
       <c r="O9" s="4"/>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="10">
         <v>2.0</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="S9" s="4"/>
@@ -1986,44 +1994,44 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>3.0</v>
       </c>
       <c r="D10" s="9" t="s">
         <v>35</v>
       </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="8">
+      <c r="F10" s="10">
         <v>3.0</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="8">
+      <c r="I10" s="10">
         <v>3.0</v>
       </c>
       <c r="J10" s="9" t="s">
         <v>36</v>
       </c>
       <c r="K10" s="5"/>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="11" t="s">
+      <c r="N10" s="12" t="s">
         <v>39</v>
       </c>
       <c r="O10" s="4"/>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="10">
         <v>3.0</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S10" s="4"/>
@@ -2044,44 +2052,44 @@
         <v>4.0</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>4.0</v>
       </c>
       <c r="D11" s="9" t="s">
         <v>42</v>
       </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="8">
+      <c r="F11" s="10">
         <v>4.0</v>
       </c>
       <c r="G11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="H11" s="5"/>
-      <c r="I11" s="8">
+      <c r="I11" s="10">
         <v>4.0</v>
       </c>
       <c r="J11" s="9" t="s">
         <v>43</v>
       </c>
       <c r="K11" s="5"/>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="11" t="s">
+      <c r="N11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="O11" s="4"/>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="10">
         <v>4.0</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="12" t="s">
         <v>48</v>
       </c>
       <c r="S11" s="4"/>
@@ -2102,44 +2110,44 @@
         <v>5.0</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>5.0</v>
       </c>
       <c r="D12" s="9" t="s">
         <v>49</v>
       </c>
       <c r="E12" s="5"/>
-      <c r="F12" s="8">
+      <c r="F12" s="10">
         <v>5.0</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="8">
+      <c r="I12" s="10">
         <v>5.0</v>
       </c>
       <c r="J12" s="9" t="s">
         <v>50</v>
       </c>
       <c r="K12" s="5"/>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="11" t="s">
+      <c r="N12" s="12" t="s">
         <v>53</v>
       </c>
       <c r="O12" s="4"/>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="10">
         <v>5.0</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="S12" s="4"/>
@@ -2160,44 +2168,44 @@
         <v>6.0</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>6.0</v>
       </c>
       <c r="D13" s="9" t="s">
         <v>56</v>
       </c>
       <c r="E13" s="5"/>
-      <c r="F13" s="8">
+      <c r="F13" s="10">
         <v>6.0</v>
       </c>
       <c r="G13" s="9" t="s">
         <v>57</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="8">
+      <c r="I13" s="10">
         <v>6.0</v>
       </c>
       <c r="J13" s="9" t="s">
         <v>57</v>
       </c>
       <c r="K13" s="5"/>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="11" t="s">
+      <c r="N13" s="12" t="s">
         <v>60</v>
       </c>
       <c r="O13" s="4"/>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="10">
         <v>6.0</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="12" t="s">
         <v>62</v>
       </c>
       <c r="S13" s="4"/>
@@ -2218,44 +2226,44 @@
         <v>7.0</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>7.0</v>
       </c>
       <c r="D14" s="9" t="s">
         <v>63</v>
       </c>
       <c r="E14" s="5"/>
-      <c r="F14" s="8">
+      <c r="F14" s="10">
         <v>7.0</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>64</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="8">
+      <c r="I14" s="10">
         <v>7.0</v>
       </c>
       <c r="J14" s="9" t="s">
         <v>64</v>
       </c>
       <c r="K14" s="5"/>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="11" t="s">
+      <c r="N14" s="12" t="s">
         <v>67</v>
       </c>
       <c r="O14" s="4"/>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="10">
         <v>7.0</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="12" t="s">
         <v>69</v>
       </c>
       <c r="S14" s="4"/>
@@ -2279,37 +2287,37 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="8">
+      <c r="F15" s="10">
         <v>8.0</v>
       </c>
       <c r="G15" s="9" t="s">
         <v>70</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="8">
+      <c r="I15" s="10">
         <v>8.0</v>
       </c>
       <c r="J15" s="9" t="s">
         <v>70</v>
       </c>
       <c r="K15" s="5"/>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="11" t="s">
+      <c r="N15" s="12" t="s">
         <v>73</v>
       </c>
       <c r="O15" s="4"/>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="10">
         <v>8.0</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="12" t="s">
         <v>75</v>
       </c>
       <c r="S15" s="4"/>
@@ -2333,37 +2341,37 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="8">
+      <c r="F16" s="10">
         <v>9.0</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="8">
+      <c r="I16" s="10">
         <v>9.0</v>
       </c>
       <c r="J16" s="9" t="s">
         <v>76</v>
       </c>
       <c r="K16" s="5"/>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="11" t="s">
+      <c r="N16" s="12" t="s">
         <v>79</v>
       </c>
       <c r="O16" s="4"/>
-      <c r="P16" s="12" t="s">
+      <c r="P16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="10">
         <v>9.0</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="S16" s="4"/>
@@ -2387,37 +2395,37 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>83</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="10" t="s">
         <v>84</v>
       </c>
       <c r="J17" s="9" t="s">
         <v>83</v>
       </c>
       <c r="K17" s="5"/>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N17" s="11" t="s">
+      <c r="N17" s="12" t="s">
         <v>87</v>
       </c>
       <c r="O17" s="4"/>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="10">
         <v>10.0</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="12" t="s">
         <v>89</v>
       </c>
       <c r="S17" s="4"/>
@@ -2441,35 +2449,35 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>90</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="10" t="s">
         <v>91</v>
       </c>
       <c r="J18" s="9" t="s">
         <v>90</v>
       </c>
       <c r="K18" s="5"/>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="11" t="s">
+      <c r="N18" s="12" t="s">
         <v>94</v>
       </c>
       <c r="O18" s="4"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="8">
+      <c r="P18" s="15"/>
+      <c r="Q18" s="10">
         <v>11.0</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="12" t="s">
         <v>95</v>
       </c>
       <c r="S18" s="4"/>
@@ -2493,35 +2501,35 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G19" s="9" t="s">
         <v>96</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="10" t="s">
         <v>97</v>
       </c>
       <c r="J19" s="9" t="s">
         <v>96</v>
       </c>
       <c r="K19" s="5"/>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="N19" s="11" t="s">
+      <c r="N19" s="12" t="s">
         <v>100</v>
       </c>
       <c r="O19" s="4"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="8">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="10">
         <v>12.0</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="12" t="s">
         <v>101</v>
       </c>
       <c r="S19" s="4"/>
@@ -2545,35 +2553,35 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>102</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="10" t="s">
         <v>103</v>
       </c>
       <c r="J20" s="9" t="s">
         <v>102</v>
       </c>
       <c r="K20" s="5"/>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="N20" s="11" t="s">
+      <c r="N20" s="12" t="s">
         <v>106</v>
       </c>
       <c r="O20" s="4"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="8">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="10">
         <v>13.0</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="12" t="s">
         <v>107</v>
       </c>
       <c r="S20" s="4"/>
@@ -2597,35 +2605,35 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G21" s="9" t="s">
         <v>108</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="10" t="s">
         <v>109</v>
       </c>
       <c r="J21" s="9" t="s">
         <v>108</v>
       </c>
       <c r="K21" s="5"/>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="N21" s="11" t="s">
+      <c r="N21" s="12" t="s">
         <v>112</v>
       </c>
       <c r="O21" s="4"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="8">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="10">
         <v>14.0</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="12" t="s">
         <v>113</v>
       </c>
       <c r="S21" s="4"/>
@@ -2649,35 +2657,35 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="14" t="s">
         <v>82</v>
       </c>
       <c r="G22" s="9" t="s">
         <v>114</v>
       </c>
       <c r="H22" s="5"/>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="10" t="s">
         <v>115</v>
       </c>
       <c r="J22" s="9" t="s">
         <v>114</v>
       </c>
       <c r="K22" s="5"/>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="11" t="s">
+      <c r="N22" s="12" t="s">
         <v>118</v>
       </c>
       <c r="O22" s="4"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="8">
+      <c r="P22" s="15"/>
+      <c r="Q22" s="10">
         <v>15.0</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="12" t="s">
         <v>119</v>
       </c>
       <c r="S22" s="4"/>
@@ -2707,21 +2715,21 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="N23" s="11" t="s">
+      <c r="N23" s="12" t="s">
         <v>122</v>
       </c>
       <c r="O23" s="4"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="8">
+      <c r="P23" s="15"/>
+      <c r="Q23" s="10">
         <v>16.0</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="12" t="s">
         <v>123</v>
       </c>
       <c r="S23" s="4"/>
@@ -2751,21 +2759,21 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="N24" s="11" t="s">
+      <c r="N24" s="12" t="s">
         <v>126</v>
       </c>
       <c r="O24" s="4"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="8">
+      <c r="P24" s="15"/>
+      <c r="Q24" s="10">
         <v>17.0</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="12" t="s">
         <v>127</v>
       </c>
       <c r="S24" s="4"/>
@@ -2795,21 +2803,21 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="N25" s="11" t="s">
+      <c r="N25" s="12" t="s">
         <v>130</v>
       </c>
       <c r="O25" s="4"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="8">
+      <c r="P25" s="15"/>
+      <c r="Q25" s="10">
         <v>18.0</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="12" t="s">
         <v>131</v>
       </c>
       <c r="S25" s="4"/>
@@ -2839,21 +2847,21 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="N26" s="11" t="s">
+      <c r="N26" s="12" t="s">
         <v>134</v>
       </c>
       <c r="O26" s="4"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="8">
+      <c r="P26" s="15"/>
+      <c r="Q26" s="10">
         <v>19.0</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="S26" s="4"/>
@@ -2883,21 +2891,21 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="N27" s="11" t="s">
+      <c r="N27" s="12" t="s">
         <v>138</v>
       </c>
       <c r="O27" s="4"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="8">
+      <c r="P27" s="15"/>
+      <c r="Q27" s="10">
         <v>20.0</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="12" t="s">
         <v>139</v>
       </c>
       <c r="S27" s="4"/>
@@ -2927,21 +2935,21 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="N28" s="11" t="s">
+      <c r="N28" s="12" t="s">
         <v>142</v>
       </c>
       <c r="O28" s="4"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="8">
+      <c r="P28" s="15"/>
+      <c r="Q28" s="10">
         <v>21.0</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="12" t="s">
         <v>143</v>
       </c>
       <c r="S28" s="4"/>
@@ -2971,21 +2979,21 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="N29" s="11" t="s">
+      <c r="N29" s="12" t="s">
         <v>146</v>
       </c>
       <c r="O29" s="4"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="8">
+      <c r="P29" s="15"/>
+      <c r="Q29" s="10">
         <v>22.0</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="12" t="s">
         <v>147</v>
       </c>
       <c r="S29" s="4"/>
@@ -3015,21 +3023,21 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="N30" s="11" t="s">
+      <c r="N30" s="12" t="s">
         <v>150</v>
       </c>
       <c r="O30" s="4"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="8">
+      <c r="P30" s="15"/>
+      <c r="Q30" s="10">
         <v>23.0</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="12" t="s">
         <v>151</v>
       </c>
       <c r="S30" s="4"/>
@@ -3059,21 +3067,21 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N31" s="11" t="s">
+      <c r="N31" s="12" t="s">
         <v>154</v>
       </c>
       <c r="O31" s="4"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="8">
+      <c r="P31" s="15"/>
+      <c r="Q31" s="10">
         <v>24.0</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="12" t="s">
         <v>155</v>
       </c>
       <c r="S31" s="4"/>
@@ -3103,21 +3111,21 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="N32" s="11" t="s">
+      <c r="N32" s="12" t="s">
         <v>158</v>
       </c>
       <c r="O32" s="4"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="8">
+      <c r="P32" s="15"/>
+      <c r="Q32" s="10">
         <v>25.0</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="12" t="s">
         <v>159</v>
       </c>
       <c r="S32" s="4"/>
@@ -3147,21 +3155,21 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="N33" s="11" t="s">
+      <c r="N33" s="12" t="s">
         <v>161</v>
       </c>
       <c r="O33" s="4"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="8">
+      <c r="P33" s="17"/>
+      <c r="Q33" s="10">
         <v>26.0</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="R33" s="12" t="s">
         <v>162</v>
       </c>
       <c r="S33" s="4"/>
@@ -3191,23 +3199,23 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="N34" s="11" t="s">
+      <c r="N34" s="12" t="s">
         <v>164</v>
       </c>
       <c r="O34" s="4"/>
-      <c r="P34" s="17" t="s">
+      <c r="P34" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="10">
         <v>27.0</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="12" t="s">
         <v>166</v>
       </c>
       <c r="S34" s="4"/>
@@ -3237,21 +3245,21 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="N35" s="11" t="s">
+      <c r="N35" s="12" t="s">
         <v>168</v>
       </c>
       <c r="O35" s="4"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="8">
+      <c r="P35" s="17"/>
+      <c r="Q35" s="10">
         <v>28.0</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="12" t="s">
         <v>169</v>
       </c>
       <c r="S35" s="4"/>
@@ -3281,21 +3289,21 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="15" t="s">
+      <c r="L36" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="N36" s="11" t="s">
+      <c r="N36" s="12" t="s">
         <v>171</v>
       </c>
       <c r="O36" s="4"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="8">
+      <c r="P36" s="17"/>
+      <c r="Q36" s="10">
         <v>29.0</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="R36" s="12" t="s">
         <v>172</v>
       </c>
       <c r="S36" s="4"/>
@@ -3325,21 +3333,21 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="15" t="s">
+      <c r="L37" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="N37" s="11" t="s">
+      <c r="N37" s="12" t="s">
         <v>174</v>
       </c>
       <c r="O37" s="4"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="8">
+      <c r="P37" s="17"/>
+      <c r="Q37" s="10">
         <v>30.0</v>
       </c>
-      <c r="R37" s="11" t="s">
+      <c r="R37" s="12" t="s">
         <v>175</v>
       </c>
       <c r="S37" s="4"/>
@@ -3369,21 +3377,21 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="15" t="s">
+      <c r="L38" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="N38" s="18" t="s">
+      <c r="N38" s="19" t="s">
         <v>177</v>
       </c>
       <c r="O38" s="4"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="8">
+      <c r="P38" s="17"/>
+      <c r="Q38" s="10">
         <v>31.0</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="12" t="s">
         <v>178</v>
       </c>
       <c r="S38" s="4"/>
@@ -3413,23 +3421,23 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="15" t="s">
+      <c r="L39" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="N39" s="18" t="s">
+      <c r="N39" s="19" t="s">
         <v>181</v>
       </c>
       <c r="O39" s="4"/>
-      <c r="P39" s="12" t="s">
+      <c r="P39" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="10">
         <v>32.0</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="R39" s="12" t="s">
         <v>183</v>
       </c>
       <c r="S39" s="4"/>
@@ -3459,23 +3467,23 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="15" t="s">
+      <c r="L40" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M40" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="N40" s="18" t="s">
+      <c r="N40" s="19" t="s">
         <v>186</v>
       </c>
       <c r="O40" s="4"/>
-      <c r="P40" s="12" t="s">
+      <c r="P40" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="10">
         <v>33.0</v>
       </c>
-      <c r="R40" s="11" t="s">
+      <c r="R40" s="12" t="s">
         <v>188</v>
       </c>
       <c r="S40" s="4"/>
@@ -3505,23 +3513,23 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="15" t="s">
+      <c r="L41" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="N41" s="18" t="s">
+      <c r="N41" s="19" t="s">
         <v>191</v>
       </c>
       <c r="O41" s="4"/>
-      <c r="P41" s="19" t="s">
+      <c r="P41" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="10">
         <v>34.0</v>
       </c>
-      <c r="R41" s="11" t="s">
+      <c r="R41" s="12" t="s">
         <v>193</v>
       </c>
       <c r="S41" s="4"/>
@@ -3551,23 +3559,23 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="15" t="s">
+      <c r="L42" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N42" s="18" t="s">
+      <c r="N42" s="19" t="s">
         <v>196</v>
       </c>
       <c r="O42" s="4"/>
-      <c r="P42" s="20" t="s">
+      <c r="P42" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="10">
         <v>35.0</v>
       </c>
-      <c r="R42" s="11" t="s">
+      <c r="R42" s="12" t="s">
         <v>198</v>
       </c>
       <c r="S42" s="4"/>
@@ -3597,23 +3605,23 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="15" t="s">
+      <c r="L43" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="N43" s="18" t="s">
+      <c r="N43" s="19" t="s">
         <v>201</v>
       </c>
       <c r="O43" s="4"/>
-      <c r="P43" s="20" t="s">
+      <c r="P43" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="10">
         <v>36.0</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="R43" s="12" t="s">
         <v>203</v>
       </c>
       <c r="S43" s="4"/>
@@ -3643,23 +3651,23 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="N44" s="18" t="s">
+      <c r="N44" s="19" t="s">
         <v>206</v>
       </c>
       <c r="O44" s="4"/>
-      <c r="P44" s="20" t="s">
+      <c r="P44" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="10">
         <v>37.0</v>
       </c>
-      <c r="R44" s="11" t="s">
+      <c r="R44" s="12" t="s">
         <v>208</v>
       </c>
       <c r="S44" s="4"/>
@@ -3689,23 +3697,23 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="N45" s="18" t="s">
+      <c r="N45" s="19" t="s">
         <v>211</v>
       </c>
       <c r="O45" s="4"/>
-      <c r="P45" s="20" t="s">
+      <c r="P45" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="10">
         <v>38.0</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="R45" s="12" t="s">
         <v>213</v>
       </c>
       <c r="S45" s="4"/>
@@ -3735,23 +3743,23 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="15" t="s">
+      <c r="L46" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="M46" s="11" t="s">
+      <c r="M46" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="N46" s="18" t="s">
+      <c r="N46" s="19" t="s">
         <v>216</v>
       </c>
       <c r="O46" s="4"/>
-      <c r="P46" s="21" t="s">
+      <c r="P46" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="10">
         <v>39.0</v>
       </c>
-      <c r="R46" s="11" t="s">
+      <c r="R46" s="12" t="s">
         <v>218</v>
       </c>
       <c r="S46" s="4"/>
@@ -3781,23 +3789,23 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="15" t="s">
+      <c r="L47" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="M47" s="11" t="s">
+      <c r="M47" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="N47" s="18" t="s">
+      <c r="N47" s="19" t="s">
         <v>221</v>
       </c>
       <c r="O47" s="4"/>
-      <c r="P47" s="20" t="s">
+      <c r="P47" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="10">
         <v>40.0</v>
       </c>
-      <c r="R47" s="11" t="s">
+      <c r="R47" s="12" t="s">
         <v>223</v>
       </c>
       <c r="S47" s="4"/>
@@ -3827,23 +3835,23 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="15" t="s">
+      <c r="L48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N48" s="18" t="s">
+      <c r="N48" s="19" t="s">
         <v>226</v>
       </c>
       <c r="O48" s="4"/>
-      <c r="P48" s="20" t="s">
+      <c r="P48" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="10">
         <v>41.0</v>
       </c>
-      <c r="R48" s="11" t="s">
+      <c r="R48" s="12" t="s">
         <v>228</v>
       </c>
       <c r="S48" s="4"/>
@@ -3873,23 +3881,23 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="15" t="s">
+      <c r="L49" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="N49" s="18" t="s">
+      <c r="N49" s="19" t="s">
         <v>231</v>
       </c>
       <c r="O49" s="4"/>
-      <c r="P49" s="20" t="s">
+      <c r="P49" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="10">
         <v>42.0</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="R49" s="12" t="s">
         <v>233</v>
       </c>
       <c r="S49" s="4"/>
@@ -3919,23 +3927,23 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="15" t="s">
+      <c r="L50" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="N50" s="18" t="s">
+      <c r="N50" s="19" t="s">
         <v>236</v>
       </c>
       <c r="O50" s="4"/>
-      <c r="P50" s="21" t="s">
+      <c r="P50" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="Q50" s="10">
         <v>43.0</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="12" t="s">
         <v>238</v>
       </c>
       <c r="S50" s="4"/>
@@ -3965,23 +3973,23 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="15" t="s">
+      <c r="L51" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="N51" s="18" t="s">
+      <c r="N51" s="19" t="s">
         <v>241</v>
       </c>
       <c r="O51" s="4"/>
-      <c r="P51" s="20" t="s">
+      <c r="P51" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q51" s="10">
         <v>44.0</v>
       </c>
-      <c r="R51" s="11" t="s">
+      <c r="R51" s="12" t="s">
         <v>243</v>
       </c>
       <c r="S51" s="4"/>
@@ -4011,23 +4019,23 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="15" t="s">
+      <c r="L52" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="N52" s="18" t="s">
+      <c r="N52" s="19" t="s">
         <v>246</v>
       </c>
       <c r="O52" s="4"/>
-      <c r="P52" s="20" t="s">
+      <c r="P52" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="Q52" s="10">
         <v>45.0</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="12" t="s">
         <v>248</v>
       </c>
       <c r="S52" s="4"/>
@@ -4057,23 +4065,23 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="15" t="s">
+      <c r="L53" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="N53" s="18" t="s">
+      <c r="N53" s="19" t="s">
         <v>251</v>
       </c>
       <c r="O53" s="4"/>
-      <c r="P53" s="20" t="s">
+      <c r="P53" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="Q53" s="10">
         <v>46.0</v>
       </c>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="12" t="s">
         <v>253</v>
       </c>
       <c r="S53" s="4"/>
@@ -4103,23 +4111,23 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="15" t="s">
+      <c r="L54" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="N54" s="18" t="s">
+      <c r="N54" s="19" t="s">
         <v>177</v>
       </c>
       <c r="O54" s="4"/>
-      <c r="P54" s="20" t="s">
+      <c r="P54" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="Q54" s="8">
+      <c r="Q54" s="10">
         <v>47.0</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="12" t="s">
         <v>178</v>
       </c>
       <c r="S54" s="4"/>
@@ -4149,23 +4157,23 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="15" t="s">
+      <c r="L55" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="N55" s="18" t="s">
+      <c r="N55" s="19" t="s">
         <v>259</v>
       </c>
       <c r="O55" s="4"/>
-      <c r="P55" s="12" t="s">
+      <c r="P55" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="Q55" s="10">
         <v>48.0</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="12" t="s">
         <v>260</v>
       </c>
       <c r="S55" s="4"/>
@@ -4195,23 +4203,23 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="15" t="s">
+      <c r="L56" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="N56" s="18" t="s">
+      <c r="N56" s="19" t="s">
         <v>263</v>
       </c>
       <c r="O56" s="4"/>
-      <c r="P56" s="12" t="s">
+      <c r="P56" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q56" s="8">
+      <c r="Q56" s="10">
         <v>49.0</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="12" t="s">
         <v>264</v>
       </c>
       <c r="S56" s="4"/>
@@ -4241,23 +4249,23 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="15" t="s">
+      <c r="L57" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="N57" s="18" t="s">
+      <c r="N57" s="19" t="s">
         <v>267</v>
       </c>
       <c r="O57" s="4"/>
-      <c r="P57" s="12" t="s">
+      <c r="P57" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="Q57" s="10">
         <v>50.0</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="12" t="s">
         <v>268</v>
       </c>
       <c r="S57" s="4"/>
@@ -4287,23 +4295,23 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="15" t="s">
+      <c r="L58" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="N58" s="18" t="s">
+      <c r="N58" s="19" t="s">
         <v>271</v>
       </c>
       <c r="O58" s="4"/>
-      <c r="P58" s="12" t="s">
+      <c r="P58" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="Q58" s="10">
         <v>51.0</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="R58" s="12" t="s">
         <v>272</v>
       </c>
       <c r="S58" s="4"/>
@@ -4333,23 +4341,23 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="15" t="s">
+      <c r="L59" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="N59" s="18" t="s">
+      <c r="N59" s="19" t="s">
         <v>274</v>
       </c>
       <c r="O59" s="4"/>
-      <c r="P59" s="12" t="s">
+      <c r="P59" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Q59" s="8">
+      <c r="Q59" s="10">
         <v>52.0</v>
       </c>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="12" t="s">
         <v>275</v>
       </c>
       <c r="S59" s="4"/>
@@ -4379,23 +4387,23 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="15" t="s">
+      <c r="L60" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="N60" s="18" t="s">
+      <c r="N60" s="19" t="s">
         <v>277</v>
       </c>
       <c r="O60" s="4"/>
-      <c r="P60" s="12" t="s">
+      <c r="P60" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="Q60" s="8">
+      <c r="Q60" s="10">
         <v>53.0</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="R60" s="12" t="s">
         <v>278</v>
       </c>
       <c r="S60" s="4"/>
@@ -4425,23 +4433,23 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="15" t="s">
+      <c r="L61" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="N61" s="18" t="s">
+      <c r="N61" s="19" t="s">
         <v>280</v>
       </c>
       <c r="O61" s="4"/>
-      <c r="P61" s="12" t="s">
+      <c r="P61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Q61" s="8">
+      <c r="Q61" s="10">
         <v>54.0</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="R61" s="12" t="s">
         <v>281</v>
       </c>
       <c r="S61" s="4"/>
@@ -4471,23 +4479,23 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="15" t="s">
+      <c r="L62" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="N62" s="18" t="s">
+      <c r="N62" s="19" t="s">
         <v>283</v>
       </c>
       <c r="O62" s="4"/>
-      <c r="P62" s="12" t="s">
+      <c r="P62" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q62" s="8">
+      <c r="Q62" s="10">
         <v>55.0</v>
       </c>
-      <c r="R62" s="11" t="s">
+      <c r="R62" s="12" t="s">
         <v>284</v>
       </c>
       <c r="S62" s="4"/>
@@ -4517,23 +4525,23 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="15" t="s">
+      <c r="L63" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="N63" s="18" t="s">
+      <c r="N63" s="19" t="s">
         <v>286</v>
       </c>
       <c r="O63" s="4"/>
-      <c r="P63" s="12" t="s">
+      <c r="P63" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="Q63" s="10">
         <v>56.0</v>
       </c>
-      <c r="R63" s="11" t="s">
+      <c r="R63" s="12" t="s">
         <v>287</v>
       </c>
       <c r="S63" s="4"/>
@@ -4563,23 +4571,23 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="15" t="s">
+      <c r="L64" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="N64" s="18" t="s">
+      <c r="N64" s="19" t="s">
         <v>289</v>
       </c>
       <c r="O64" s="4"/>
-      <c r="P64" s="12" t="s">
+      <c r="P64" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q64" s="8">
+      <c r="Q64" s="10">
         <v>57.0</v>
       </c>
-      <c r="R64" s="11" t="s">
+      <c r="R64" s="12" t="s">
         <v>290</v>
       </c>
       <c r="S64" s="4"/>
@@ -4609,23 +4617,23 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="15" t="s">
+      <c r="L65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="N65" s="18" t="s">
+      <c r="N65" s="19" t="s">
         <v>292</v>
       </c>
       <c r="O65" s="4"/>
-      <c r="P65" s="8" t="s">
+      <c r="P65" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="Q65" s="10">
         <v>58.0</v>
       </c>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="12" t="s">
         <v>294</v>
       </c>
       <c r="S65" s="4"/>
@@ -4655,23 +4663,23 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="15" t="s">
+      <c r="L66" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="N66" s="18" t="s">
+      <c r="N66" s="19" t="s">
         <v>296</v>
       </c>
       <c r="O66" s="4"/>
-      <c r="P66" s="8" t="s">
+      <c r="P66" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="Q66" s="8">
+      <c r="Q66" s="10">
         <v>59.0</v>
       </c>
-      <c r="R66" s="11" t="s">
+      <c r="R66" s="12" t="s">
         <v>298</v>
       </c>
       <c r="S66" s="4"/>
@@ -4701,23 +4709,23 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="15" t="s">
+      <c r="L67" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="N67" s="18" t="s">
+      <c r="N67" s="19" t="s">
         <v>300</v>
       </c>
       <c r="O67" s="4"/>
-      <c r="P67" s="8" t="s">
+      <c r="P67" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="Q67" s="10">
         <v>60.0</v>
       </c>
-      <c r="R67" s="11" t="s">
+      <c r="R67" s="12" t="s">
         <v>302</v>
       </c>
       <c r="S67" s="4"/>
@@ -4747,23 +4755,23 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="15" t="s">
+      <c r="L68" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="N68" s="18" t="s">
+      <c r="N68" s="19" t="s">
         <v>304</v>
       </c>
       <c r="O68" s="4"/>
       <c r="P68" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="Q68" s="8">
+      <c r="Q68" s="10">
         <v>61.0</v>
       </c>
-      <c r="R68" s="11" t="s">
+      <c r="R68" s="12" t="s">
         <v>306</v>
       </c>
       <c r="S68" s="4"/>
@@ -4793,23 +4801,23 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="22" t="s">
+      <c r="L69" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="N69" s="11" t="s">
+      <c r="N69" s="12" t="s">
         <v>308</v>
       </c>
       <c r="O69" s="4"/>
-      <c r="P69" s="8" t="s">
+      <c r="P69" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="Q69" s="8">
+      <c r="Q69" s="10">
         <v>62.0</v>
       </c>
-      <c r="R69" s="11" t="s">
+      <c r="R69" s="12" t="s">
         <v>310</v>
       </c>
       <c r="S69" s="4"/>
@@ -4839,23 +4847,23 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="15" t="s">
+      <c r="L70" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="N70" s="11" t="s">
+      <c r="N70" s="12" t="s">
         <v>312</v>
       </c>
       <c r="O70" s="4"/>
-      <c r="P70" s="8" t="s">
+      <c r="P70" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="Q70" s="8">
+      <c r="Q70" s="10">
         <v>63.0</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="R70" s="12" t="s">
         <v>314</v>
       </c>
       <c r="S70" s="4"/>
@@ -4887,13 +4895,13 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
-      <c r="P71" s="8" t="s">
+      <c r="P71" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q71" s="8">
+      <c r="Q71" s="10">
         <v>64.0</v>
       </c>
-      <c r="R71" s="11" t="s">
+      <c r="R71" s="12" t="s">
         <v>316</v>
       </c>
       <c r="S71" s="4"/>
@@ -4925,13 +4933,13 @@
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
-      <c r="P72" s="12" t="s">
+      <c r="P72" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" s="8">
+      <c r="Q72" s="10">
         <v>65.0</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="12" t="s">
         <v>317</v>
       </c>
       <c r="S72" s="4"/>
@@ -4963,13 +4971,13 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
-      <c r="P73" s="12" t="s">
+      <c r="P73" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q73" s="8">
+      <c r="Q73" s="10">
         <v>66.0</v>
       </c>
-      <c r="R73" s="11" t="s">
+      <c r="R73" s="12" t="s">
         <v>318</v>
       </c>
       <c r="S73" s="4"/>
@@ -5001,13 +5009,13 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
-      <c r="P74" s="12" t="s">
+      <c r="P74" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="Q74" s="10">
         <v>67.0</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="R74" s="12" t="s">
         <v>319</v>
       </c>
       <c r="S74" s="4"/>
@@ -5039,13 +5047,13 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-      <c r="P75" s="12" t="s">
+      <c r="P75" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="Q75" s="10">
         <v>68.0</v>
       </c>
-      <c r="R75" s="11" t="s">
+      <c r="R75" s="12" t="s">
         <v>320</v>
       </c>
       <c r="S75" s="4"/>
@@ -5077,13 +5085,13 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
-      <c r="P76" s="12" t="s">
+      <c r="P76" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q76" s="8">
+      <c r="Q76" s="10">
         <v>69.0</v>
       </c>
-      <c r="R76" s="11" t="s">
+      <c r="R76" s="12" t="s">
         <v>321</v>
       </c>
       <c r="S76" s="4"/>
@@ -5115,13 +5123,13 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
-      <c r="P77" s="12" t="s">
+      <c r="P77" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Q77" s="8">
+      <c r="Q77" s="10">
         <v>70.0</v>
       </c>
-      <c r="R77" s="11" t="s">
+      <c r="R77" s="12" t="s">
         <v>322</v>
       </c>
       <c r="S77" s="4"/>
@@ -5153,13 +5161,13 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="12" t="s">
+      <c r="P78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q78" s="8">
+      <c r="Q78" s="10">
         <v>71.0</v>
       </c>
-      <c r="R78" s="11" t="s">
+      <c r="R78" s="12" t="s">
         <v>323</v>
       </c>
       <c r="S78" s="4"/>
@@ -5191,13 +5199,13 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="12" t="s">
+      <c r="P79" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Q79" s="8">
+      <c r="Q79" s="10">
         <v>72.0</v>
       </c>
-      <c r="R79" s="11" t="s">
+      <c r="R79" s="12" t="s">
         <v>324</v>
       </c>
       <c r="S79" s="4"/>
@@ -5229,13 +5237,13 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
-      <c r="P80" s="12" t="s">
+      <c r="P80" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Q80" s="8">
+      <c r="Q80" s="10">
         <v>73.0</v>
       </c>
-      <c r="R80" s="11" t="s">
+      <c r="R80" s="12" t="s">
         <v>325</v>
       </c>
       <c r="S80" s="4"/>
@@ -5267,13 +5275,13 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="12" t="s">
+      <c r="P81" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="Q81" s="10">
         <v>74.0</v>
       </c>
-      <c r="R81" s="11" t="s">
+      <c r="R81" s="12" t="s">
         <v>326</v>
       </c>
       <c r="S81" s="4"/>
@@ -5305,13 +5313,13 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
-      <c r="P82" s="12" t="s">
+      <c r="P82" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q82" s="8">
+      <c r="Q82" s="10">
         <v>75.0</v>
       </c>
-      <c r="R82" s="11" t="s">
+      <c r="R82" s="12" t="s">
         <v>327</v>
       </c>
       <c r="S82" s="4"/>
@@ -5343,13 +5351,13 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
-      <c r="P83" s="12" t="s">
+      <c r="P83" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q83" s="8">
+      <c r="Q83" s="10">
         <v>76.0</v>
       </c>
-      <c r="R83" s="11" t="s">
+      <c r="R83" s="12" t="s">
         <v>328</v>
       </c>
       <c r="S83" s="4"/>
@@ -5381,13 +5389,13 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
-      <c r="P84" s="12" t="s">
+      <c r="P84" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q84" s="8">
+      <c r="Q84" s="10">
         <v>77.0</v>
       </c>
-      <c r="R84" s="11" t="s">
+      <c r="R84" s="12" t="s">
         <v>329</v>
       </c>
       <c r="S84" s="4"/>
@@ -5419,13 +5427,13 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
-      <c r="P85" s="12" t="s">
+      <c r="P85" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q85" s="8">
+      <c r="Q85" s="10">
         <v>78.0</v>
       </c>
-      <c r="R85" s="11" t="s">
+      <c r="R85" s="12" t="s">
         <v>330</v>
       </c>
       <c r="S85" s="4"/>
@@ -5457,13 +5465,13 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
-      <c r="P86" s="12" t="s">
+      <c r="P86" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="Q86" s="8">
+      <c r="Q86" s="10">
         <v>79.0</v>
       </c>
-      <c r="R86" s="11" t="s">
+      <c r="R86" s="12" t="s">
         <v>331</v>
       </c>
       <c r="S86" s="4"/>
@@ -5495,13 +5503,13 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
-      <c r="P87" s="12" t="s">
+      <c r="P87" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Q87" s="8">
+      <c r="Q87" s="10">
         <v>80.0</v>
       </c>
-      <c r="R87" s="11" t="s">
+      <c r="R87" s="12" t="s">
         <v>332</v>
       </c>
       <c r="S87" s="4"/>
@@ -5533,13 +5541,13 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
-      <c r="P88" s="12" t="s">
+      <c r="P88" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="Q88" s="8">
+      <c r="Q88" s="10">
         <v>81.0</v>
       </c>
-      <c r="R88" s="11" t="s">
+      <c r="R88" s="12" t="s">
         <v>333</v>
       </c>
       <c r="S88" s="4"/>
@@ -5571,13 +5579,13 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
-      <c r="P89" s="12" t="s">
+      <c r="P89" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Q89" s="8">
+      <c r="Q89" s="10">
         <v>82.0</v>
       </c>
-      <c r="R89" s="11" t="s">
+      <c r="R89" s="12" t="s">
         <v>334</v>
       </c>
       <c r="S89" s="4"/>
@@ -5609,13 +5617,13 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
-      <c r="P90" s="12" t="s">
+      <c r="P90" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Q90" s="8">
+      <c r="Q90" s="10">
         <v>83.0</v>
       </c>
-      <c r="R90" s="11" t="s">
+      <c r="R90" s="12" t="s">
         <v>335</v>
       </c>
       <c r="S90" s="4"/>
@@ -5647,13 +5655,13 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="12" t="s">
+      <c r="P91" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q91" s="8">
+      <c r="Q91" s="10">
         <v>84.0</v>
       </c>
-      <c r="R91" s="11" t="s">
+      <c r="R91" s="12" t="s">
         <v>336</v>
       </c>
       <c r="S91" s="4"/>
@@ -5685,13 +5693,13 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
-      <c r="P92" s="12" t="s">
+      <c r="P92" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Q92" s="8">
+      <c r="Q92" s="10">
         <v>85.0</v>
       </c>
-      <c r="R92" s="11" t="s">
+      <c r="R92" s="12" t="s">
         <v>337</v>
       </c>
       <c r="S92" s="4"/>
@@ -5723,13 +5731,13 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
-      <c r="P93" s="12" t="s">
+      <c r="P93" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="Q93" s="8">
+      <c r="Q93" s="10">
         <v>86.0</v>
       </c>
-      <c r="R93" s="11" t="s">
+      <c r="R93" s="12" t="s">
         <v>338</v>
       </c>
       <c r="S93" s="4"/>
@@ -5761,13 +5769,13 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
-      <c r="P94" s="12" t="s">
+      <c r="P94" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="Q94" s="8">
+      <c r="Q94" s="10">
         <v>87.0</v>
       </c>
-      <c r="R94" s="11" t="s">
+      <c r="R94" s="12" t="s">
         <v>339</v>
       </c>
       <c r="S94" s="4"/>
@@ -5799,13 +5807,13 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-      <c r="P95" s="12" t="s">
+      <c r="P95" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="Q95" s="8">
+      <c r="Q95" s="10">
         <v>88.0</v>
       </c>
-      <c r="R95" s="11" t="s">
+      <c r="R95" s="12" t="s">
         <v>340</v>
       </c>
       <c r="S95" s="4"/>
@@ -5837,13 +5845,13 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
-      <c r="P96" s="12" t="s">
+      <c r="P96" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="Q96" s="8">
+      <c r="Q96" s="10">
         <v>89.0</v>
       </c>
-      <c r="R96" s="11" t="s">
+      <c r="R96" s="12" t="s">
         <v>341</v>
       </c>
       <c r="S96" s="4"/>
@@ -5875,13 +5883,13 @@
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
-      <c r="P97" s="12" t="s">
+      <c r="P97" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="Q97" s="8">
+      <c r="Q97" s="10">
         <v>90.0</v>
       </c>
-      <c r="R97" s="11" t="s">
+      <c r="R97" s="12" t="s">
         <v>342</v>
       </c>
       <c r="S97" s="4"/>
@@ -5913,13 +5921,13 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
-      <c r="P98" s="8" t="s">
+      <c r="P98" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="Q98" s="8">
+      <c r="Q98" s="10">
         <v>91.0</v>
       </c>
-      <c r="R98" s="11" t="s">
+      <c r="R98" s="12" t="s">
         <v>344</v>
       </c>
       <c r="S98" s="4"/>
@@ -5951,13 +5959,13 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
-      <c r="P99" s="8" t="s">
+      <c r="P99" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="Q99" s="8">
+      <c r="Q99" s="10">
         <v>92.0</v>
       </c>
-      <c r="R99" s="11" t="s">
+      <c r="R99" s="12" t="s">
         <v>346</v>
       </c>
       <c r="S99" s="4"/>
@@ -5989,13 +5997,13 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="8" t="s">
+      <c r="P100" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="Q100" s="8">
+      <c r="Q100" s="10">
         <v>93.0</v>
       </c>
-      <c r="R100" s="11" t="s">
+      <c r="R100" s="12" t="s">
         <v>348</v>
       </c>
       <c r="S100" s="4"/>
@@ -6027,13 +6035,13 @@
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="8" t="s">
+      <c r="P101" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="Q101" s="8">
+      <c r="Q101" s="10">
         <v>94.0</v>
       </c>
-      <c r="R101" s="11" t="s">
+      <c r="R101" s="12" t="s">
         <v>350</v>
       </c>
       <c r="S101" s="4"/>
@@ -6065,13 +6073,13 @@
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
-      <c r="P102" s="8" t="s">
+      <c r="P102" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="Q102" s="8">
+      <c r="Q102" s="10">
         <v>95.0</v>
       </c>
-      <c r="R102" s="11" t="s">
+      <c r="R102" s="12" t="s">
         <v>352</v>
       </c>
       <c r="S102" s="4"/>
@@ -6103,13 +6111,13 @@
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
-      <c r="P103" s="8" t="s">
+      <c r="P103" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="Q103" s="8">
+      <c r="Q103" s="10">
         <v>96.0</v>
       </c>
-      <c r="R103" s="11" t="s">
+      <c r="R103" s="12" t="s">
         <v>354</v>
       </c>
       <c r="S103" s="4"/>
@@ -6141,13 +6149,13 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
-      <c r="P104" s="12" t="s">
+      <c r="P104" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q104" s="8">
+      <c r="Q104" s="10">
         <v>97.0</v>
       </c>
-      <c r="R104" s="11" t="s">
+      <c r="R104" s="12" t="s">
         <v>355</v>
       </c>
       <c r="S104" s="4"/>
@@ -6179,13 +6187,13 @@
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
-      <c r="P105" s="12" t="s">
+      <c r="P105" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="Q105" s="8">
+      <c r="Q105" s="10">
         <v>98.0</v>
       </c>
-      <c r="R105" s="11" t="s">
+      <c r="R105" s="12" t="s">
         <v>356</v>
       </c>
       <c r="S105" s="4"/>
@@ -6217,13 +6225,13 @@
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
-      <c r="P106" s="12" t="s">
+      <c r="P106" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q106" s="8">
+      <c r="Q106" s="10">
         <v>99.0</v>
       </c>
-      <c r="R106" s="11" t="s">
+      <c r="R106" s="12" t="s">
         <v>357</v>
       </c>
       <c r="S106" s="4"/>
@@ -6255,13 +6263,13 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
-      <c r="P107" s="12" t="s">
+      <c r="P107" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q107" s="8">
+      <c r="Q107" s="10">
         <v>100.0</v>
       </c>
-      <c r="R107" s="11" t="s">
+      <c r="R107" s="12" t="s">
         <v>358</v>
       </c>
       <c r="S107" s="4"/>
@@ -6293,13 +6301,13 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
-      <c r="P108" s="12" t="s">
+      <c r="P108" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q108" s="8">
+      <c r="Q108" s="10">
         <v>101.0</v>
       </c>
-      <c r="R108" s="11" t="s">
+      <c r="R108" s="12" t="s">
         <v>359</v>
       </c>
       <c r="S108" s="4"/>
@@ -6331,13 +6339,13 @@
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
-      <c r="P109" s="12" t="s">
+      <c r="P109" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Q109" s="8">
+      <c r="Q109" s="10">
         <v>102.0</v>
       </c>
-      <c r="R109" s="11" t="s">
+      <c r="R109" s="12" t="s">
         <v>360</v>
       </c>
       <c r="S109" s="4"/>
@@ -6369,13 +6377,13 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
-      <c r="P110" s="12" t="s">
+      <c r="P110" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="Q110" s="8">
+      <c r="Q110" s="10">
         <v>103.0</v>
       </c>
-      <c r="R110" s="11" t="s">
+      <c r="R110" s="12" t="s">
         <v>361</v>
       </c>
       <c r="S110" s="4"/>
@@ -6407,13 +6415,13 @@
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
-      <c r="P111" s="12" t="s">
+      <c r="P111" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="Q111" s="8">
+      <c r="Q111" s="10">
         <v>104.0</v>
       </c>
-      <c r="R111" s="11" t="s">
+      <c r="R111" s="12" t="s">
         <v>362</v>
       </c>
       <c r="S111" s="4"/>
@@ -6445,13 +6453,13 @@
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
-      <c r="P112" s="12" t="s">
+      <c r="P112" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="Q112" s="8">
+      <c r="Q112" s="10">
         <v>105.0</v>
       </c>
-      <c r="R112" s="11" t="s">
+      <c r="R112" s="12" t="s">
         <v>363</v>
       </c>
       <c r="S112" s="4"/>
@@ -6483,13 +6491,13 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
-      <c r="P113" s="12" t="s">
+      <c r="P113" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="Q113" s="8">
+      <c r="Q113" s="10">
         <v>106.0</v>
       </c>
-      <c r="R113" s="11" t="s">
+      <c r="R113" s="12" t="s">
         <v>364</v>
       </c>
       <c r="S113" s="4"/>
@@ -6521,13 +6529,13 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
-      <c r="P114" s="12" t="s">
+      <c r="P114" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Q114" s="8">
+      <c r="Q114" s="10">
         <v>107.0</v>
       </c>
-      <c r="R114" s="11" t="s">
+      <c r="R114" s="12" t="s">
         <v>365</v>
       </c>
       <c r="S114" s="4"/>
@@ -6559,13 +6567,13 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
-      <c r="P115" s="12" t="s">
+      <c r="P115" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q115" s="8">
+      <c r="Q115" s="10">
         <v>108.0</v>
       </c>
-      <c r="R115" s="11" t="s">
+      <c r="R115" s="12" t="s">
         <v>366</v>
       </c>
       <c r="S115" s="4"/>
@@ -6597,13 +6605,13 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
-      <c r="P116" s="12" t="s">
+      <c r="P116" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="Q116" s="8">
+      <c r="Q116" s="10">
         <v>109.0</v>
       </c>
-      <c r="R116" s="11" t="s">
+      <c r="R116" s="12" t="s">
         <v>367</v>
       </c>
       <c r="S116" s="4"/>
@@ -6635,13 +6643,13 @@
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
-      <c r="P117" s="12" t="s">
+      <c r="P117" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="Q117" s="8">
+      <c r="Q117" s="10">
         <v>110.0</v>
       </c>
-      <c r="R117" s="11" t="s">
+      <c r="R117" s="12" t="s">
         <v>368</v>
       </c>
       <c r="S117" s="4"/>
@@ -6673,13 +6681,13 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
-      <c r="P118" s="12" t="s">
+      <c r="P118" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="Q118" s="8">
+      <c r="Q118" s="10">
         <v>111.0</v>
       </c>
-      <c r="R118" s="11" t="s">
+      <c r="R118" s="12" t="s">
         <v>352</v>
       </c>
       <c r="S118" s="4"/>
@@ -6711,13 +6719,13 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
-      <c r="P119" s="12" t="s">
+      <c r="P119" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="Q119" s="8">
+      <c r="Q119" s="10">
         <v>112.0</v>
       </c>
-      <c r="R119" s="11" t="s">
+      <c r="R119" s="12" t="s">
         <v>369</v>
       </c>
       <c r="S119" s="4"/>
@@ -6749,13 +6757,13 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
-      <c r="P120" s="12" t="s">
+      <c r="P120" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="Q120" s="8">
+      <c r="Q120" s="10">
         <v>113.0</v>
       </c>
-      <c r="R120" s="11" t="s">
+      <c r="R120" s="12" t="s">
         <v>370</v>
       </c>
       <c r="S120" s="4"/>
@@ -6787,13 +6795,13 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
-      <c r="P121" s="12" t="s">
+      <c r="P121" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="Q121" s="8">
+      <c r="Q121" s="10">
         <v>114.0</v>
       </c>
-      <c r="R121" s="11" t="s">
+      <c r="R121" s="12" t="s">
         <v>371</v>
       </c>
       <c r="S121" s="4"/>
@@ -6825,13 +6833,13 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
-      <c r="P122" s="12" t="s">
+      <c r="P122" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="Q122" s="8">
+      <c r="Q122" s="10">
         <v>115.0</v>
       </c>
-      <c r="R122" s="11" t="s">
+      <c r="R122" s="12" t="s">
         <v>372</v>
       </c>
       <c r="S122" s="4"/>
@@ -6863,13 +6871,13 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
-      <c r="P123" s="12" t="s">
+      <c r="P123" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="Q123" s="8">
+      <c r="Q123" s="10">
         <v>116.0</v>
       </c>
-      <c r="R123" s="11" t="s">
+      <c r="R123" s="12" t="s">
         <v>373</v>
       </c>
       <c r="S123" s="4"/>
@@ -6901,13 +6909,13 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
-      <c r="P124" s="12" t="s">
+      <c r="P124" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="Q124" s="8">
+      <c r="Q124" s="10">
         <v>117.0</v>
       </c>
-      <c r="R124" s="11" t="s">
+      <c r="R124" s="12" t="s">
         <v>374</v>
       </c>
       <c r="S124" s="4"/>
@@ -6939,13 +6947,13 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
-      <c r="P125" s="12" t="s">
+      <c r="P125" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="Q125" s="8">
+      <c r="Q125" s="10">
         <v>118.0</v>
       </c>
-      <c r="R125" s="11" t="s">
+      <c r="R125" s="12" t="s">
         <v>375</v>
       </c>
       <c r="S125" s="4"/>
@@ -6977,13 +6985,13 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
-      <c r="P126" s="12" t="s">
+      <c r="P126" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="Q126" s="8">
+      <c r="Q126" s="10">
         <v>119.0</v>
       </c>
-      <c r="R126" s="11" t="s">
+      <c r="R126" s="12" t="s">
         <v>376</v>
       </c>
       <c r="S126" s="4"/>
@@ -7015,13 +7023,13 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
-      <c r="P127" s="12" t="s">
+      <c r="P127" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="Q127" s="8">
+      <c r="Q127" s="10">
         <v>120.0</v>
       </c>
-      <c r="R127" s="11" t="s">
+      <c r="R127" s="12" t="s">
         <v>377</v>
       </c>
       <c r="S127" s="4"/>
@@ -7053,13 +7061,13 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
-      <c r="P128" s="12" t="s">
+      <c r="P128" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="Q128" s="8">
+      <c r="Q128" s="10">
         <v>121.0</v>
       </c>
-      <c r="R128" s="11" t="s">
+      <c r="R128" s="12" t="s">
         <v>378</v>
       </c>
       <c r="S128" s="4"/>
@@ -7091,13 +7099,13 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
-      <c r="P129" s="12" t="s">
+      <c r="P129" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="Q129" s="8">
+      <c r="Q129" s="10">
         <v>122.0</v>
       </c>
-      <c r="R129" s="11" t="s">
+      <c r="R129" s="12" t="s">
         <v>379</v>
       </c>
       <c r="S129" s="4"/>
@@ -7129,13 +7137,13 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
-      <c r="P130" s="12" t="s">
+      <c r="P130" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="Q130" s="8">
+      <c r="Q130" s="10">
         <v>123.0</v>
       </c>
-      <c r="R130" s="11" t="s">
+      <c r="R130" s="12" t="s">
         <v>381</v>
       </c>
       <c r="S130" s="4"/>
@@ -7167,13 +7175,13 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
-      <c r="P131" s="12" t="s">
+      <c r="P131" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="Q131" s="8">
+      <c r="Q131" s="10">
         <v>124.0</v>
       </c>
-      <c r="R131" s="11" t="s">
+      <c r="R131" s="12" t="s">
         <v>383</v>
       </c>
       <c r="S131" s="4"/>
@@ -7205,13 +7213,13 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
-      <c r="P132" s="12" t="s">
+      <c r="P132" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="Q132" s="8">
+      <c r="Q132" s="10">
         <v>125.0</v>
       </c>
-      <c r="R132" s="11" t="s">
+      <c r="R132" s="12" t="s">
         <v>385</v>
       </c>
       <c r="S132" s="4"/>
@@ -7243,13 +7251,13 @@
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
-      <c r="P133" s="12" t="s">
+      <c r="P133" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="Q133" s="8">
+      <c r="Q133" s="10">
         <v>126.0</v>
       </c>
-      <c r="R133" s="11" t="s">
+      <c r="R133" s="12" t="s">
         <v>387</v>
       </c>
       <c r="S133" s="4"/>
@@ -7281,13 +7289,13 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
-      <c r="P134" s="23" t="s">
+      <c r="P134" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="Q134" s="8">
+      <c r="Q134" s="10">
         <v>127.0</v>
       </c>
-      <c r="R134" s="11" t="s">
+      <c r="R134" s="12" t="s">
         <v>389</v>
       </c>
       <c r="S134" s="4"/>
@@ -7633,38 +7641,38 @@
         <v>0.0</v>
       </c>
       <c r="B7" s="4"/>
-      <c r="C7" s="8">
+      <c r="C7" s="10">
         <v>0.0</v>
       </c>
-      <c r="D7" s="8"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="8">
+      <c r="F7" s="10">
         <v>0.0</v>
       </c>
-      <c r="G7" s="8"/>
+      <c r="G7" s="10"/>
       <c r="H7" s="5"/>
-      <c r="I7" s="8">
+      <c r="I7" s="10">
         <v>0.0</v>
       </c>
-      <c r="J7" s="8"/>
+      <c r="J7" s="10"/>
       <c r="K7" s="5"/>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="12" t="s">
         <v>18</v>
       </c>
       <c r="O7" s="4"/>
-      <c r="P7" s="12" t="s">
+      <c r="P7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="Q7" s="8">
+      <c r="Q7" s="10">
         <v>0.0</v>
       </c>
-      <c r="R7" s="11" t="s">
+      <c r="R7" s="12" t="s">
         <v>20</v>
       </c>
       <c r="S7" s="4"/>
@@ -7685,36 +7693,36 @@
         <v>1.0</v>
       </c>
       <c r="B8" s="4"/>
-      <c r="C8" s="8">
+      <c r="C8" s="10">
         <v>1.0</v>
       </c>
-      <c r="D8" s="8"/>
+      <c r="D8" s="10"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="8">
+      <c r="F8" s="10">
         <v>1.0</v>
       </c>
-      <c r="G8" s="8"/>
+      <c r="G8" s="10"/>
       <c r="H8" s="5"/>
-      <c r="I8" s="8">
+      <c r="I8" s="10">
         <v>1.0</v>
       </c>
-      <c r="J8" s="8"/>
+      <c r="J8" s="10"/>
       <c r="K8" s="5"/>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M8" s="11" t="s">
+      <c r="M8" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="12"/>
       <c r="O8" s="4"/>
-      <c r="P8" s="12" t="s">
+      <c r="P8" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="Q8" s="8">
+      <c r="Q8" s="10">
         <v>1.0</v>
       </c>
-      <c r="R8" s="11" t="s">
+      <c r="R8" s="12" t="s">
         <v>27</v>
       </c>
       <c r="S8" s="4"/>
@@ -7735,36 +7743,36 @@
         <v>2.0</v>
       </c>
       <c r="B9" s="4"/>
-      <c r="C9" s="8">
+      <c r="C9" s="10">
         <v>2.0</v>
       </c>
-      <c r="D9" s="8"/>
+      <c r="D9" s="10"/>
       <c r="E9" s="5"/>
-      <c r="F9" s="8">
+      <c r="F9" s="10">
         <v>2.0</v>
       </c>
-      <c r="G9" s="8"/>
+      <c r="G9" s="10"/>
       <c r="H9" s="5"/>
-      <c r="I9" s="8">
+      <c r="I9" s="10">
         <v>2.0</v>
       </c>
-      <c r="J9" s="8"/>
+      <c r="J9" s="10"/>
       <c r="K9" s="5"/>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="M9" s="11" t="s">
+      <c r="M9" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="12"/>
       <c r="O9" s="4"/>
-      <c r="P9" s="12" t="s">
+      <c r="P9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="10">
         <v>2.0</v>
       </c>
-      <c r="R9" s="11" t="s">
+      <c r="R9" s="12" t="s">
         <v>34</v>
       </c>
       <c r="S9" s="4"/>
@@ -7785,36 +7793,36 @@
         <v>3.0</v>
       </c>
       <c r="B10" s="4"/>
-      <c r="C10" s="8">
+      <c r="C10" s="10">
         <v>3.0</v>
       </c>
-      <c r="D10" s="8"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="5"/>
-      <c r="F10" s="8">
+      <c r="F10" s="10">
         <v>3.0</v>
       </c>
-      <c r="G10" s="8"/>
+      <c r="G10" s="10"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="8">
+      <c r="I10" s="10">
         <v>3.0</v>
       </c>
-      <c r="J10" s="8"/>
+      <c r="J10" s="10"/>
       <c r="K10" s="5"/>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M10" s="11" t="s">
+      <c r="M10" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="12"/>
       <c r="O10" s="4"/>
-      <c r="P10" s="12" t="s">
+      <c r="P10" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="Q10" s="8">
+      <c r="Q10" s="10">
         <v>3.0</v>
       </c>
-      <c r="R10" s="11" t="s">
+      <c r="R10" s="12" t="s">
         <v>41</v>
       </c>
       <c r="S10" s="4"/>
@@ -7835,36 +7843,36 @@
         <v>4.0</v>
       </c>
       <c r="B11" s="4"/>
-      <c r="C11" s="8">
+      <c r="C11" s="10">
         <v>4.0</v>
       </c>
-      <c r="D11" s="8"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="5"/>
-      <c r="F11" s="8">
+      <c r="F11" s="10">
         <v>4.0</v>
       </c>
-      <c r="G11" s="8"/>
+      <c r="G11" s="10"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="8">
+      <c r="I11" s="10">
         <v>4.0</v>
       </c>
-      <c r="J11" s="8"/>
+      <c r="J11" s="10"/>
       <c r="K11" s="5"/>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="M11" s="11" t="s">
+      <c r="M11" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="12"/>
       <c r="O11" s="4"/>
-      <c r="P11" s="12" t="s">
+      <c r="P11" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="Q11" s="8">
+      <c r="Q11" s="10">
         <v>4.0</v>
       </c>
-      <c r="R11" s="11" t="s">
+      <c r="R11" s="12" t="s">
         <v>48</v>
       </c>
       <c r="S11" s="4"/>
@@ -7885,36 +7893,36 @@
         <v>5.0</v>
       </c>
       <c r="B12" s="4"/>
-      <c r="C12" s="8">
+      <c r="C12" s="10">
         <v>5.0</v>
       </c>
-      <c r="D12" s="8"/>
+      <c r="D12" s="10"/>
       <c r="E12" s="5"/>
-      <c r="F12" s="8">
+      <c r="F12" s="10">
         <v>5.0</v>
       </c>
-      <c r="G12" s="8"/>
+      <c r="G12" s="10"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="8">
+      <c r="I12" s="10">
         <v>5.0</v>
       </c>
-      <c r="J12" s="8"/>
+      <c r="J12" s="10"/>
       <c r="K12" s="5"/>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="11" t="s">
+      <c r="M12" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="N12" s="11"/>
+      <c r="N12" s="12"/>
       <c r="O12" s="4"/>
-      <c r="P12" s="12" t="s">
+      <c r="P12" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="Q12" s="8">
+      <c r="Q12" s="10">
         <v>5.0</v>
       </c>
-      <c r="R12" s="11" t="s">
+      <c r="R12" s="12" t="s">
         <v>55</v>
       </c>
       <c r="S12" s="4"/>
@@ -7935,36 +7943,36 @@
         <v>6.0</v>
       </c>
       <c r="B13" s="4"/>
-      <c r="C13" s="8">
+      <c r="C13" s="10">
         <v>6.0</v>
       </c>
-      <c r="D13" s="8"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="5"/>
-      <c r="F13" s="8">
+      <c r="F13" s="10">
         <v>6.0</v>
       </c>
-      <c r="G13" s="8"/>
+      <c r="G13" s="10"/>
       <c r="H13" s="5"/>
-      <c r="I13" s="8">
+      <c r="I13" s="10">
         <v>6.0</v>
       </c>
-      <c r="J13" s="8"/>
+      <c r="J13" s="10"/>
       <c r="K13" s="5"/>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="M13" s="11" t="s">
+      <c r="M13" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="12"/>
       <c r="O13" s="4"/>
-      <c r="P13" s="12" t="s">
+      <c r="P13" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="10">
         <v>6.0</v>
       </c>
-      <c r="R13" s="11" t="s">
+      <c r="R13" s="12" t="s">
         <v>62</v>
       </c>
       <c r="S13" s="4"/>
@@ -7985,36 +7993,36 @@
         <v>7.0</v>
       </c>
       <c r="B14" s="4"/>
-      <c r="C14" s="8">
+      <c r="C14" s="10">
         <v>7.0</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="10"/>
       <c r="E14" s="5"/>
-      <c r="F14" s="8">
+      <c r="F14" s="10">
         <v>7.0</v>
       </c>
-      <c r="G14" s="8"/>
+      <c r="G14" s="10"/>
       <c r="H14" s="5"/>
-      <c r="I14" s="8">
+      <c r="I14" s="10">
         <v>7.0</v>
       </c>
-      <c r="J14" s="8"/>
+      <c r="J14" s="10"/>
       <c r="K14" s="5"/>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="M14" s="11" t="s">
+      <c r="M14" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="12"/>
       <c r="O14" s="4"/>
-      <c r="P14" s="12" t="s">
+      <c r="P14" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="Q14" s="8">
+      <c r="Q14" s="10">
         <v>7.0</v>
       </c>
-      <c r="R14" s="11" t="s">
+      <c r="R14" s="12" t="s">
         <v>69</v>
       </c>
       <c r="S14" s="4"/>
@@ -8038,31 +8046,31 @@
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
-      <c r="F15" s="8">
+      <c r="F15" s="10">
         <v>8.0</v>
       </c>
-      <c r="G15" s="8"/>
+      <c r="G15" s="10"/>
       <c r="H15" s="5"/>
-      <c r="I15" s="8">
+      <c r="I15" s="10">
         <v>8.0</v>
       </c>
-      <c r="J15" s="8"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="5"/>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="M15" s="11" t="s">
+      <c r="M15" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="12"/>
       <c r="O15" s="4"/>
-      <c r="P15" s="12" t="s">
+      <c r="P15" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="Q15" s="8">
+      <c r="Q15" s="10">
         <v>8.0</v>
       </c>
-      <c r="R15" s="11" t="s">
+      <c r="R15" s="12" t="s">
         <v>75</v>
       </c>
       <c r="S15" s="4"/>
@@ -8086,31 +8094,31 @@
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
-      <c r="F16" s="8">
+      <c r="F16" s="10">
         <v>9.0</v>
       </c>
-      <c r="G16" s="8"/>
+      <c r="G16" s="10"/>
       <c r="H16" s="5"/>
-      <c r="I16" s="8">
+      <c r="I16" s="10">
         <v>9.0</v>
       </c>
-      <c r="J16" s="8"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="5"/>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="M16" s="11" t="s">
+      <c r="M16" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N16" s="12"/>
       <c r="O16" s="4"/>
-      <c r="P16" s="12" t="s">
+      <c r="P16" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="Q16" s="8">
+      <c r="Q16" s="10">
         <v>9.0</v>
       </c>
-      <c r="R16" s="11" t="s">
+      <c r="R16" s="12" t="s">
         <v>81</v>
       </c>
       <c r="S16" s="4"/>
@@ -8134,29 +8142,29 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="8"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="10"/>
       <c r="H17" s="5"/>
-      <c r="I17" s="8" t="s">
+      <c r="I17" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="J17" s="8"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="M17" s="11" t="s">
+      <c r="M17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="N17" s="12"/>
       <c r="O17" s="4"/>
-      <c r="P17" s="12" t="s">
+      <c r="P17" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="10">
         <v>10.0</v>
       </c>
-      <c r="R17" s="11" t="s">
+      <c r="R17" s="12" t="s">
         <v>89</v>
       </c>
       <c r="S17" s="4"/>
@@ -8180,27 +8188,27 @@
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="8"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="10"/>
       <c r="H18" s="5"/>
-      <c r="I18" s="8" t="s">
+      <c r="I18" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="J18" s="8"/>
+      <c r="J18" s="10"/>
       <c r="K18" s="5"/>
-      <c r="L18" s="10" t="s">
+      <c r="L18" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="11" t="s">
+      <c r="M18" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="N18" s="11"/>
+      <c r="N18" s="12"/>
       <c r="O18" s="4"/>
-      <c r="P18" s="14"/>
-      <c r="Q18" s="8">
+      <c r="P18" s="15"/>
+      <c r="Q18" s="10">
         <v>11.0</v>
       </c>
-      <c r="R18" s="11" t="s">
+      <c r="R18" s="12" t="s">
         <v>95</v>
       </c>
       <c r="S18" s="4"/>
@@ -8224,27 +8232,27 @@
       <c r="C19" s="4"/>
       <c r="D19" s="4"/>
       <c r="E19" s="4"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="8"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="10"/>
       <c r="H19" s="5"/>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="10" t="s">
         <v>97</v>
       </c>
-      <c r="J19" s="8"/>
+      <c r="J19" s="10"/>
       <c r="K19" s="5"/>
-      <c r="L19" s="10" t="s">
+      <c r="L19" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="M19" s="11" t="s">
+      <c r="M19" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="N19" s="11"/>
+      <c r="N19" s="12"/>
       <c r="O19" s="4"/>
-      <c r="P19" s="14"/>
-      <c r="Q19" s="8">
+      <c r="P19" s="15"/>
+      <c r="Q19" s="10">
         <v>12.0</v>
       </c>
-      <c r="R19" s="11" t="s">
+      <c r="R19" s="12" t="s">
         <v>101</v>
       </c>
       <c r="S19" s="4"/>
@@ -8268,27 +8276,27 @@
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
-      <c r="F20" s="13"/>
-      <c r="G20" s="8"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="10"/>
       <c r="H20" s="5"/>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="J20" s="8"/>
+      <c r="J20" s="10"/>
       <c r="K20" s="5"/>
-      <c r="L20" s="10" t="s">
+      <c r="L20" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="M20" s="11" t="s">
+      <c r="M20" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="N20" s="11"/>
+      <c r="N20" s="12"/>
       <c r="O20" s="4"/>
-      <c r="P20" s="14"/>
-      <c r="Q20" s="8">
+      <c r="P20" s="15"/>
+      <c r="Q20" s="10">
         <v>13.0</v>
       </c>
-      <c r="R20" s="11" t="s">
+      <c r="R20" s="12" t="s">
         <v>107</v>
       </c>
       <c r="S20" s="4"/>
@@ -8312,27 +8320,27 @@
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="8"/>
+      <c r="F21" s="14"/>
+      <c r="G21" s="10"/>
       <c r="H21" s="5"/>
-      <c r="I21" s="8" t="s">
+      <c r="I21" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="J21" s="8"/>
+      <c r="J21" s="10"/>
       <c r="K21" s="5"/>
-      <c r="L21" s="10" t="s">
+      <c r="L21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="M21" s="11" t="s">
+      <c r="M21" s="12" t="s">
         <v>111</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="12"/>
       <c r="O21" s="4"/>
-      <c r="P21" s="14"/>
-      <c r="Q21" s="8">
+      <c r="P21" s="15"/>
+      <c r="Q21" s="10">
         <v>14.0</v>
       </c>
-      <c r="R21" s="11" t="s">
+      <c r="R21" s="12" t="s">
         <v>113</v>
       </c>
       <c r="S21" s="4"/>
@@ -8356,27 +8364,27 @@
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="10"/>
       <c r="H22" s="5"/>
-      <c r="I22" s="8" t="s">
+      <c r="I22" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="J22" s="8"/>
+      <c r="J22" s="10"/>
       <c r="K22" s="5"/>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="M22" s="11" t="s">
+      <c r="M22" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="N22" s="11"/>
+      <c r="N22" s="12"/>
       <c r="O22" s="4"/>
-      <c r="P22" s="14"/>
-      <c r="Q22" s="8">
+      <c r="P22" s="15"/>
+      <c r="Q22" s="10">
         <v>15.0</v>
       </c>
-      <c r="R22" s="11" t="s">
+      <c r="R22" s="12" t="s">
         <v>119</v>
       </c>
       <c r="S22" s="4"/>
@@ -8406,19 +8414,19 @@
       <c r="I23" s="4"/>
       <c r="J23" s="4"/>
       <c r="K23" s="5"/>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="M23" s="11" t="s">
+      <c r="M23" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="N23" s="12"/>
       <c r="O23" s="4"/>
-      <c r="P23" s="14"/>
-      <c r="Q23" s="8">
+      <c r="P23" s="15"/>
+      <c r="Q23" s="10">
         <v>16.0</v>
       </c>
-      <c r="R23" s="11" t="s">
+      <c r="R23" s="12" t="s">
         <v>123</v>
       </c>
       <c r="S23" s="4"/>
@@ -8448,19 +8456,19 @@
       <c r="I24" s="4"/>
       <c r="J24" s="4"/>
       <c r="K24" s="5"/>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="M24" s="11" t="s">
+      <c r="M24" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="N24" s="11"/>
+      <c r="N24" s="12"/>
       <c r="O24" s="4"/>
-      <c r="P24" s="14"/>
-      <c r="Q24" s="8">
+      <c r="P24" s="15"/>
+      <c r="Q24" s="10">
         <v>17.0</v>
       </c>
-      <c r="R24" s="11" t="s">
+      <c r="R24" s="12" t="s">
         <v>127</v>
       </c>
       <c r="S24" s="4"/>
@@ -8490,19 +8498,19 @@
       <c r="I25" s="4"/>
       <c r="J25" s="4"/>
       <c r="K25" s="5"/>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="M25" s="11" t="s">
+      <c r="M25" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="N25" s="11"/>
+      <c r="N25" s="12"/>
       <c r="O25" s="4"/>
-      <c r="P25" s="14"/>
-      <c r="Q25" s="8">
+      <c r="P25" s="15"/>
+      <c r="Q25" s="10">
         <v>18.0</v>
       </c>
-      <c r="R25" s="11" t="s">
+      <c r="R25" s="12" t="s">
         <v>131</v>
       </c>
       <c r="S25" s="4"/>
@@ -8532,19 +8540,19 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
       <c r="K26" s="5"/>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="M26" s="11" t="s">
+      <c r="M26" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="N26" s="11"/>
+      <c r="N26" s="12"/>
       <c r="O26" s="4"/>
-      <c r="P26" s="14"/>
-      <c r="Q26" s="8">
+      <c r="P26" s="15"/>
+      <c r="Q26" s="10">
         <v>19.0</v>
       </c>
-      <c r="R26" s="11" t="s">
+      <c r="R26" s="12" t="s">
         <v>135</v>
       </c>
       <c r="S26" s="4"/>
@@ -8574,19 +8582,19 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
       <c r="K27" s="5"/>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="11" t="s">
         <v>136</v>
       </c>
-      <c r="M27" s="11" t="s">
+      <c r="M27" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="N27" s="11"/>
+      <c r="N27" s="12"/>
       <c r="O27" s="4"/>
-      <c r="P27" s="14"/>
-      <c r="Q27" s="8">
+      <c r="P27" s="15"/>
+      <c r="Q27" s="10">
         <v>20.0</v>
       </c>
-      <c r="R27" s="11" t="s">
+      <c r="R27" s="12" t="s">
         <v>139</v>
       </c>
       <c r="S27" s="4"/>
@@ -8616,19 +8624,19 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
       <c r="K28" s="5"/>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="M28" s="11" t="s">
+      <c r="M28" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="12"/>
       <c r="O28" s="4"/>
-      <c r="P28" s="14"/>
-      <c r="Q28" s="8">
+      <c r="P28" s="15"/>
+      <c r="Q28" s="10">
         <v>21.0</v>
       </c>
-      <c r="R28" s="11" t="s">
+      <c r="R28" s="12" t="s">
         <v>143</v>
       </c>
       <c r="S28" s="4"/>
@@ -8658,19 +8666,19 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
       <c r="K29" s="5"/>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="M29" s="11" t="s">
+      <c r="M29" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="N29" s="12"/>
       <c r="O29" s="4"/>
-      <c r="P29" s="14"/>
-      <c r="Q29" s="8">
+      <c r="P29" s="15"/>
+      <c r="Q29" s="10">
         <v>22.0</v>
       </c>
-      <c r="R29" s="11" t="s">
+      <c r="R29" s="12" t="s">
         <v>147</v>
       </c>
       <c r="S29" s="4"/>
@@ -8700,19 +8708,19 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
       <c r="K30" s="5"/>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="M30" s="11" t="s">
+      <c r="M30" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="N30" s="11"/>
+      <c r="N30" s="12"/>
       <c r="O30" s="4"/>
-      <c r="P30" s="14"/>
-      <c r="Q30" s="8">
+      <c r="P30" s="15"/>
+      <c r="Q30" s="10">
         <v>23.0</v>
       </c>
-      <c r="R30" s="11" t="s">
+      <c r="R30" s="12" t="s">
         <v>151</v>
       </c>
       <c r="S30" s="4"/>
@@ -8742,19 +8750,19 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
       <c r="K31" s="5"/>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="M31" s="11" t="s">
+      <c r="M31" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="N31" s="11"/>
+      <c r="N31" s="12"/>
       <c r="O31" s="4"/>
-      <c r="P31" s="14"/>
-      <c r="Q31" s="8">
+      <c r="P31" s="15"/>
+      <c r="Q31" s="10">
         <v>24.0</v>
       </c>
-      <c r="R31" s="11" t="s">
+      <c r="R31" s="12" t="s">
         <v>155</v>
       </c>
       <c r="S31" s="4"/>
@@ -8784,19 +8792,19 @@
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
       <c r="K32" s="5"/>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="M32" s="11" t="s">
+      <c r="M32" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="N32" s="11"/>
+      <c r="N32" s="12"/>
       <c r="O32" s="4"/>
-      <c r="P32" s="14"/>
-      <c r="Q32" s="8">
+      <c r="P32" s="15"/>
+      <c r="Q32" s="10">
         <v>25.0</v>
       </c>
-      <c r="R32" s="11" t="s">
+      <c r="R32" s="12" t="s">
         <v>159</v>
       </c>
       <c r="S32" s="4"/>
@@ -8826,19 +8834,19 @@
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
       <c r="K33" s="5"/>
-      <c r="L33" s="15" t="s">
+      <c r="L33" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="M33" s="11" t="s">
+      <c r="M33" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="N33" s="11"/>
+      <c r="N33" s="12"/>
       <c r="O33" s="4"/>
-      <c r="P33" s="16"/>
-      <c r="Q33" s="8">
+      <c r="P33" s="17"/>
+      <c r="Q33" s="10">
         <v>26.0</v>
       </c>
-      <c r="R33" s="11" t="s">
+      <c r="R33" s="12" t="s">
         <v>162</v>
       </c>
       <c r="S33" s="4"/>
@@ -8868,21 +8876,21 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="5"/>
-      <c r="L34" s="15" t="s">
+      <c r="L34" s="16" t="s">
         <v>91</v>
       </c>
-      <c r="M34" s="11" t="s">
+      <c r="M34" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="N34" s="11"/>
+      <c r="N34" s="12"/>
       <c r="O34" s="4"/>
-      <c r="P34" s="17" t="s">
+      <c r="P34" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="Q34" s="8">
+      <c r="Q34" s="10">
         <v>27.0</v>
       </c>
-      <c r="R34" s="11" t="s">
+      <c r="R34" s="12" t="s">
         <v>166</v>
       </c>
       <c r="S34" s="4"/>
@@ -8912,19 +8920,19 @@
       <c r="I35" s="4"/>
       <c r="J35" s="4"/>
       <c r="K35" s="5"/>
-      <c r="L35" s="15" t="s">
+      <c r="L35" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="M35" s="11" t="s">
+      <c r="M35" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="N35" s="11"/>
+      <c r="N35" s="12"/>
       <c r="O35" s="4"/>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="8">
+      <c r="P35" s="17"/>
+      <c r="Q35" s="10">
         <v>28.0</v>
       </c>
-      <c r="R35" s="11" t="s">
+      <c r="R35" s="12" t="s">
         <v>169</v>
       </c>
       <c r="S35" s="4"/>
@@ -8954,19 +8962,19 @@
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
       <c r="K36" s="5"/>
-      <c r="L36" s="15" t="s">
+      <c r="L36" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="M36" s="11" t="s">
+      <c r="M36" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="N36" s="11"/>
+      <c r="N36" s="12"/>
       <c r="O36" s="4"/>
-      <c r="P36" s="16"/>
-      <c r="Q36" s="8">
+      <c r="P36" s="17"/>
+      <c r="Q36" s="10">
         <v>29.0</v>
       </c>
-      <c r="R36" s="11" t="s">
+      <c r="R36" s="12" t="s">
         <v>172</v>
       </c>
       <c r="S36" s="4"/>
@@ -8996,19 +9004,19 @@
       <c r="I37" s="4"/>
       <c r="J37" s="4"/>
       <c r="K37" s="5"/>
-      <c r="L37" s="15" t="s">
+      <c r="L37" s="16" t="s">
         <v>109</v>
       </c>
-      <c r="M37" s="11" t="s">
+      <c r="M37" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="12"/>
       <c r="O37" s="4"/>
-      <c r="P37" s="16"/>
-      <c r="Q37" s="8">
+      <c r="P37" s="17"/>
+      <c r="Q37" s="10">
         <v>30.0</v>
       </c>
-      <c r="R37" s="11" t="s">
+      <c r="R37" s="12" t="s">
         <v>175</v>
       </c>
       <c r="S37" s="4"/>
@@ -9038,19 +9046,19 @@
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
       <c r="K38" s="5"/>
-      <c r="L38" s="15" t="s">
+      <c r="L38" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="M38" s="11" t="s">
+      <c r="M38" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="N38" s="18"/>
+      <c r="N38" s="19"/>
       <c r="O38" s="4"/>
-      <c r="P38" s="16"/>
-      <c r="Q38" s="8">
+      <c r="P38" s="17"/>
+      <c r="Q38" s="10">
         <v>31.0</v>
       </c>
-      <c r="R38" s="11" t="s">
+      <c r="R38" s="12" t="s">
         <v>178</v>
       </c>
       <c r="S38" s="4"/>
@@ -9080,21 +9088,21 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="5"/>
-      <c r="L39" s="15" t="s">
+      <c r="L39" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="M39" s="11" t="s">
+      <c r="M39" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="N39" s="18"/>
+      <c r="N39" s="19"/>
       <c r="O39" s="4"/>
-      <c r="P39" s="12" t="s">
+      <c r="P39" s="13" t="s">
         <v>182</v>
       </c>
-      <c r="Q39" s="8">
+      <c r="Q39" s="10">
         <v>32.0</v>
       </c>
-      <c r="R39" s="11" t="s">
+      <c r="R39" s="12" t="s">
         <v>183</v>
       </c>
       <c r="S39" s="4"/>
@@ -9124,21 +9132,21 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="5"/>
-      <c r="L40" s="15" t="s">
+      <c r="L40" s="16" t="s">
         <v>184</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M40" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="N40" s="18"/>
+      <c r="N40" s="19"/>
       <c r="O40" s="4"/>
-      <c r="P40" s="12" t="s">
+      <c r="P40" s="13" t="s">
         <v>187</v>
       </c>
-      <c r="Q40" s="8">
+      <c r="Q40" s="10">
         <v>33.0</v>
       </c>
-      <c r="R40" s="11" t="s">
+      <c r="R40" s="12" t="s">
         <v>188</v>
       </c>
       <c r="S40" s="4"/>
@@ -9168,21 +9176,21 @@
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
       <c r="K41" s="5"/>
-      <c r="L41" s="15" t="s">
+      <c r="L41" s="16" t="s">
         <v>189</v>
       </c>
-      <c r="M41" s="11" t="s">
+      <c r="M41" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="N41" s="18"/>
+      <c r="N41" s="19"/>
       <c r="O41" s="4"/>
-      <c r="P41" s="19" t="s">
+      <c r="P41" s="20" t="s">
         <v>192</v>
       </c>
-      <c r="Q41" s="8">
+      <c r="Q41" s="10">
         <v>34.0</v>
       </c>
-      <c r="R41" s="11" t="s">
+      <c r="R41" s="12" t="s">
         <v>193</v>
       </c>
       <c r="S41" s="4"/>
@@ -9212,21 +9220,21 @@
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
       <c r="K42" s="5"/>
-      <c r="L42" s="15" t="s">
+      <c r="L42" s="16" t="s">
         <v>194</v>
       </c>
-      <c r="M42" s="11" t="s">
+      <c r="M42" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="N42" s="18"/>
+      <c r="N42" s="19"/>
       <c r="O42" s="4"/>
-      <c r="P42" s="20" t="s">
+      <c r="P42" s="21" t="s">
         <v>197</v>
       </c>
-      <c r="Q42" s="8">
+      <c r="Q42" s="10">
         <v>35.0</v>
       </c>
-      <c r="R42" s="11" t="s">
+      <c r="R42" s="12" t="s">
         <v>198</v>
       </c>
       <c r="S42" s="4"/>
@@ -9256,21 +9264,21 @@
       <c r="I43" s="4"/>
       <c r="J43" s="4"/>
       <c r="K43" s="5"/>
-      <c r="L43" s="15" t="s">
+      <c r="L43" s="16" t="s">
         <v>199</v>
       </c>
-      <c r="M43" s="11" t="s">
+      <c r="M43" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="N43" s="18"/>
+      <c r="N43" s="19"/>
       <c r="O43" s="4"/>
-      <c r="P43" s="20" t="s">
+      <c r="P43" s="21" t="s">
         <v>202</v>
       </c>
-      <c r="Q43" s="8">
+      <c r="Q43" s="10">
         <v>36.0</v>
       </c>
-      <c r="R43" s="11" t="s">
+      <c r="R43" s="12" t="s">
         <v>203</v>
       </c>
       <c r="S43" s="4"/>
@@ -9300,21 +9308,21 @@
       <c r="I44" s="4"/>
       <c r="J44" s="4"/>
       <c r="K44" s="5"/>
-      <c r="L44" s="15" t="s">
+      <c r="L44" s="16" t="s">
         <v>204</v>
       </c>
-      <c r="M44" s="11" t="s">
+      <c r="M44" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="N44" s="18"/>
+      <c r="N44" s="19"/>
       <c r="O44" s="4"/>
-      <c r="P44" s="20" t="s">
+      <c r="P44" s="21" t="s">
         <v>207</v>
       </c>
-      <c r="Q44" s="8">
+      <c r="Q44" s="10">
         <v>37.0</v>
       </c>
-      <c r="R44" s="11" t="s">
+      <c r="R44" s="12" t="s">
         <v>208</v>
       </c>
       <c r="S44" s="4"/>
@@ -9344,21 +9352,21 @@
       <c r="I45" s="4"/>
       <c r="J45" s="4"/>
       <c r="K45" s="5"/>
-      <c r="L45" s="15" t="s">
+      <c r="L45" s="16" t="s">
         <v>209</v>
       </c>
-      <c r="M45" s="11" t="s">
+      <c r="M45" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="N45" s="18"/>
+      <c r="N45" s="19"/>
       <c r="O45" s="4"/>
-      <c r="P45" s="20" t="s">
+      <c r="P45" s="21" t="s">
         <v>212</v>
       </c>
-      <c r="Q45" s="8">
+      <c r="Q45" s="10">
         <v>38.0</v>
       </c>
-      <c r="R45" s="11" t="s">
+      <c r="R45" s="12" t="s">
         <v>213</v>
       </c>
       <c r="S45" s="4"/>
@@ -9388,21 +9396,21 @@
       <c r="I46" s="4"/>
       <c r="J46" s="4"/>
       <c r="K46" s="5"/>
-      <c r="L46" s="15" t="s">
+      <c r="L46" s="16" t="s">
         <v>214</v>
       </c>
-      <c r="M46" s="11" t="s">
+      <c r="M46" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="N46" s="18"/>
+      <c r="N46" s="19"/>
       <c r="O46" s="4"/>
-      <c r="P46" s="21" t="s">
+      <c r="P46" s="22" t="s">
         <v>217</v>
       </c>
-      <c r="Q46" s="8">
+      <c r="Q46" s="10">
         <v>39.0</v>
       </c>
-      <c r="R46" s="11" t="s">
+      <c r="R46" s="12" t="s">
         <v>218</v>
       </c>
       <c r="S46" s="4"/>
@@ -9432,21 +9440,21 @@
       <c r="I47" s="4"/>
       <c r="J47" s="4"/>
       <c r="K47" s="5"/>
-      <c r="L47" s="15" t="s">
+      <c r="L47" s="16" t="s">
         <v>219</v>
       </c>
-      <c r="M47" s="11" t="s">
+      <c r="M47" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="N47" s="18"/>
+      <c r="N47" s="19"/>
       <c r="O47" s="4"/>
-      <c r="P47" s="20" t="s">
+      <c r="P47" s="21" t="s">
         <v>222</v>
       </c>
-      <c r="Q47" s="8">
+      <c r="Q47" s="10">
         <v>40.0</v>
       </c>
-      <c r="R47" s="11" t="s">
+      <c r="R47" s="12" t="s">
         <v>223</v>
       </c>
       <c r="S47" s="4"/>
@@ -9476,21 +9484,21 @@
       <c r="I48" s="4"/>
       <c r="J48" s="4"/>
       <c r="K48" s="5"/>
-      <c r="L48" s="15" t="s">
+      <c r="L48" s="16" t="s">
         <v>224</v>
       </c>
-      <c r="M48" s="11" t="s">
+      <c r="M48" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="N48" s="18"/>
+      <c r="N48" s="19"/>
       <c r="O48" s="4"/>
-      <c r="P48" s="20" t="s">
+      <c r="P48" s="21" t="s">
         <v>227</v>
       </c>
-      <c r="Q48" s="8">
+      <c r="Q48" s="10">
         <v>41.0</v>
       </c>
-      <c r="R48" s="11" t="s">
+      <c r="R48" s="12" t="s">
         <v>228</v>
       </c>
       <c r="S48" s="4"/>
@@ -9520,21 +9528,21 @@
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
       <c r="K49" s="5"/>
-      <c r="L49" s="15" t="s">
+      <c r="L49" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="M49" s="11" t="s">
+      <c r="M49" s="12" t="s">
         <v>230</v>
       </c>
-      <c r="N49" s="18"/>
+      <c r="N49" s="19"/>
       <c r="O49" s="4"/>
-      <c r="P49" s="20" t="s">
+      <c r="P49" s="21" t="s">
         <v>232</v>
       </c>
-      <c r="Q49" s="8">
+      <c r="Q49" s="10">
         <v>42.0</v>
       </c>
-      <c r="R49" s="11" t="s">
+      <c r="R49" s="12" t="s">
         <v>233</v>
       </c>
       <c r="S49" s="4"/>
@@ -9564,21 +9572,21 @@
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
       <c r="K50" s="5"/>
-      <c r="L50" s="15" t="s">
+      <c r="L50" s="16" t="s">
         <v>234</v>
       </c>
-      <c r="M50" s="11" t="s">
+      <c r="M50" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="N50" s="18"/>
+      <c r="N50" s="19"/>
       <c r="O50" s="4"/>
-      <c r="P50" s="21" t="s">
+      <c r="P50" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="Q50" s="8">
+      <c r="Q50" s="10">
         <v>43.0</v>
       </c>
-      <c r="R50" s="11" t="s">
+      <c r="R50" s="12" t="s">
         <v>238</v>
       </c>
       <c r="S50" s="4"/>
@@ -9608,21 +9616,21 @@
       <c r="I51" s="4"/>
       <c r="J51" s="4"/>
       <c r="K51" s="5"/>
-      <c r="L51" s="15" t="s">
+      <c r="L51" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="M51" s="11" t="s">
+      <c r="M51" s="12" t="s">
         <v>240</v>
       </c>
-      <c r="N51" s="18"/>
+      <c r="N51" s="19"/>
       <c r="O51" s="4"/>
-      <c r="P51" s="20" t="s">
+      <c r="P51" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="Q51" s="8">
+      <c r="Q51" s="10">
         <v>44.0</v>
       </c>
-      <c r="R51" s="11" t="s">
+      <c r="R51" s="12" t="s">
         <v>243</v>
       </c>
       <c r="S51" s="4"/>
@@ -9652,21 +9660,21 @@
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
       <c r="K52" s="5"/>
-      <c r="L52" s="15" t="s">
+      <c r="L52" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="M52" s="11" t="s">
+      <c r="M52" s="12" t="s">
         <v>245</v>
       </c>
-      <c r="N52" s="18"/>
+      <c r="N52" s="19"/>
       <c r="O52" s="4"/>
-      <c r="P52" s="20" t="s">
+      <c r="P52" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="Q52" s="8">
+      <c r="Q52" s="10">
         <v>45.0</v>
       </c>
-      <c r="R52" s="11" t="s">
+      <c r="R52" s="12" t="s">
         <v>248</v>
       </c>
       <c r="S52" s="4"/>
@@ -9696,21 +9704,21 @@
       <c r="I53" s="4"/>
       <c r="J53" s="4"/>
       <c r="K53" s="5"/>
-      <c r="L53" s="15" t="s">
+      <c r="L53" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="M53" s="11" t="s">
+      <c r="M53" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="N53" s="18"/>
+      <c r="N53" s="19"/>
       <c r="O53" s="4"/>
-      <c r="P53" s="20" t="s">
+      <c r="P53" s="21" t="s">
         <v>252</v>
       </c>
-      <c r="Q53" s="8">
+      <c r="Q53" s="10">
         <v>46.0</v>
       </c>
-      <c r="R53" s="11" t="s">
+      <c r="R53" s="12" t="s">
         <v>253</v>
       </c>
       <c r="S53" s="4"/>
@@ -9740,21 +9748,21 @@
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
       <c r="K54" s="5"/>
-      <c r="L54" s="15" t="s">
+      <c r="L54" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="M54" s="11" t="s">
+      <c r="M54" s="12" t="s">
         <v>255</v>
       </c>
-      <c r="N54" s="18"/>
+      <c r="N54" s="19"/>
       <c r="O54" s="4"/>
-      <c r="P54" s="20" t="s">
+      <c r="P54" s="21" t="s">
         <v>256</v>
       </c>
-      <c r="Q54" s="8">
+      <c r="Q54" s="10">
         <v>47.0</v>
       </c>
-      <c r="R54" s="11" t="s">
+      <c r="R54" s="12" t="s">
         <v>178</v>
       </c>
       <c r="S54" s="4"/>
@@ -9784,21 +9792,21 @@
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
       <c r="K55" s="5"/>
-      <c r="L55" s="15" t="s">
+      <c r="L55" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="M55" s="11" t="s">
+      <c r="M55" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="N55" s="18"/>
+      <c r="N55" s="19"/>
       <c r="O55" s="4"/>
-      <c r="P55" s="12" t="s">
+      <c r="P55" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="Q55" s="8">
+      <c r="Q55" s="10">
         <v>48.0</v>
       </c>
-      <c r="R55" s="11" t="s">
+      <c r="R55" s="12" t="s">
         <v>260</v>
       </c>
       <c r="S55" s="4"/>
@@ -9828,21 +9836,21 @@
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
       <c r="K56" s="5"/>
-      <c r="L56" s="15" t="s">
+      <c r="L56" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="M56" s="11" t="s">
+      <c r="M56" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="N56" s="18"/>
+      <c r="N56" s="19"/>
       <c r="O56" s="4"/>
-      <c r="P56" s="12" t="s">
+      <c r="P56" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="Q56" s="8">
+      <c r="Q56" s="10">
         <v>49.0</v>
       </c>
-      <c r="R56" s="11" t="s">
+      <c r="R56" s="12" t="s">
         <v>264</v>
       </c>
       <c r="S56" s="4"/>
@@ -9872,21 +9880,21 @@
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="15" t="s">
+      <c r="L57" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="M57" s="11" t="s">
+      <c r="M57" s="12" t="s">
         <v>266</v>
       </c>
-      <c r="N57" s="18"/>
+      <c r="N57" s="19"/>
       <c r="O57" s="4"/>
-      <c r="P57" s="12" t="s">
+      <c r="P57" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="Q57" s="8">
+      <c r="Q57" s="10">
         <v>50.0</v>
       </c>
-      <c r="R57" s="11" t="s">
+      <c r="R57" s="12" t="s">
         <v>268</v>
       </c>
       <c r="S57" s="4"/>
@@ -9916,21 +9924,21 @@
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
       <c r="K58" s="5"/>
-      <c r="L58" s="15" t="s">
+      <c r="L58" s="16" t="s">
         <v>269</v>
       </c>
-      <c r="M58" s="11" t="s">
+      <c r="M58" s="12" t="s">
         <v>270</v>
       </c>
-      <c r="N58" s="18"/>
+      <c r="N58" s="19"/>
       <c r="O58" s="4"/>
-      <c r="P58" s="12" t="s">
+      <c r="P58" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q58" s="8">
+      <c r="Q58" s="10">
         <v>51.0</v>
       </c>
-      <c r="R58" s="11" t="s">
+      <c r="R58" s="12" t="s">
         <v>272</v>
       </c>
       <c r="S58" s="4"/>
@@ -9960,21 +9968,21 @@
       <c r="I59" s="4"/>
       <c r="J59" s="4"/>
       <c r="K59" s="5"/>
-      <c r="L59" s="15" t="s">
+      <c r="L59" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="M59" s="11" t="s">
+      <c r="M59" s="12" t="s">
         <v>273</v>
       </c>
-      <c r="N59" s="18"/>
+      <c r="N59" s="19"/>
       <c r="O59" s="4"/>
-      <c r="P59" s="12" t="s">
+      <c r="P59" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="Q59" s="8">
+      <c r="Q59" s="10">
         <v>52.0</v>
       </c>
-      <c r="R59" s="11" t="s">
+      <c r="R59" s="12" t="s">
         <v>275</v>
       </c>
       <c r="S59" s="4"/>
@@ -10004,21 +10012,21 @@
       <c r="I60" s="4"/>
       <c r="J60" s="4"/>
       <c r="K60" s="5"/>
-      <c r="L60" s="15" t="s">
+      <c r="L60" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="M60" s="11" t="s">
+      <c r="M60" s="12" t="s">
         <v>276</v>
       </c>
-      <c r="N60" s="18"/>
+      <c r="N60" s="19"/>
       <c r="O60" s="4"/>
-      <c r="P60" s="12" t="s">
+      <c r="P60" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="Q60" s="8">
+      <c r="Q60" s="10">
         <v>53.0</v>
       </c>
-      <c r="R60" s="11" t="s">
+      <c r="R60" s="12" t="s">
         <v>278</v>
       </c>
       <c r="S60" s="4"/>
@@ -10048,21 +10056,21 @@
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
       <c r="K61" s="5"/>
-      <c r="L61" s="15" t="s">
+      <c r="L61" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M61" s="11" t="s">
+      <c r="M61" s="12" t="s">
         <v>279</v>
       </c>
-      <c r="N61" s="18"/>
+      <c r="N61" s="19"/>
       <c r="O61" s="4"/>
-      <c r="P61" s="12" t="s">
+      <c r="P61" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="Q61" s="8">
+      <c r="Q61" s="10">
         <v>54.0</v>
       </c>
-      <c r="R61" s="11" t="s">
+      <c r="R61" s="12" t="s">
         <v>281</v>
       </c>
       <c r="S61" s="4"/>
@@ -10092,21 +10100,21 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="5"/>
-      <c r="L62" s="15" t="s">
+      <c r="L62" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="M62" s="11" t="s">
+      <c r="M62" s="12" t="s">
         <v>282</v>
       </c>
-      <c r="N62" s="18"/>
+      <c r="N62" s="19"/>
       <c r="O62" s="4"/>
-      <c r="P62" s="12" t="s">
+      <c r="P62" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="Q62" s="8">
+      <c r="Q62" s="10">
         <v>55.0</v>
       </c>
-      <c r="R62" s="11" t="s">
+      <c r="R62" s="12" t="s">
         <v>284</v>
       </c>
       <c r="S62" s="4"/>
@@ -10136,21 +10144,21 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="5"/>
-      <c r="L63" s="15" t="s">
+      <c r="L63" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="M63" s="11" t="s">
+      <c r="M63" s="12" t="s">
         <v>285</v>
       </c>
-      <c r="N63" s="18"/>
+      <c r="N63" s="19"/>
       <c r="O63" s="4"/>
-      <c r="P63" s="12" t="s">
+      <c r="P63" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="Q63" s="8">
+      <c r="Q63" s="10">
         <v>56.0</v>
       </c>
-      <c r="R63" s="11" t="s">
+      <c r="R63" s="12" t="s">
         <v>287</v>
       </c>
       <c r="S63" s="4"/>
@@ -10180,21 +10188,21 @@
       <c r="I64" s="4"/>
       <c r="J64" s="4"/>
       <c r="K64" s="5"/>
-      <c r="L64" s="15" t="s">
+      <c r="L64" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M64" s="11" t="s">
+      <c r="M64" s="12" t="s">
         <v>288</v>
       </c>
-      <c r="N64" s="18"/>
+      <c r="N64" s="19"/>
       <c r="O64" s="4"/>
-      <c r="P64" s="12" t="s">
+      <c r="P64" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="Q64" s="8">
+      <c r="Q64" s="10">
         <v>57.0</v>
       </c>
-      <c r="R64" s="11" t="s">
+      <c r="R64" s="12" t="s">
         <v>290</v>
       </c>
       <c r="S64" s="4"/>
@@ -10224,21 +10232,21 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="5"/>
-      <c r="L65" s="15" t="s">
+      <c r="L65" s="16" t="s">
         <v>59</v>
       </c>
-      <c r="M65" s="11" t="s">
+      <c r="M65" s="12" t="s">
         <v>291</v>
       </c>
-      <c r="N65" s="18"/>
+      <c r="N65" s="19"/>
       <c r="O65" s="4"/>
-      <c r="P65" s="8" t="s">
+      <c r="P65" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="Q65" s="8">
+      <c r="Q65" s="10">
         <v>58.0</v>
       </c>
-      <c r="R65" s="11" t="s">
+      <c r="R65" s="12" t="s">
         <v>294</v>
       </c>
       <c r="S65" s="4"/>
@@ -10268,21 +10276,21 @@
       <c r="I66" s="4"/>
       <c r="J66" s="4"/>
       <c r="K66" s="5"/>
-      <c r="L66" s="15" t="s">
+      <c r="L66" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="M66" s="11" t="s">
+      <c r="M66" s="12" t="s">
         <v>295</v>
       </c>
-      <c r="N66" s="18"/>
+      <c r="N66" s="19"/>
       <c r="O66" s="4"/>
-      <c r="P66" s="8" t="s">
+      <c r="P66" s="10" t="s">
         <v>297</v>
       </c>
-      <c r="Q66" s="8">
+      <c r="Q66" s="10">
         <v>59.0</v>
       </c>
-      <c r="R66" s="11" t="s">
+      <c r="R66" s="12" t="s">
         <v>298</v>
       </c>
       <c r="S66" s="4"/>
@@ -10312,21 +10320,21 @@
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
       <c r="K67" s="5"/>
-      <c r="L67" s="15" t="s">
+      <c r="L67" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="M67" s="11" t="s">
+      <c r="M67" s="12" t="s">
         <v>299</v>
       </c>
-      <c r="N67" s="18"/>
+      <c r="N67" s="19"/>
       <c r="O67" s="4"/>
-      <c r="P67" s="8" t="s">
+      <c r="P67" s="10" t="s">
         <v>301</v>
       </c>
-      <c r="Q67" s="8">
+      <c r="Q67" s="10">
         <v>60.0</v>
       </c>
-      <c r="R67" s="11" t="s">
+      <c r="R67" s="12" t="s">
         <v>302</v>
       </c>
       <c r="S67" s="4"/>
@@ -10356,21 +10364,21 @@
       <c r="I68" s="4"/>
       <c r="J68" s="4"/>
       <c r="K68" s="5"/>
-      <c r="L68" s="15" t="s">
+      <c r="L68" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="M68" s="11" t="s">
+      <c r="M68" s="12" t="s">
         <v>303</v>
       </c>
-      <c r="N68" s="18"/>
+      <c r="N68" s="19"/>
       <c r="O68" s="4"/>
       <c r="P68" s="9" t="s">
         <v>305</v>
       </c>
-      <c r="Q68" s="8">
+      <c r="Q68" s="10">
         <v>61.0</v>
       </c>
-      <c r="R68" s="11" t="s">
+      <c r="R68" s="12" t="s">
         <v>306</v>
       </c>
       <c r="S68" s="4"/>
@@ -10400,21 +10408,21 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="22" t="s">
+      <c r="L69" s="23" t="s">
         <v>237</v>
       </c>
-      <c r="M69" s="11" t="s">
+      <c r="M69" s="12" t="s">
         <v>307</v>
       </c>
-      <c r="N69" s="11"/>
+      <c r="N69" s="12"/>
       <c r="O69" s="4"/>
-      <c r="P69" s="8" t="s">
+      <c r="P69" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="Q69" s="8">
+      <c r="Q69" s="10">
         <v>62.0</v>
       </c>
-      <c r="R69" s="11" t="s">
+      <c r="R69" s="12" t="s">
         <v>310</v>
       </c>
       <c r="S69" s="4"/>
@@ -10444,21 +10452,21 @@
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
       <c r="K70" s="5"/>
-      <c r="L70" s="15" t="s">
+      <c r="L70" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="M70" s="11" t="s">
+      <c r="M70" s="12" t="s">
         <v>311</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="12"/>
       <c r="O70" s="4"/>
-      <c r="P70" s="8" t="s">
+      <c r="P70" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="Q70" s="8">
+      <c r="Q70" s="10">
         <v>63.0</v>
       </c>
-      <c r="R70" s="11" t="s">
+      <c r="R70" s="12" t="s">
         <v>314</v>
       </c>
       <c r="S70" s="4"/>
@@ -10490,13 +10498,13 @@
       <c r="M71" s="4"/>
       <c r="N71" s="4"/>
       <c r="O71" s="4"/>
-      <c r="P71" s="8" t="s">
+      <c r="P71" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="Q71" s="8">
+      <c r="Q71" s="10">
         <v>64.0</v>
       </c>
-      <c r="R71" s="11" t="s">
+      <c r="R71" s="12" t="s">
         <v>316</v>
       </c>
       <c r="S71" s="4"/>
@@ -10528,13 +10536,13 @@
       <c r="M72" s="4"/>
       <c r="N72" s="4"/>
       <c r="O72" s="4"/>
-      <c r="P72" s="12" t="s">
+      <c r="P72" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Q72" s="8">
+      <c r="Q72" s="10">
         <v>65.0</v>
       </c>
-      <c r="R72" s="11" t="s">
+      <c r="R72" s="12" t="s">
         <v>317</v>
       </c>
       <c r="S72" s="4"/>
@@ -10566,13 +10574,13 @@
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
-      <c r="P73" s="12" t="s">
+      <c r="P73" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="Q73" s="8">
+      <c r="Q73" s="10">
         <v>66.0</v>
       </c>
-      <c r="R73" s="11" t="s">
+      <c r="R73" s="12" t="s">
         <v>318</v>
       </c>
       <c r="S73" s="4"/>
@@ -10604,13 +10612,13 @@
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
-      <c r="P74" s="12" t="s">
+      <c r="P74" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="Q74" s="8">
+      <c r="Q74" s="10">
         <v>67.0</v>
       </c>
-      <c r="R74" s="11" t="s">
+      <c r="R74" s="12" t="s">
         <v>319</v>
       </c>
       <c r="S74" s="4"/>
@@ -10642,13 +10650,13 @@
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
-      <c r="P75" s="12" t="s">
+      <c r="P75" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Q75" s="8">
+      <c r="Q75" s="10">
         <v>68.0</v>
       </c>
-      <c r="R75" s="11" t="s">
+      <c r="R75" s="12" t="s">
         <v>320</v>
       </c>
       <c r="S75" s="4"/>
@@ -10680,13 +10688,13 @@
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
       <c r="O76" s="4"/>
-      <c r="P76" s="12" t="s">
+      <c r="P76" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="Q76" s="8">
+      <c r="Q76" s="10">
         <v>69.0</v>
       </c>
-      <c r="R76" s="11" t="s">
+      <c r="R76" s="12" t="s">
         <v>321</v>
       </c>
       <c r="S76" s="4"/>
@@ -10718,13 +10726,13 @@
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
-      <c r="P77" s="12" t="s">
+      <c r="P77" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="Q77" s="8">
+      <c r="Q77" s="10">
         <v>70.0</v>
       </c>
-      <c r="R77" s="11" t="s">
+      <c r="R77" s="12" t="s">
         <v>322</v>
       </c>
       <c r="S77" s="4"/>
@@ -10756,13 +10764,13 @@
       <c r="M78" s="4"/>
       <c r="N78" s="4"/>
       <c r="O78" s="4"/>
-      <c r="P78" s="12" t="s">
+      <c r="P78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Q78" s="8">
+      <c r="Q78" s="10">
         <v>71.0</v>
       </c>
-      <c r="R78" s="11" t="s">
+      <c r="R78" s="12" t="s">
         <v>323</v>
       </c>
       <c r="S78" s="4"/>
@@ -10794,13 +10802,13 @@
       <c r="M79" s="4"/>
       <c r="N79" s="4"/>
       <c r="O79" s="4"/>
-      <c r="P79" s="12" t="s">
+      <c r="P79" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="Q79" s="8">
+      <c r="Q79" s="10">
         <v>72.0</v>
       </c>
-      <c r="R79" s="11" t="s">
+      <c r="R79" s="12" t="s">
         <v>324</v>
       </c>
       <c r="S79" s="4"/>
@@ -10832,13 +10840,13 @@
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
-      <c r="P80" s="12" t="s">
+      <c r="P80" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="Q80" s="8">
+      <c r="Q80" s="10">
         <v>73.0</v>
       </c>
-      <c r="R80" s="11" t="s">
+      <c r="R80" s="12" t="s">
         <v>325</v>
       </c>
       <c r="S80" s="4"/>
@@ -10870,13 +10878,13 @@
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
       <c r="O81" s="4"/>
-      <c r="P81" s="12" t="s">
+      <c r="P81" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="Q81" s="8">
+      <c r="Q81" s="10">
         <v>74.0</v>
       </c>
-      <c r="R81" s="11" t="s">
+      <c r="R81" s="12" t="s">
         <v>326</v>
       </c>
       <c r="S81" s="4"/>
@@ -10908,13 +10916,13 @@
       <c r="M82" s="4"/>
       <c r="N82" s="4"/>
       <c r="O82" s="4"/>
-      <c r="P82" s="12" t="s">
+      <c r="P82" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="Q82" s="8">
+      <c r="Q82" s="10">
         <v>75.0</v>
       </c>
-      <c r="R82" s="11" t="s">
+      <c r="R82" s="12" t="s">
         <v>327</v>
       </c>
       <c r="S82" s="4"/>
@@ -10946,13 +10954,13 @@
       <c r="M83" s="4"/>
       <c r="N83" s="4"/>
       <c r="O83" s="4"/>
-      <c r="P83" s="12" t="s">
+      <c r="P83" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="Q83" s="8">
+      <c r="Q83" s="10">
         <v>76.0</v>
       </c>
-      <c r="R83" s="11" t="s">
+      <c r="R83" s="12" t="s">
         <v>328</v>
       </c>
       <c r="S83" s="4"/>
@@ -10984,13 +10992,13 @@
       <c r="M84" s="4"/>
       <c r="N84" s="4"/>
       <c r="O84" s="4"/>
-      <c r="P84" s="12" t="s">
+      <c r="P84" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="Q84" s="8">
+      <c r="Q84" s="10">
         <v>77.0</v>
       </c>
-      <c r="R84" s="11" t="s">
+      <c r="R84" s="12" t="s">
         <v>329</v>
       </c>
       <c r="S84" s="4"/>
@@ -11022,13 +11030,13 @@
       <c r="M85" s="4"/>
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
-      <c r="P85" s="12" t="s">
+      <c r="P85" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="Q85" s="8">
+      <c r="Q85" s="10">
         <v>78.0</v>
       </c>
-      <c r="R85" s="11" t="s">
+      <c r="R85" s="12" t="s">
         <v>330</v>
       </c>
       <c r="S85" s="4"/>
@@ -11060,13 +11068,13 @@
       <c r="M86" s="4"/>
       <c r="N86" s="4"/>
       <c r="O86" s="4"/>
-      <c r="P86" s="12" t="s">
+      <c r="P86" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="Q86" s="8">
+      <c r="Q86" s="10">
         <v>79.0</v>
       </c>
-      <c r="R86" s="11" t="s">
+      <c r="R86" s="12" t="s">
         <v>331</v>
       </c>
       <c r="S86" s="4"/>
@@ -11098,13 +11106,13 @@
       <c r="M87" s="4"/>
       <c r="N87" s="4"/>
       <c r="O87" s="4"/>
-      <c r="P87" s="12" t="s">
+      <c r="P87" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="Q87" s="8">
+      <c r="Q87" s="10">
         <v>80.0</v>
       </c>
-      <c r="R87" s="11" t="s">
+      <c r="R87" s="12" t="s">
         <v>332</v>
       </c>
       <c r="S87" s="4"/>
@@ -11136,13 +11144,13 @@
       <c r="M88" s="4"/>
       <c r="N88" s="4"/>
       <c r="O88" s="4"/>
-      <c r="P88" s="12" t="s">
+      <c r="P88" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="Q88" s="8">
+      <c r="Q88" s="10">
         <v>81.0</v>
       </c>
-      <c r="R88" s="11" t="s">
+      <c r="R88" s="12" t="s">
         <v>333</v>
       </c>
       <c r="S88" s="4"/>
@@ -11174,13 +11182,13 @@
       <c r="M89" s="4"/>
       <c r="N89" s="4"/>
       <c r="O89" s="4"/>
-      <c r="P89" s="12" t="s">
+      <c r="P89" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="Q89" s="8">
+      <c r="Q89" s="10">
         <v>82.0</v>
       </c>
-      <c r="R89" s="11" t="s">
+      <c r="R89" s="12" t="s">
         <v>334</v>
       </c>
       <c r="S89" s="4"/>
@@ -11212,13 +11220,13 @@
       <c r="M90" s="4"/>
       <c r="N90" s="4"/>
       <c r="O90" s="4"/>
-      <c r="P90" s="12" t="s">
+      <c r="P90" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="Q90" s="8">
+      <c r="Q90" s="10">
         <v>83.0</v>
       </c>
-      <c r="R90" s="11" t="s">
+      <c r="R90" s="12" t="s">
         <v>335</v>
       </c>
       <c r="S90" s="4"/>
@@ -11250,13 +11258,13 @@
       <c r="M91" s="4"/>
       <c r="N91" s="4"/>
       <c r="O91" s="4"/>
-      <c r="P91" s="12" t="s">
+      <c r="P91" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="Q91" s="8">
+      <c r="Q91" s="10">
         <v>84.0</v>
       </c>
-      <c r="R91" s="11" t="s">
+      <c r="R91" s="12" t="s">
         <v>336</v>
       </c>
       <c r="S91" s="4"/>
@@ -11288,13 +11296,13 @@
       <c r="M92" s="4"/>
       <c r="N92" s="4"/>
       <c r="O92" s="4"/>
-      <c r="P92" s="12" t="s">
+      <c r="P92" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="Q92" s="8">
+      <c r="Q92" s="10">
         <v>85.0</v>
       </c>
-      <c r="R92" s="11" t="s">
+      <c r="R92" s="12" t="s">
         <v>337</v>
       </c>
       <c r="S92" s="4"/>
@@ -11326,13 +11334,13 @@
       <c r="M93" s="4"/>
       <c r="N93" s="4"/>
       <c r="O93" s="4"/>
-      <c r="P93" s="12" t="s">
+      <c r="P93" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="Q93" s="8">
+      <c r="Q93" s="10">
         <v>86.0</v>
       </c>
-      <c r="R93" s="11" t="s">
+      <c r="R93" s="12" t="s">
         <v>338</v>
       </c>
       <c r="S93" s="4"/>
@@ -11364,13 +11372,13 @@
       <c r="M94" s="4"/>
       <c r="N94" s="4"/>
       <c r="O94" s="4"/>
-      <c r="P94" s="12" t="s">
+      <c r="P94" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="Q94" s="8">
+      <c r="Q94" s="10">
         <v>87.0</v>
       </c>
-      <c r="R94" s="11" t="s">
+      <c r="R94" s="12" t="s">
         <v>339</v>
       </c>
       <c r="S94" s="4"/>
@@ -11402,13 +11410,13 @@
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
-      <c r="P95" s="12" t="s">
+      <c r="P95" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="Q95" s="8">
+      <c r="Q95" s="10">
         <v>88.0</v>
       </c>
-      <c r="R95" s="11" t="s">
+      <c r="R95" s="12" t="s">
         <v>340</v>
       </c>
       <c r="S95" s="4"/>
@@ -11440,13 +11448,13 @@
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
-      <c r="P96" s="12" t="s">
+      <c r="P96" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="Q96" s="8">
+      <c r="Q96" s="10">
         <v>89.0</v>
       </c>
-      <c r="R96" s="11" t="s">
+      <c r="R96" s="12" t="s">
         <v>341</v>
       </c>
       <c r="S96" s="4"/>
@@ -11478,13 +11486,13 @@
       <c r="M97" s="4"/>
       <c r="N97" s="4"/>
       <c r="O97" s="4"/>
-      <c r="P97" s="12" t="s">
+      <c r="P97" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="Q97" s="8">
+      <c r="Q97" s="10">
         <v>90.0</v>
       </c>
-      <c r="R97" s="11" t="s">
+      <c r="R97" s="12" t="s">
         <v>342</v>
       </c>
       <c r="S97" s="4"/>
@@ -11516,13 +11524,13 @@
       <c r="M98" s="4"/>
       <c r="N98" s="4"/>
       <c r="O98" s="4"/>
-      <c r="P98" s="8" t="s">
+      <c r="P98" s="10" t="s">
         <v>343</v>
       </c>
-      <c r="Q98" s="8">
+      <c r="Q98" s="10">
         <v>91.0</v>
       </c>
-      <c r="R98" s="11" t="s">
+      <c r="R98" s="12" t="s">
         <v>344</v>
       </c>
       <c r="S98" s="4"/>
@@ -11554,13 +11562,13 @@
       <c r="M99" s="4"/>
       <c r="N99" s="4"/>
       <c r="O99" s="4"/>
-      <c r="P99" s="8" t="s">
+      <c r="P99" s="10" t="s">
         <v>345</v>
       </c>
-      <c r="Q99" s="8">
+      <c r="Q99" s="10">
         <v>92.0</v>
       </c>
-      <c r="R99" s="11" t="s">
+      <c r="R99" s="12" t="s">
         <v>346</v>
       </c>
       <c r="S99" s="4"/>
@@ -11592,13 +11600,13 @@
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
-      <c r="P100" s="8" t="s">
+      <c r="P100" s="10" t="s">
         <v>347</v>
       </c>
-      <c r="Q100" s="8">
+      <c r="Q100" s="10">
         <v>93.0</v>
       </c>
-      <c r="R100" s="11" t="s">
+      <c r="R100" s="12" t="s">
         <v>348</v>
       </c>
       <c r="S100" s="4"/>
@@ -11630,13 +11638,13 @@
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
-      <c r="P101" s="8" t="s">
+      <c r="P101" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="Q101" s="8">
+      <c r="Q101" s="10">
         <v>94.0</v>
       </c>
-      <c r="R101" s="11" t="s">
+      <c r="R101" s="12" t="s">
         <v>350</v>
       </c>
       <c r="S101" s="4"/>
@@ -11668,13 +11676,13 @@
       <c r="M102" s="4"/>
       <c r="N102" s="4"/>
       <c r="O102" s="4"/>
-      <c r="P102" s="8" t="s">
+      <c r="P102" s="10" t="s">
         <v>351</v>
       </c>
-      <c r="Q102" s="8">
+      <c r="Q102" s="10">
         <v>95.0</v>
       </c>
-      <c r="R102" s="11" t="s">
+      <c r="R102" s="12" t="s">
         <v>352</v>
       </c>
       <c r="S102" s="4"/>
@@ -11706,13 +11714,13 @@
       <c r="M103" s="4"/>
       <c r="N103" s="4"/>
       <c r="O103" s="4"/>
-      <c r="P103" s="8" t="s">
+      <c r="P103" s="10" t="s">
         <v>353</v>
       </c>
-      <c r="Q103" s="8">
+      <c r="Q103" s="10">
         <v>96.0</v>
       </c>
-      <c r="R103" s="11" t="s">
+      <c r="R103" s="12" t="s">
         <v>354</v>
       </c>
       <c r="S103" s="4"/>
@@ -11744,13 +11752,13 @@
       <c r="M104" s="4"/>
       <c r="N104" s="4"/>
       <c r="O104" s="4"/>
-      <c r="P104" s="12" t="s">
+      <c r="P104" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="Q104" s="8">
+      <c r="Q104" s="10">
         <v>97.0</v>
       </c>
-      <c r="R104" s="11" t="s">
+      <c r="R104" s="12" t="s">
         <v>355</v>
       </c>
       <c r="S104" s="4"/>
@@ -11782,13 +11790,13 @@
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
-      <c r="P105" s="12" t="s">
+      <c r="P105" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="Q105" s="8">
+      <c r="Q105" s="10">
         <v>98.0</v>
       </c>
-      <c r="R105" s="11" t="s">
+      <c r="R105" s="12" t="s">
         <v>356</v>
       </c>
       <c r="S105" s="4"/>
@@ -11820,13 +11828,13 @@
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
-      <c r="P106" s="12" t="s">
+      <c r="P106" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="Q106" s="8">
+      <c r="Q106" s="10">
         <v>99.0</v>
       </c>
-      <c r="R106" s="11" t="s">
+      <c r="R106" s="12" t="s">
         <v>357</v>
       </c>
       <c r="S106" s="4"/>
@@ -11858,13 +11866,13 @@
       <c r="M107" s="4"/>
       <c r="N107" s="4"/>
       <c r="O107" s="4"/>
-      <c r="P107" s="12" t="s">
+      <c r="P107" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="Q107" s="8">
+      <c r="Q107" s="10">
         <v>100.0</v>
       </c>
-      <c r="R107" s="11" t="s">
+      <c r="R107" s="12" t="s">
         <v>358</v>
       </c>
       <c r="S107" s="4"/>
@@ -11896,13 +11904,13 @@
       <c r="M108" s="4"/>
       <c r="N108" s="4"/>
       <c r="O108" s="4"/>
-      <c r="P108" s="12" t="s">
+      <c r="P108" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="Q108" s="8">
+      <c r="Q108" s="10">
         <v>101.0</v>
       </c>
-      <c r="R108" s="11" t="s">
+      <c r="R108" s="12" t="s">
         <v>359</v>
       </c>
       <c r="S108" s="4"/>
@@ -11934,13 +11942,13 @@
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
-      <c r="P109" s="12" t="s">
+      <c r="P109" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="Q109" s="8">
+      <c r="Q109" s="10">
         <v>102.0</v>
       </c>
-      <c r="R109" s="11" t="s">
+      <c r="R109" s="12" t="s">
         <v>360</v>
       </c>
       <c r="S109" s="4"/>
@@ -11972,13 +11980,13 @@
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
       <c r="O110" s="4"/>
-      <c r="P110" s="12" t="s">
+      <c r="P110" s="13" t="s">
         <v>179</v>
       </c>
-      <c r="Q110" s="8">
+      <c r="Q110" s="10">
         <v>103.0</v>
       </c>
-      <c r="R110" s="11" t="s">
+      <c r="R110" s="12" t="s">
         <v>361</v>
       </c>
       <c r="S110" s="4"/>
@@ -12010,13 +12018,13 @@
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
       <c r="O111" s="4"/>
-      <c r="P111" s="12" t="s">
+      <c r="P111" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="Q111" s="8">
+      <c r="Q111" s="10">
         <v>104.0</v>
       </c>
-      <c r="R111" s="11" t="s">
+      <c r="R111" s="12" t="s">
         <v>362</v>
       </c>
       <c r="S111" s="4"/>
@@ -12048,13 +12056,13 @@
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
       <c r="O112" s="4"/>
-      <c r="P112" s="12" t="s">
+      <c r="P112" s="13" t="s">
         <v>189</v>
       </c>
-      <c r="Q112" s="8">
+      <c r="Q112" s="10">
         <v>105.0</v>
       </c>
-      <c r="R112" s="11" t="s">
+      <c r="R112" s="12" t="s">
         <v>363</v>
       </c>
       <c r="S112" s="4"/>
@@ -12086,13 +12094,13 @@
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
-      <c r="P113" s="12" t="s">
+      <c r="P113" s="13" t="s">
         <v>194</v>
       </c>
-      <c r="Q113" s="8">
+      <c r="Q113" s="10">
         <v>106.0</v>
       </c>
-      <c r="R113" s="11" t="s">
+      <c r="R113" s="12" t="s">
         <v>364</v>
       </c>
       <c r="S113" s="4"/>
@@ -12124,13 +12132,13 @@
       <c r="M114" s="4"/>
       <c r="N114" s="4"/>
       <c r="O114" s="4"/>
-      <c r="P114" s="12" t="s">
+      <c r="P114" s="13" t="s">
         <v>199</v>
       </c>
-      <c r="Q114" s="8">
+      <c r="Q114" s="10">
         <v>107.0</v>
       </c>
-      <c r="R114" s="11" t="s">
+      <c r="R114" s="12" t="s">
         <v>365</v>
       </c>
       <c r="S114" s="4"/>
@@ -12162,13 +12170,13 @@
       <c r="M115" s="4"/>
       <c r="N115" s="4"/>
       <c r="O115" s="4"/>
-      <c r="P115" s="12" t="s">
+      <c r="P115" s="13" t="s">
         <v>204</v>
       </c>
-      <c r="Q115" s="8">
+      <c r="Q115" s="10">
         <v>108.0</v>
       </c>
-      <c r="R115" s="11" t="s">
+      <c r="R115" s="12" t="s">
         <v>366</v>
       </c>
       <c r="S115" s="4"/>
@@ -12200,13 +12208,13 @@
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
-      <c r="P116" s="12" t="s">
+      <c r="P116" s="13" t="s">
         <v>209</v>
       </c>
-      <c r="Q116" s="8">
+      <c r="Q116" s="10">
         <v>109.0</v>
       </c>
-      <c r="R116" s="11" t="s">
+      <c r="R116" s="12" t="s">
         <v>367</v>
       </c>
       <c r="S116" s="4"/>
@@ -12238,13 +12246,13 @@
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
       <c r="O117" s="4"/>
-      <c r="P117" s="12" t="s">
+      <c r="P117" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="Q117" s="8">
+      <c r="Q117" s="10">
         <v>110.0</v>
       </c>
-      <c r="R117" s="11" t="s">
+      <c r="R117" s="12" t="s">
         <v>368</v>
       </c>
       <c r="S117" s="4"/>
@@ -12276,13 +12284,13 @@
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
       <c r="O118" s="4"/>
-      <c r="P118" s="12" t="s">
+      <c r="P118" s="13" t="s">
         <v>219</v>
       </c>
-      <c r="Q118" s="8">
+      <c r="Q118" s="10">
         <v>111.0</v>
       </c>
-      <c r="R118" s="11" t="s">
+      <c r="R118" s="12" t="s">
         <v>352</v>
       </c>
       <c r="S118" s="4"/>
@@ -12314,13 +12322,13 @@
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
       <c r="O119" s="4"/>
-      <c r="P119" s="12" t="s">
+      <c r="P119" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="Q119" s="8">
+      <c r="Q119" s="10">
         <v>112.0</v>
       </c>
-      <c r="R119" s="11" t="s">
+      <c r="R119" s="12" t="s">
         <v>369</v>
       </c>
       <c r="S119" s="4"/>
@@ -12352,13 +12360,13 @@
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
-      <c r="P120" s="12" t="s">
+      <c r="P120" s="13" t="s">
         <v>229</v>
       </c>
-      <c r="Q120" s="8">
+      <c r="Q120" s="10">
         <v>113.0</v>
       </c>
-      <c r="R120" s="11" t="s">
+      <c r="R120" s="12" t="s">
         <v>370</v>
       </c>
       <c r="S120" s="4"/>
@@ -12390,13 +12398,13 @@
       <c r="M121" s="4"/>
       <c r="N121" s="4"/>
       <c r="O121" s="4"/>
-      <c r="P121" s="12" t="s">
+      <c r="P121" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="Q121" s="8">
+      <c r="Q121" s="10">
         <v>114.0</v>
       </c>
-      <c r="R121" s="11" t="s">
+      <c r="R121" s="12" t="s">
         <v>371</v>
       </c>
       <c r="S121" s="4"/>
@@ -12428,13 +12436,13 @@
       <c r="M122" s="4"/>
       <c r="N122" s="4"/>
       <c r="O122" s="4"/>
-      <c r="P122" s="12" t="s">
+      <c r="P122" s="13" t="s">
         <v>239</v>
       </c>
-      <c r="Q122" s="8">
+      <c r="Q122" s="10">
         <v>115.0</v>
       </c>
-      <c r="R122" s="11" t="s">
+      <c r="R122" s="12" t="s">
         <v>372</v>
       </c>
       <c r="S122" s="4"/>
@@ -12466,13 +12474,13 @@
       <c r="M123" s="4"/>
       <c r="N123" s="4"/>
       <c r="O123" s="4"/>
-      <c r="P123" s="12" t="s">
+      <c r="P123" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="Q123" s="8">
+      <c r="Q123" s="10">
         <v>116.0</v>
       </c>
-      <c r="R123" s="11" t="s">
+      <c r="R123" s="12" t="s">
         <v>373</v>
       </c>
       <c r="S123" s="4"/>
@@ -12504,13 +12512,13 @@
       <c r="M124" s="4"/>
       <c r="N124" s="4"/>
       <c r="O124" s="4"/>
-      <c r="P124" s="12" t="s">
+      <c r="P124" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="Q124" s="8">
+      <c r="Q124" s="10">
         <v>117.0</v>
       </c>
-      <c r="R124" s="11" t="s">
+      <c r="R124" s="12" t="s">
         <v>374</v>
       </c>
       <c r="S124" s="4"/>
@@ -12542,13 +12550,13 @@
       <c r="M125" s="4"/>
       <c r="N125" s="4"/>
       <c r="O125" s="4"/>
-      <c r="P125" s="12" t="s">
+      <c r="P125" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="Q125" s="8">
+      <c r="Q125" s="10">
         <v>118.0</v>
       </c>
-      <c r="R125" s="11" t="s">
+      <c r="R125" s="12" t="s">
         <v>375</v>
       </c>
       <c r="S125" s="4"/>
@@ -12580,13 +12588,13 @@
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
-      <c r="P126" s="12" t="s">
+      <c r="P126" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="Q126" s="8">
+      <c r="Q126" s="10">
         <v>119.0</v>
       </c>
-      <c r="R126" s="11" t="s">
+      <c r="R126" s="12" t="s">
         <v>376</v>
       </c>
       <c r="S126" s="4"/>
@@ -12618,13 +12626,13 @@
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
-      <c r="P127" s="12" t="s">
+      <c r="P127" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="Q127" s="8">
+      <c r="Q127" s="10">
         <v>120.0</v>
       </c>
-      <c r="R127" s="11" t="s">
+      <c r="R127" s="12" t="s">
         <v>377</v>
       </c>
       <c r="S127" s="4"/>
@@ -12656,13 +12664,13 @@
       <c r="M128" s="4"/>
       <c r="N128" s="4"/>
       <c r="O128" s="4"/>
-      <c r="P128" s="12" t="s">
+      <c r="P128" s="13" t="s">
         <v>265</v>
       </c>
-      <c r="Q128" s="8">
+      <c r="Q128" s="10">
         <v>121.0</v>
       </c>
-      <c r="R128" s="11" t="s">
+      <c r="R128" s="12" t="s">
         <v>378</v>
       </c>
       <c r="S128" s="4"/>
@@ -12694,13 +12702,13 @@
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
-      <c r="P129" s="12" t="s">
+      <c r="P129" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="Q129" s="8">
+      <c r="Q129" s="10">
         <v>122.0</v>
       </c>
-      <c r="R129" s="11" t="s">
+      <c r="R129" s="12" t="s">
         <v>379</v>
       </c>
       <c r="S129" s="4"/>
@@ -12732,13 +12740,13 @@
       <c r="M130" s="4"/>
       <c r="N130" s="4"/>
       <c r="O130" s="4"/>
-      <c r="P130" s="12" t="s">
+      <c r="P130" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="Q130" s="8">
+      <c r="Q130" s="10">
         <v>123.0</v>
       </c>
-      <c r="R130" s="11" t="s">
+      <c r="R130" s="12" t="s">
         <v>381</v>
       </c>
       <c r="S130" s="4"/>
@@ -12770,13 +12778,13 @@
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
-      <c r="P131" s="12" t="s">
+      <c r="P131" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="Q131" s="8">
+      <c r="Q131" s="10">
         <v>124.0</v>
       </c>
-      <c r="R131" s="11" t="s">
+      <c r="R131" s="12" t="s">
         <v>383</v>
       </c>
       <c r="S131" s="4"/>
@@ -12808,13 +12816,13 @@
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
-      <c r="P132" s="12" t="s">
+      <c r="P132" s="13" t="s">
         <v>384</v>
       </c>
-      <c r="Q132" s="8">
+      <c r="Q132" s="10">
         <v>125.0</v>
       </c>
-      <c r="R132" s="11" t="s">
+      <c r="R132" s="12" t="s">
         <v>385</v>
       </c>
       <c r="S132" s="4"/>
@@ -12846,13 +12854,13 @@
       <c r="M133" s="4"/>
       <c r="N133" s="4"/>
       <c r="O133" s="4"/>
-      <c r="P133" s="12" t="s">
+      <c r="P133" s="13" t="s">
         <v>386</v>
       </c>
-      <c r="Q133" s="8">
+      <c r="Q133" s="10">
         <v>126.0</v>
       </c>
-      <c r="R133" s="11" t="s">
+      <c r="R133" s="12" t="s">
         <v>387</v>
       </c>
       <c r="S133" s="4"/>
@@ -12884,13 +12892,13 @@
       <c r="M134" s="4"/>
       <c r="N134" s="4"/>
       <c r="O134" s="4"/>
-      <c r="P134" s="23" t="s">
+      <c r="P134" s="24" t="s">
         <v>388</v>
       </c>
-      <c r="Q134" s="8">
+      <c r="Q134" s="10">
         <v>127.0</v>
       </c>
-      <c r="R134" s="11" t="s">
+      <c r="R134" s="12" t="s">
         <v>389</v>
       </c>
       <c r="S134" s="4"/>
@@ -12972,17 +12980,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="F4:G4"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="I4:J4"/>
     <mergeCell ref="L4:N4"/>
     <mergeCell ref="P4:R4"/>
     <mergeCell ref="D1:M1"/>
     <mergeCell ref="C3:D3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="P3:Q3"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="F4:G4"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
